--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,34 +563,34 @@
         <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>2.427112992979903</v>
+        <v>2.401350274604297</v>
       </c>
       <c r="E2" t="n">
-        <v>1.890632387247597</v>
+        <v>1.871965155221943</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5364806057323062</v>
+        <v>-0.5293851193823544</v>
       </c>
       <c r="G2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" t="n">
-        <v>51.05072803808808</v>
+        <v>48.00546046704465</v>
       </c>
       <c r="I2" t="n">
         <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>187.4060346531087</v>
+        <v>186.1270409401379</v>
       </c>
       <c r="L2" t="n">
-        <v>6.190290652547469</v>
+        <v>6.174535686322745</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6952315556233849</v>
+        <v>0.7002823410749881</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.44</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2460835913628297</v>
+        <v>0.2338134485933463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8630720451349715</v>
+        <v>0.8699059729768573</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>671</v>
+        <v>527</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>593</v>
+        <v>2060</v>
       </c>
       <c r="B3" t="n">
-        <v>674</v>
+        <v>2095</v>
       </c>
       <c r="C3" t="n">
-        <v>835</v>
+        <v>2182</v>
       </c>
       <c r="D3" t="n">
-        <v>3.998634179156377</v>
+        <v>3.226048590288291</v>
       </c>
       <c r="E3" t="n">
-        <v>3.462153573424071</v>
+        <v>2.594746349442793</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5364806057323062</v>
+        <v>-0.6313022408454982</v>
       </c>
       <c r="G3" t="n">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="H3" t="n">
-        <v>124.1476686353315</v>
+        <v>64.8320414665186</v>
       </c>
       <c r="I3" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K3" t="n">
-        <v>535.802383053677</v>
+        <v>257.7566120771129</v>
       </c>
       <c r="L3" t="n">
-        <v>10.19841591791664</v>
+        <v>13.03031335228681</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6825671118141899</v>
+        <v>0.8837411494053191</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5031055900621118</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2630496012300185</v>
+        <v>0.4706782536547426</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9425429594004499</v>
+        <v>0.9259852819339685</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>672</v>
+        <v>528</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2061</v>
+        <v>2182</v>
       </c>
       <c r="B4" t="n">
-        <v>2094</v>
+        <v>2216</v>
       </c>
       <c r="C4" t="n">
-        <v>2182</v>
+        <v>2756</v>
       </c>
       <c r="D4" t="n">
-        <v>3.225950508639015</v>
+        <v>3.915466561338287</v>
       </c>
       <c r="E4" t="n">
-        <v>2.593474493437414</v>
+        <v>3.284164320492789</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6324760152016013</v>
+        <v>-0.6313022408454982</v>
       </c>
       <c r="G4" t="n">
-        <v>121</v>
+        <v>574</v>
       </c>
       <c r="H4" t="n">
-        <v>65.08836908897911</v>
+        <v>127.3424869927458</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>88</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>257.8836914520804</v>
+        <v>767.076034909556</v>
       </c>
       <c r="L4" t="n">
-        <v>13.01715545137216</v>
+        <v>15.81493731006683</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8951185805521044</v>
+        <v>0.7449589643548332</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.375</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4657789002903995</v>
+        <v>0.5153250682315429</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9264497676480056</v>
+        <v>0.6521343461050655</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>673</v>
+        <v>529</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2182</v>
+        <v>398</v>
       </c>
       <c r="B5" t="n">
-        <v>2215</v>
+        <v>430</v>
       </c>
       <c r="C5" t="n">
-        <v>2511</v>
+        <v>518</v>
       </c>
       <c r="D5" t="n">
-        <v>3.916330584091635</v>
+        <v>3.427725132754378</v>
       </c>
       <c r="E5" t="n">
-        <v>3.283854568890034</v>
+        <v>2.755233661677169</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6324760152016013</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G5" t="n">
-        <v>329</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
-        <v>126.8849669347906</v>
+        <v>20.91371969517746</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="K5" t="n">
-        <v>603.62321549222</v>
+        <v>356.3983775460356</v>
       </c>
       <c r="L5" t="n">
-        <v>15.80293432139215</v>
+        <v>28.30462226536594</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8957845899853596</v>
+        <v>0.7510256710461291</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1114864864864865</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3233452047376901</v>
+        <v>0.1305753196926709</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8925282491061788</v>
+        <v>0.9017033107570407</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>674</v>
+        <v>530</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2511</v>
+        <v>518</v>
       </c>
       <c r="B6" t="n">
-        <v>2619</v>
+        <v>552</v>
       </c>
       <c r="C6" t="n">
-        <v>2757</v>
+        <v>756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9934856049155396</v>
+        <v>2.987248941468659</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3610095897139382</v>
+        <v>2.31475747039145</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6324760152016013</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G6" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H6" t="n">
-        <v>165.815239040608</v>
+        <v>26.33446293010115</v>
       </c>
       <c r="I6" t="n">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
-        <v>164.1572716733528</v>
+        <v>482.5458110546726</v>
       </c>
       <c r="L6" t="n">
-        <v>4.00885150694456</v>
+        <v>24.66736673046517</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.5471114577315509</v>
+        <v>0.8021921827125221</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1944405474416047</v>
+        <v>0.2987143909824077</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7936274390425907</v>
+        <v>0.9262706541376718</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>675</v>
+        <v>531</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>398</v>
+        <v>756</v>
       </c>
       <c r="B7" t="n">
-        <v>429</v>
+        <v>793</v>
       </c>
       <c r="C7" t="n">
-        <v>518</v>
+        <v>996</v>
       </c>
       <c r="D7" t="n">
-        <v>3.423793748562714</v>
+        <v>2.606894311899427</v>
       </c>
       <c r="E7" t="n">
-        <v>2.75222828193874</v>
+        <v>1.934402840822217</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G7" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H7" t="n">
-        <v>22.90355749064338</v>
+        <v>99.45584849029922</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="K7" t="n">
-        <v>356.2693883943382</v>
+        <v>399.7011987752197</v>
       </c>
       <c r="L7" t="n">
-        <v>28.10679244929767</v>
+        <v>21.52656818335723</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7629219094348325</v>
+        <v>0.8229848766770084</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3483146067415731</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1271340954331131</v>
+        <v>0.1041345699113463</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9016570901972141</v>
+        <v>0.9528521515648397</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>676</v>
+        <v>532</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>518</v>
+        <v>996</v>
       </c>
       <c r="B8" t="n">
-        <v>552</v>
+        <v>1030</v>
       </c>
       <c r="C8" t="n">
-        <v>657</v>
+        <v>1126</v>
       </c>
       <c r="D8" t="n">
-        <v>2.989147338838924</v>
+        <v>1.526023783783248</v>
       </c>
       <c r="E8" t="n">
-        <v>2.317581872214951</v>
+        <v>0.8535323127060384</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G8" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H8" t="n">
-        <v>25.70641237044151</v>
+        <v>64.66111925282939</v>
       </c>
       <c r="I8" t="n">
         <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K8" t="n">
-        <v>340.8665961394855</v>
+        <v>149.7528306105603</v>
       </c>
       <c r="L8" t="n">
-        <v>24.53866968136886</v>
+        <v>12.60122241284871</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7760712753535615</v>
+        <v>0.7498908038349534</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3238095238095238</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1332997236536242</v>
+        <v>0.06142173962272525</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8928942548029242</v>
+        <v>0.8447281981162704</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>677</v>
+        <v>533</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>657</v>
+        <v>1126</v>
       </c>
       <c r="B9" t="n">
-        <v>679</v>
+        <v>1160</v>
       </c>
       <c r="C9" t="n">
-        <v>756</v>
+        <v>1348</v>
       </c>
       <c r="D9" t="n">
-        <v>1.687515323336069</v>
+        <v>1.931932240076798</v>
       </c>
       <c r="E9" t="n">
-        <v>1.015949856712095</v>
+        <v>1.259440768999589</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="H9" t="n">
-        <v>31.42764760491673</v>
+        <v>83.905549429149</v>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="K9" t="n">
-        <v>141.4730841504404</v>
+        <v>257.0960961261789</v>
       </c>
       <c r="L9" t="n">
-        <v>13.85324188056813</v>
+        <v>15.9530330408131</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7992736840455985</v>
+        <v>0.8248961450682707</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1622114230517156</v>
+        <v>0.08871991599156458</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9044454816721219</v>
+        <v>0.9888715616072117</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>678</v>
+        <v>534</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>756</v>
+        <v>3397</v>
       </c>
       <c r="B10" t="n">
-        <v>793</v>
+        <v>3431</v>
       </c>
       <c r="C10" t="n">
-        <v>997</v>
+        <v>3530</v>
       </c>
       <c r="D10" t="n">
-        <v>2.602754277362639</v>
+        <v>1.727865619778633</v>
       </c>
       <c r="E10" t="n">
-        <v>1.931188810738665</v>
+        <v>1.23100136855762</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.496864251221013</v>
       </c>
       <c r="G10" t="n">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="H10" t="n">
-        <v>99.07304084158045</v>
+        <v>42.28464281209881</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="K10" t="n">
-        <v>400.2496185394183</v>
+        <v>161.8215933893283</v>
       </c>
       <c r="L10" t="n">
-        <v>21.36667090447941</v>
+        <v>12.0316609317051</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8285346147090902</v>
+        <v>0.895465647845803</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1813725490196078</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1097262319243992</v>
+        <v>0.1840011214078102</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9515902667935096</v>
+        <v>0.9662721038810849</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>679</v>
+        <v>535</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>997</v>
+        <v>2392</v>
       </c>
       <c r="B11" t="n">
-        <v>1030</v>
+        <v>2442</v>
       </c>
       <c r="C11" t="n">
-        <v>1126</v>
+        <v>2507</v>
       </c>
       <c r="D11" t="n">
-        <v>1.524082487090257</v>
+        <v>3.287520223884112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8525170204662833</v>
+        <v>2.653066557056909</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G11" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H11" t="n">
-        <v>64.49525713670414</v>
+        <v>73.12044339167778</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>148.8608710833007</v>
+        <v>236.1766643747584</v>
       </c>
       <c r="L11" t="n">
-        <v>12.51158021952635</v>
+        <v>7.705852679279238</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7571381105710165</v>
+        <v>0.7576815547616994</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.34375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06581647637891135</v>
+        <v>0.4165830797788214</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8386788302256984</v>
+        <v>0.9302308659781365</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>680</v>
+        <v>536</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1126</v>
+        <v>2507</v>
       </c>
       <c r="B12" t="n">
-        <v>1160</v>
+        <v>2537</v>
       </c>
       <c r="C12" t="n">
-        <v>1347</v>
+        <v>2836</v>
       </c>
       <c r="D12" t="n">
-        <v>1.929681042713671</v>
+        <v>2.42725628914845</v>
       </c>
       <c r="E12" t="n">
-        <v>1.258115576089697</v>
+        <v>1.792802622321247</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G12" t="n">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="H12" t="n">
-        <v>84.18793741733975</v>
+        <v>125.3108391114902</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="K12" t="n">
-        <v>256.2638026776345</v>
+        <v>546.0807733674756</v>
       </c>
       <c r="L12" t="n">
-        <v>15.84124177563729</v>
+        <v>5.689418803615337</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8290600767995984</v>
+        <v>0.7842868056146907</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1003344481605351</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09147970360448561</v>
+        <v>0.1097966834700033</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9883496910976366</v>
+        <v>0.86653038947862</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>681</v>
+        <v>537</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1347</v>
+        <v>2836</v>
       </c>
       <c r="B13" t="n">
-        <v>1391</v>
+        <v>2911</v>
       </c>
       <c r="C13" t="n">
-        <v>1525</v>
+        <v>3210</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9841973376634355</v>
+        <v>3.026199814438293</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3126318710394621</v>
+        <v>2.39174614761109</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6715654666239734</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G13" t="n">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="H13" t="n">
-        <v>51.63144370022792</v>
+        <v>154.5523107488834</v>
       </c>
       <c r="I13" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J13" t="n">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="K13" t="n">
-        <v>112.2664325048043</v>
+        <v>603.6546681686236</v>
       </c>
       <c r="L13" t="n">
-        <v>8.07952590907969</v>
+        <v>7.093325169136873</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8049690422376798</v>
+        <v>0.8311450887558961</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.2508361204013378</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2006477638445341</v>
+        <v>0.1627852284826126</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8661412430052515</v>
+        <v>0.8391747380168968</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>825</v>
+        <v>1660</v>
       </c>
       <c r="B14" t="n">
-        <v>859</v>
+        <v>1777</v>
       </c>
       <c r="C14" t="n">
-        <v>907</v>
+        <v>2146</v>
       </c>
       <c r="D14" t="n">
-        <v>4.313813942667266</v>
+        <v>3.14333003619494</v>
       </c>
       <c r="E14" t="n">
-        <v>3.817287915748261</v>
+        <v>2.535745689181783</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4965260269190047</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G14" t="n">
-        <v>82</v>
+        <v>486</v>
       </c>
       <c r="H14" t="n">
-        <v>239.2881533424226</v>
+        <v>212.9216005518867</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="J14" t="n">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="K14" t="n">
-        <v>287.1866331920735</v>
+        <v>641.4196205351907</v>
       </c>
       <c r="L14" t="n">
-        <v>29.98187963174504</v>
+        <v>10.01408334441443</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7472906885220392</v>
+        <v>0.7699043311953107</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2553656987134508</v>
+        <v>1.383244392658659</v>
       </c>
       <c r="S14" t="n">
-        <v>0.983449986950626</v>
+        <v>0.9045244334010536</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>683</v>
+        <v>539</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3398</v>
+        <v>2146</v>
       </c>
       <c r="B15" t="n">
-        <v>3430</v>
+        <v>2181</v>
       </c>
       <c r="C15" t="n">
-        <v>3530</v>
+        <v>2391</v>
       </c>
       <c r="D15" t="n">
-        <v>1.721807197801549</v>
+        <v>2.684854851400217</v>
       </c>
       <c r="E15" t="n">
-        <v>1.225281170882544</v>
+        <v>2.07727050438706</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4965260269190047</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G15" t="n">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="H15" t="n">
-        <v>41.9157345427061</v>
+        <v>66.12531215462923</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1270337737831</v>
+        <v>405.4653537177056</v>
       </c>
       <c r="L15" t="n">
-        <v>11.96690836453631</v>
+        <v>8.553463982459704</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.9040307522504207</v>
+        <v>0.8589423872741478</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.32</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1804398585933074</v>
+        <v>0.3726912047292455</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9669856515733155</v>
+        <v>0.8678055030208154</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>684</v>
+        <v>540</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B16" t="n">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="C16" t="n">
-        <v>2503</v>
+        <v>2826</v>
       </c>
       <c r="D16" t="n">
-        <v>3.280430609667068</v>
+        <v>4.001173590738132</v>
       </c>
       <c r="E16" t="n">
-        <v>2.64624816745827</v>
+        <v>3.393589243724975</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6341824422087984</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G16" t="n">
-        <v>111</v>
+        <v>435</v>
       </c>
       <c r="H16" t="n">
-        <v>73.11975092510693</v>
+        <v>160.0125789903009</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" t="n">
-        <v>62</v>
+        <v>388</v>
       </c>
       <c r="K16" t="n">
-        <v>231.1379459983722</v>
+        <v>804.5025127147875</v>
       </c>
       <c r="L16" t="n">
-        <v>7.664904143687332</v>
+        <v>12.7470184014227</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.746590756747836</v>
+        <v>0.8507225052681463</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.1211340206185567</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4880813705979529</v>
+        <v>0.1845176283021044</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9091161629502863</v>
+        <v>0.9800588973855229</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>685</v>
+        <v>541</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2503</v>
+        <v>2826</v>
       </c>
       <c r="B17" t="n">
-        <v>2536</v>
+        <v>2859</v>
       </c>
       <c r="C17" t="n">
-        <v>2837</v>
+        <v>3200</v>
       </c>
       <c r="D17" t="n">
-        <v>2.445009511816205</v>
+        <v>1.327356162151672</v>
       </c>
       <c r="E17" t="n">
-        <v>1.810827069607407</v>
+        <v>0.7197718151385154</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6341824422087984</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G17" t="n">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H17" t="n">
-        <v>124.6607203965191</v>
+        <v>107.6305790842857</v>
       </c>
       <c r="I17" t="n">
         <v>33</v>
       </c>
       <c r="J17" t="n">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="K17" t="n">
-        <v>551.731416103022</v>
+        <v>247.1686622636625</v>
       </c>
       <c r="L17" t="n">
-        <v>5.712897411470312</v>
+        <v>4.228717660077286</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7610137088604307</v>
+        <v>0.8178775659097361</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1096345514950166</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08503707233370367</v>
+        <v>0.2742012202659675</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8618595989631338</v>
+        <v>0.7720173030271086</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>686</v>
+        <v>542</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2837</v>
+        <v>2043</v>
       </c>
       <c r="B18" t="n">
-        <v>2911</v>
+        <v>2074</v>
       </c>
       <c r="C18" t="n">
-        <v>3209</v>
+        <v>2221</v>
       </c>
       <c r="D18" t="n">
-        <v>3.023836941958239</v>
+        <v>0.9844847422611991</v>
       </c>
       <c r="E18" t="n">
-        <v>2.38965449974944</v>
+        <v>0.3424247569100641</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6341824422087984</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G18" t="n">
-        <v>372</v>
+        <v>178</v>
       </c>
       <c r="H18" t="n">
-        <v>153.9647503363817</v>
+        <v>115.1789883417623</v>
       </c>
       <c r="I18" t="n">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="K18" t="n">
-        <v>602.326223036108</v>
+        <v>97.05972673334678</v>
       </c>
       <c r="L18" t="n">
-        <v>7.065359114120331</v>
+        <v>5.779572530044123</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.830174708768969</v>
+        <v>0.8966913931830158</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2483221476510067</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1650549853110718</v>
+        <v>0.2201947931122314</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8357607512071857</v>
+        <v>0.9368811131893189</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>687</v>
+        <v>543</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1661</v>
+        <v>2472</v>
       </c>
       <c r="B19" t="n">
-        <v>1782</v>
+        <v>2538</v>
       </c>
       <c r="C19" t="n">
-        <v>2147</v>
+        <v>2750</v>
       </c>
       <c r="D19" t="n">
-        <v>3.135220096230969</v>
+        <v>4.63063040627532</v>
       </c>
       <c r="E19" t="n">
-        <v>2.526079266024747</v>
+        <v>3.988570420924185</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6091408302062216</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G19" t="n">
-        <v>486</v>
+        <v>278</v>
       </c>
       <c r="H19" t="n">
-        <v>213.3135756268084</v>
+        <v>108.9145421140356</v>
       </c>
       <c r="I19" t="n">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="J19" t="n">
-        <v>365</v>
+        <v>212</v>
       </c>
       <c r="K19" t="n">
-        <v>642.4996587113837</v>
+        <v>793.9983439485283</v>
       </c>
       <c r="L19" t="n">
-        <v>9.985720318091404</v>
+        <v>27.18484415657429</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.762370057282723</v>
+        <v>0.8385413919638587</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3315068493150685</v>
+        <v>0.3113207547169811</v>
       </c>
       <c r="R19" t="n">
-        <v>1.095963871159089</v>
+        <v>0.3597572764013382</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9049609159982642</v>
+        <v>0.8255769423663107</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>688</v>
+        <v>544</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2147</v>
+        <v>2750</v>
       </c>
       <c r="B20" t="n">
-        <v>2181</v>
+        <v>2780</v>
       </c>
       <c r="C20" t="n">
-        <v>2391</v>
+        <v>2841</v>
       </c>
       <c r="D20" t="n">
-        <v>2.683136886111784</v>
+        <v>2.314688794497746</v>
       </c>
       <c r="E20" t="n">
-        <v>2.073996055905563</v>
+        <v>1.672628809146611</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6091408302062216</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G20" t="n">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="H20" t="n">
-        <v>66.61485242204481</v>
+        <v>40.04498777483604</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="K20" t="n">
-        <v>405.5561063005733</v>
+        <v>187.9018851652596</v>
       </c>
       <c r="L20" t="n">
-        <v>8.545828904349152</v>
+        <v>13.58874464783808</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8581215650913318</v>
+        <v>0.7182507760407667</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1619047619047619</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3556199206794245</v>
+        <v>0.04806320518534352</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8664331258020591</v>
+        <v>0.9585690323130098</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2391</v>
+        <v>2841</v>
       </c>
       <c r="B21" t="n">
-        <v>2437</v>
+        <v>2924</v>
       </c>
       <c r="C21" t="n">
-        <v>2826</v>
+        <v>3078</v>
       </c>
       <c r="D21" t="n">
-        <v>3.993301280216535</v>
+        <v>2.301045099178814</v>
       </c>
       <c r="E21" t="n">
-        <v>3.384160450010313</v>
+        <v>1.658985113827679</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6091408302062216</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G21" t="n">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="H21" t="n">
-        <v>161.569519523925</v>
+        <v>43.6590634338495</v>
       </c>
       <c r="I21" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="J21" t="n">
-        <v>389</v>
+        <v>154</v>
       </c>
       <c r="K21" t="n">
-        <v>805.2190359524488</v>
+        <v>387.5359352780914</v>
       </c>
       <c r="L21" t="n">
-        <v>12.71872101676559</v>
+        <v>13.50864718843767</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8225888568418585</v>
+        <v>0.6263179696444714</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1182519280205656</v>
+        <v>0.538961038961039</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1700580016314148</v>
+        <v>0.2739386189967072</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9799635857801756</v>
+        <v>0.9335029171292931</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>690</v>
+        <v>546</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2826</v>
+        <v>3078</v>
       </c>
       <c r="B22" t="n">
-        <v>2859</v>
+        <v>3116</v>
       </c>
       <c r="C22" t="n">
-        <v>3200</v>
+        <v>3209</v>
       </c>
       <c r="D22" t="n">
-        <v>1.328326120628672</v>
+        <v>2.305134558580497</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7191852904224502</v>
+        <v>1.663074573229362</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6091408302062216</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G22" t="n">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="H22" t="n">
-        <v>109.3848313362219</v>
+        <v>82.85195702491092</v>
       </c>
       <c r="I22" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>341</v>
+        <v>93</v>
       </c>
       <c r="K22" t="n">
-        <v>247.7112927136376</v>
+        <v>225.4023643209053</v>
       </c>
       <c r="L22" t="n">
-        <v>4.230737468083674</v>
+        <v>13.53265500309045</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8170120813120284</v>
+        <v>0.7833092293482051</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2739871899852046</v>
+        <v>0.1345681107600429</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7573023795900277</v>
+        <v>0.8925774558113453</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>691</v>
+        <v>547</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2043</v>
+        <v>3209</v>
       </c>
       <c r="B23" t="n">
-        <v>2072</v>
+        <v>3247</v>
       </c>
       <c r="C23" t="n">
-        <v>2221</v>
+        <v>3530</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9862043534982607</v>
+        <v>1.75532284081152</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3420076375442117</v>
+        <v>1.113262855460385</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G23" t="n">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="H23" t="n">
-        <v>115.5241453645308</v>
+        <v>154.1231594261967</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J23" t="n">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="K23" t="n">
-        <v>97.42475473708032</v>
+        <v>448.1644904539878</v>
       </c>
       <c r="L23" t="n">
-        <v>5.774639749406921</v>
+        <v>10.3048988334871</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8703272171428575</v>
+        <v>0.7082589270223091</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1946308724832215</v>
+        <v>0.1342756183745583</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2003746835437616</v>
+        <v>0.06311298278825907</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9343963861272879</v>
+        <v>0.7786290102414031</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2472</v>
+        <v>977</v>
       </c>
       <c r="B24" t="n">
-        <v>2538</v>
+        <v>1018</v>
       </c>
       <c r="C24" t="n">
-        <v>2749</v>
+        <v>1155</v>
       </c>
       <c r="D24" t="n">
-        <v>4.64147189758239</v>
+        <v>5.304946218337921</v>
       </c>
       <c r="E24" t="n">
-        <v>3.997275181628341</v>
+        <v>4.859386817087629</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.4455594012502923</v>
       </c>
       <c r="G24" t="n">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="H24" t="n">
-        <v>108.6871387654655</v>
+        <v>112.6468188174312</v>
       </c>
       <c r="I24" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="J24" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="K24" t="n">
-        <v>792.5061658397788</v>
+        <v>549.7144445543342</v>
       </c>
       <c r="L24" t="n">
-        <v>27.17776292556359</v>
+        <v>12.34911089060413</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8270641623247061</v>
+        <v>0.9225891315922732</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3127962085308057</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3633462570453211</v>
+        <v>0.2495759759157136</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8248747981363618</v>
+        <v>0.9322927216514141</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>693</v>
+        <v>549</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2749</v>
+        <v>432</v>
       </c>
       <c r="B25" t="n">
-        <v>2777</v>
+        <v>454</v>
       </c>
       <c r="C25" t="n">
-        <v>2841</v>
+        <v>598</v>
       </c>
       <c r="D25" t="n">
-        <v>2.325017657866627</v>
+        <v>2.525870097100722</v>
       </c>
       <c r="E25" t="n">
-        <v>1.680820941912578</v>
+        <v>1.894159511461269</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.6317105856394525</v>
       </c>
       <c r="G25" t="n">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="H25" t="n">
-        <v>39.82176136765747</v>
+        <v>22.5113780467459</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="K25" t="n">
-        <v>190.007642313299</v>
+        <v>252.2754277583129</v>
       </c>
       <c r="L25" t="n">
-        <v>13.61395266362843</v>
+        <v>10.31186454290642</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7235429988240997</v>
+        <v>0.8056565512316248</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4375</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03013749087746771</v>
+        <v>0.3967572830422686</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9515224171192922</v>
+        <v>0.9391454502500914</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>694</v>
+        <v>550</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2841</v>
+        <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>2917</v>
+        <v>2042</v>
       </c>
       <c r="C26" t="n">
-        <v>3078</v>
+        <v>2224</v>
       </c>
       <c r="D26" t="n">
-        <v>2.307342389524819</v>
+        <v>4.255490231093923</v>
       </c>
       <c r="E26" t="n">
-        <v>1.66314567357077</v>
+        <v>3.62377964545447</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.6317105856394525</v>
       </c>
       <c r="G26" t="n">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="H26" t="n">
-        <v>43.90778592230572</v>
+        <v>111.894021108038</v>
       </c>
       <c r="I26" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="K26" t="n">
-        <v>388.0891187111891</v>
+        <v>482.7601946063873</v>
       </c>
       <c r="L26" t="n">
-        <v>13.51045656083191</v>
+        <v>17.37303865193675</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6467287370792977</v>
+        <v>0.9026274428917911</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4720496894409938</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2470807704876091</v>
+        <v>0.2425053332285277</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9365512462320844</v>
+        <v>0.9948483759643739</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>695</v>
+        <v>551</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3078</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>3115</v>
+        <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>3209</v>
+        <v>132</v>
       </c>
       <c r="D27" t="n">
-        <v>2.312516465147703</v>
+        <v>3.573628501558256</v>
       </c>
       <c r="E27" t="n">
-        <v>1.668319749193655</v>
+        <v>3.059265232687474</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G27" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" t="n">
-        <v>82.63679369516512</v>
+        <v>29.35874532574216</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J27" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K27" t="n">
-        <v>225.6361366220901</v>
+        <v>315.0311577478662</v>
       </c>
       <c r="L27" t="n">
-        <v>13.54075294175171</v>
+        <v>13.99155160893724</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7937877122466562</v>
+        <v>0.5387846527786461</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3936170212765958</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1389419201806841</v>
+        <v>0.1532122284949639</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8914620452856941</v>
+        <v>0.8496089007877679</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3209</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
-        <v>3248</v>
+        <v>166</v>
       </c>
       <c r="C28" t="n">
-        <v>3530</v>
+        <v>231</v>
       </c>
       <c r="D28" t="n">
-        <v>1.76212821148516</v>
+        <v>1.923873049611907</v>
       </c>
       <c r="E28" t="n">
-        <v>1.117931495531111</v>
+        <v>1.409509780741125</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.644196715954049</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G28" t="n">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="H28" t="n">
-        <v>153.0739075350116</v>
+        <v>59.65780814159643</v>
       </c>
       <c r="I28" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J28" t="n">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>448.7468067278977</v>
+        <v>160.1519253210589</v>
       </c>
       <c r="L28" t="n">
-        <v>10.31799908152755</v>
+        <v>7.532391531730587</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7109015997484562</v>
+        <v>0.7019955776333542</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.1382978723404255</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06370600366966817</v>
+        <v>0.1098482960472516</v>
       </c>
       <c r="S28" t="n">
-        <v>0.777241407127605</v>
+        <v>0.9032206594940164</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>697</v>
+        <v>553</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>876</v>
+        <v>231</v>
       </c>
       <c r="B29" t="n">
-        <v>968</v>
+        <v>267</v>
       </c>
       <c r="C29" t="n">
-        <v>1305</v>
+        <v>316</v>
       </c>
       <c r="D29" t="n">
-        <v>2.45173060060875</v>
+        <v>4.096230995846985</v>
       </c>
       <c r="E29" t="n">
-        <v>1.878597012143995</v>
+        <v>3.581867726976203</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5731335884647546</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G29" t="n">
-        <v>429</v>
+        <v>85</v>
       </c>
       <c r="H29" t="n">
-        <v>181.7691255937902</v>
+        <v>137.3255223359637</v>
       </c>
       <c r="I29" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>337</v>
+        <v>49</v>
       </c>
       <c r="K29" t="n">
-        <v>534.1997744375344</v>
+        <v>259.3169425010976</v>
       </c>
       <c r="L29" t="n">
-        <v>4.626336806378397</v>
+        <v>16.03765678372296</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7555948420620505</v>
+        <v>0.7490434625132049</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2729970326409495</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1608119887658807</v>
+        <v>0.3331129990926022</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6548902953267212</v>
+        <v>0.9908528266857833</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>977</v>
+        <v>407</v>
       </c>
       <c r="B30" t="n">
-        <v>1018</v>
+        <v>432</v>
       </c>
       <c r="C30" t="n">
-        <v>1155</v>
+        <v>569</v>
       </c>
       <c r="D30" t="n">
-        <v>5.330091332563921</v>
+        <v>2.029963778723523</v>
       </c>
       <c r="E30" t="n">
-        <v>4.87823028559378</v>
+        <v>1.515600509852741</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4518610469701405</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G30" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1560911168872</v>
+        <v>72.83360503920392</v>
       </c>
       <c r="I30" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
         <v>137</v>
       </c>
       <c r="K30" t="n">
-        <v>550.792459572709</v>
+        <v>255.1801798012211</v>
       </c>
       <c r="L30" t="n">
-        <v>12.40519562390305</v>
+        <v>7.947760367900239</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.9224767993995663</v>
+        <v>0.7592866608437575</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2992700729927008</v>
+        <v>0.1824817518248175</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2543443370810798</v>
+        <v>0.09894981871843748</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9305532537396406</v>
+        <v>0.7327896114805577</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>699</v>
+        <v>555</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>431</v>
+        <v>3106</v>
       </c>
       <c r="B31" t="n">
-        <v>454</v>
+        <v>3134</v>
       </c>
       <c r="C31" t="n">
-        <v>486</v>
+        <v>3185</v>
       </c>
       <c r="D31" t="n">
-        <v>2.536640203922848</v>
+        <v>1.521760444353264</v>
       </c>
       <c r="E31" t="n">
-        <v>1.902952719039037</v>
+        <v>1.007397175482482</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.633687484883811</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G31" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H31" t="n">
-        <v>22.60102773078893</v>
+        <v>49.31526563912303</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J31" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K31" t="n">
-        <v>119.3115838243887</v>
+        <v>70.51690995629232</v>
       </c>
       <c r="L31" t="n">
-        <v>10.32559069400913</v>
+        <v>5.958031111606542</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7248609835001405</v>
+        <v>0.7985247592757023</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.71875</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1123546265588772</v>
+        <v>0.1884753231772402</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9848804090342284</v>
+        <v>0.9762198299056232</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="B32" t="n">
-        <v>502</v>
+        <v>300</v>
       </c>
       <c r="C32" t="n">
-        <v>581</v>
+        <v>375</v>
       </c>
       <c r="D32" t="n">
-        <v>1.91254362708491</v>
+        <v>4.130083369905956</v>
       </c>
       <c r="E32" t="n">
-        <v>1.278856142201099</v>
+        <v>3.598063673729264</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.633687484883811</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G32" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H32" t="n">
-        <v>20.87221392574128</v>
+        <v>149.390077341078</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>124.3654847165034</v>
+        <v>334.4009206417339</v>
       </c>
       <c r="L32" t="n">
-        <v>7.785157172536501</v>
+        <v>21.56265559968397</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8740901434406544</v>
+        <v>0.8140922077085387</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.48</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3173317427691251</v>
+        <v>0.2348071549797187</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9785482348506642</v>
+        <v>0.9319685059571337</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1093</v>
+        <v>375</v>
       </c>
       <c r="B33" t="n">
-        <v>1124</v>
+        <v>393</v>
       </c>
       <c r="C33" t="n">
-        <v>1343</v>
+        <v>468</v>
       </c>
       <c r="D33" t="n">
-        <v>3.970817095535666</v>
+        <v>2.444271206686613</v>
       </c>
       <c r="E33" t="n">
-        <v>3.337129610651855</v>
+        <v>1.912251510509922</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.633687484883811</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G33" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="H33" t="n">
-        <v>113.2899160862578</v>
+        <v>24.31808939972206</v>
       </c>
       <c r="I33" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="K33" t="n">
-        <v>452.5681943439209</v>
+        <v>183.4184341634647</v>
       </c>
       <c r="L33" t="n">
-        <v>16.16351896728137</v>
+        <v>12.76123833384204</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.897135741008358</v>
+        <v>0.8599725808900487</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1415525114155251</v>
+        <v>0.24</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3431644862177799</v>
+        <v>0.1849111695149281</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9457479771275393</v>
+        <v>0.876888683721721</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>702</v>
+        <v>558</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>509</v>
       </c>
       <c r="B34" t="n">
-        <v>2042</v>
+        <v>544</v>
       </c>
       <c r="C34" t="n">
-        <v>2224</v>
+        <v>609</v>
       </c>
       <c r="D34" t="n">
-        <v>4.263681848765401</v>
+        <v>3.846914718371169</v>
       </c>
       <c r="E34" t="n">
-        <v>3.62999436388159</v>
+        <v>3.314895022194477</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.633687484883811</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G34" t="n">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>112.0160426262676</v>
+        <v>75.61615594451484</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J34" t="n">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="K34" t="n">
-        <v>483.168917682599</v>
+        <v>278.385842651451</v>
       </c>
       <c r="L34" t="n">
-        <v>17.35564766013883</v>
+        <v>20.08426701456189</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9024796134054772</v>
+        <v>0.8046405897110738</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2526188178061157</v>
+        <v>0.3191180726127152</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9946047621143359</v>
+        <v>0.9046780240430659</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>703</v>
+        <v>559</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2288</v>
+        <v>609</v>
       </c>
       <c r="B35" t="n">
-        <v>2311</v>
+        <v>638</v>
       </c>
       <c r="C35" t="n">
-        <v>2349</v>
+        <v>710</v>
       </c>
       <c r="D35" t="n">
-        <v>1.203364671966283</v>
+        <v>3.680504030983523</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5696771870824724</v>
+        <v>3.148484334806832</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.633687484883811</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G35" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="H35" t="n">
-        <v>22.30423210624349</v>
+        <v>26.3166385367183</v>
       </c>
       <c r="I35" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J35" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="K35" t="n">
-        <v>50.83376440588174</v>
+        <v>265.2670367828174</v>
       </c>
       <c r="L35" t="n">
-        <v>4.898389231211728</v>
+        <v>19.21545735168862</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.8467411596540896</v>
+        <v>0.7954034063568129</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2973828568949915</v>
+        <v>0.1685923761085492</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9505681787816516</v>
+        <v>0.8322499114955351</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>704</v>
+        <v>560</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="B36" t="n">
-        <v>46</v>
+        <v>803</v>
       </c>
       <c r="C36" t="n">
-        <v>132</v>
+        <v>912</v>
       </c>
       <c r="D36" t="n">
-        <v>3.582394818991029</v>
+        <v>3.161799052584352</v>
       </c>
       <c r="E36" t="n">
-        <v>3.066597643533256</v>
+        <v>2.651369942029803</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5157971754577726</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G36" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" t="n">
-        <v>29.3031156042739</v>
+        <v>18.68905816136953</v>
       </c>
       <c r="I36" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="K36" t="n">
-        <v>315.4650264647872</v>
+        <v>294.8483777800328</v>
       </c>
       <c r="L36" t="n">
-        <v>13.88350808799371</v>
+        <v>10.36530015727529</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.5352578424193051</v>
+        <v>0.7712921659710578</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5348837209302325</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1424760918661321</v>
+        <v>0.2741966882820233</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8518019915332322</v>
+        <v>0.9513471070538262</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>705</v>
+        <v>561</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>231</v>
+        <v>912</v>
       </c>
       <c r="B37" t="n">
-        <v>267</v>
+        <v>931</v>
       </c>
       <c r="C37" t="n">
-        <v>317</v>
+        <v>1069</v>
       </c>
       <c r="D37" t="n">
-        <v>4.139536010895235</v>
+        <v>1.623118725198889</v>
       </c>
       <c r="E37" t="n">
-        <v>3.623738835437463</v>
+        <v>1.112689614644341</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5157971754577726</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G37" t="n">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="H37" t="n">
-        <v>136.9614061591203</v>
+        <v>24.07194289511369</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="K37" t="n">
-        <v>262.0961945105756</v>
+        <v>124.9352870580854</v>
       </c>
       <c r="L37" t="n">
-        <v>16.04269897419957</v>
+        <v>5.32105693555352</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7516727161191633</v>
+        <v>0.7548490023278652</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.72</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3327146372420193</v>
+        <v>0.4444923154126008</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9865318491380091</v>
+        <v>0.7087112418752757</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>407</v>
+        <v>1069</v>
       </c>
       <c r="B38" t="n">
-        <v>432</v>
+        <v>1126</v>
       </c>
       <c r="C38" t="n">
-        <v>569</v>
+        <v>1354</v>
       </c>
       <c r="D38" t="n">
-        <v>2.036652769919123</v>
+        <v>3.81186493128148</v>
       </c>
       <c r="E38" t="n">
-        <v>1.520855594461351</v>
+        <v>3.301435820726931</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5157971754577726</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G38" t="n">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="H38" t="n">
-        <v>73.83861749814957</v>
+        <v>75.36281009023105</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J38" t="n">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="K38" t="n">
-        <v>255.4655778399676</v>
+        <v>445.6822031362523</v>
       </c>
       <c r="L38" t="n">
-        <v>7.893011974478784</v>
+        <v>12.49640584825559</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7613490984353726</v>
+        <v>0.7799300576059024</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1824817518248175</v>
+        <v>0.25</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1060073617930236</v>
+        <v>0.401551853607659</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7203576672239681</v>
+        <v>0.7712431139785386</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2931</v>
+        <v>1252</v>
       </c>
       <c r="B39" t="n">
-        <v>2953</v>
+        <v>1273</v>
       </c>
       <c r="C39" t="n">
-        <v>2981</v>
+        <v>1377</v>
       </c>
       <c r="D39" t="n">
-        <v>1.602489558964451</v>
+        <v>2.945439592025124</v>
       </c>
       <c r="E39" t="n">
-        <v>1.086692383506678</v>
+        <v>2.405636692458279</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5157971754577726</v>
+        <v>-0.539802899566844</v>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H39" t="n">
-        <v>24.86043162966143</v>
+        <v>53.45031429716892</v>
       </c>
       <c r="I39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" t="n">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="K39" t="n">
-        <v>46.87675836709861</v>
+        <v>293.3391280426263</v>
       </c>
       <c r="L39" t="n">
-        <v>6.210420089618868</v>
+        <v>7.582570784207206</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6769535106991997</v>
+        <v>0.7815313305305809</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1104681116688162</v>
+        <v>0.0969071080997103</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9447439244340958</v>
+        <v>0.7720024659126753</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3106</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>3134</v>
+        <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>3186</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>1.500194691188928</v>
+        <v>1.828149728326042</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9843975157311555</v>
+        <v>1.182638189939626</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5157971754577726</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G40" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H40" t="n">
-        <v>50.85317726758421</v>
+        <v>21.4374995288902</v>
       </c>
       <c r="I40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J40" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K40" t="n">
-        <v>71.18403352537929</v>
+        <v>56.91711784090381</v>
       </c>
       <c r="L40" t="n">
-        <v>5.813978129454991</v>
+        <v>6.188763193081753</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8274230328485597</v>
+        <v>0.9001171420899143</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2156233746630573</v>
+        <v>0.3380910533721146</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9846603576329865</v>
+        <v>0.9384038425165715</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>709</v>
+        <v>565</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B41" t="n">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C41" t="n">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="D41" t="n">
-        <v>4.119461358816499</v>
+        <v>2.564320750475144</v>
       </c>
       <c r="E41" t="n">
-        <v>3.585887204324475</v>
+        <v>1.918809212088728</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5335741544920233</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G41" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="H41" t="n">
-        <v>150.0284304155222</v>
+        <v>11.57871867418646</v>
       </c>
       <c r="I41" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="K41" t="n">
-        <v>333.3364226760031</v>
+        <v>93.99407980990428</v>
       </c>
       <c r="L41" t="n">
-        <v>21.26535354036599</v>
+        <v>8.68089392783369</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8262136635284224</v>
+        <v>0.7370566501501291</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2325293932556879</v>
+        <v>0.02514931609373777</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9306751888027202</v>
+        <v>0.9356415559156388</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>710</v>
+        <v>566</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B42" t="n">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C42" t="n">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="D42" t="n">
-        <v>2.46495228401085</v>
+        <v>2.493256073537125</v>
       </c>
       <c r="E42" t="n">
-        <v>1.931378129518827</v>
+        <v>1.84774453515071</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5335741544920233</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="H42" t="n">
-        <v>24.65402601123708</v>
+        <v>34.24974365428437</v>
       </c>
       <c r="I42" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J42" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K42" t="n">
-        <v>183.5233634532024</v>
+        <v>247.3733841978912</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72449896087454</v>
+        <v>8.440321479008634</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8870015507277742</v>
+        <v>0.6963128283557483</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2004833843971263</v>
+        <v>0.2122817845192466</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8584436875171892</v>
+        <v>0.7237674559852978</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>711</v>
+        <v>567</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>509</v>
+        <v>696</v>
       </c>
       <c r="B43" t="n">
-        <v>545</v>
+        <v>778</v>
       </c>
       <c r="C43" t="n">
-        <v>609</v>
+        <v>939</v>
       </c>
       <c r="D43" t="n">
-        <v>3.8273840297762</v>
+        <v>2.742072718063547</v>
       </c>
       <c r="E43" t="n">
-        <v>3.293809875284177</v>
+        <v>2.09656117967713</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5335741544920233</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="H43" t="n">
-        <v>76.47018300408808</v>
+        <v>133.0562403570758</v>
       </c>
       <c r="I43" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="J43" t="n">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="K43" t="n">
-        <v>278.5020786002167</v>
+        <v>393.2991028315603</v>
       </c>
       <c r="L43" t="n">
-        <v>19.75760116155688</v>
+        <v>9.282630655118194</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7925543562543593</v>
+        <v>0.696432056883042</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5625</v>
+        <v>0.5093167701863354</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3166301985762832</v>
+        <v>0.310872399061705</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8876627392306967</v>
+        <v>0.8809953665001217</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>712</v>
+        <v>568</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>609</v>
+        <v>1247</v>
       </c>
       <c r="B44" t="n">
-        <v>638</v>
+        <v>1274</v>
       </c>
       <c r="C44" t="n">
-        <v>675</v>
+        <v>1321</v>
       </c>
       <c r="D44" t="n">
-        <v>3.671258476580005</v>
+        <v>1.370067919859899</v>
       </c>
       <c r="E44" t="n">
-        <v>3.137684322087981</v>
+        <v>0.7245563814734824</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5335741544920233</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G44" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H44" t="n">
-        <v>27.6425650006139</v>
+        <v>118.1795313846192</v>
       </c>
       <c r="I44" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J44" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K44" t="n">
-        <v>189.527522604155</v>
+        <v>67.0411136172031</v>
       </c>
       <c r="L44" t="n">
-        <v>18.95165475346722</v>
+        <v>4.638036908615192</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.6692347345680247</v>
+        <v>0.744473422016342</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R44" t="n">
-        <v>0.06965995353557446</v>
+        <v>0.4682085590839498</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9853395907786257</v>
+        <v>0.7756475123596933</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>713</v>
+        <v>569</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>675</v>
+        <v>3343</v>
       </c>
       <c r="B45" t="n">
-        <v>689</v>
+        <v>3374</v>
       </c>
       <c r="C45" t="n">
-        <v>711</v>
+        <v>3454</v>
       </c>
       <c r="D45" t="n">
-        <v>2.40868539133148</v>
+        <v>3.01747191333463</v>
       </c>
       <c r="E45" t="n">
-        <v>1.875111236839456</v>
+        <v>2.371960374948214</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5335741544920233</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G45" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="H45" t="n">
-        <v>15.13533655022036</v>
+        <v>93.17873288038436</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>77.51134895712053</v>
+        <v>206.3551340409408</v>
       </c>
       <c r="L45" t="n">
-        <v>12.43403978157339</v>
+        <v>10.21492869213874</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7475476875528397</v>
+        <v>0.8522974679237976</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.3875</v>
       </c>
       <c r="R45" t="n">
-        <v>0.118224772885241</v>
+        <v>0.2668639532329011</v>
       </c>
       <c r="S45" t="n">
-        <v>0.98368968640326</v>
+        <v>0.8735968334005089</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>714</v>
+        <v>570</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>495</v>
       </c>
       <c r="C46" t="n">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="D46" t="n">
-        <v>2.528338421256049</v>
+        <v>1.237150055928833</v>
       </c>
       <c r="E46" t="n">
-        <v>2.016013704055521</v>
+        <v>0.6729744681851125</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.512324717200528</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G46" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H46" t="n">
-        <v>24.0709972639597</v>
+        <v>29.84402576236721</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>96.72225244673947</v>
+        <v>46.10021040202625</v>
       </c>
       <c r="L46" t="n">
-        <v>8.212050426750748</v>
+        <v>6.156743741485792</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7256886663150796</v>
+        <v>0.7011387993010889</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08513253858435622</v>
+        <v>0.1248522377648418</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9322192409590824</v>
+        <v>0.783483663413996</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>715</v>
+        <v>571</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>780</v>
+        <v>525</v>
       </c>
       <c r="B47" t="n">
-        <v>803</v>
+        <v>548</v>
       </c>
       <c r="C47" t="n">
-        <v>911</v>
+        <v>612</v>
       </c>
       <c r="D47" t="n">
-        <v>3.183417473148534</v>
+        <v>1.190941134471948</v>
       </c>
       <c r="E47" t="n">
-        <v>2.671092755948006</v>
+        <v>0.6267655467282269</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.512324717200528</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G47" t="n">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="H47" t="n">
-        <v>19.5141791791915</v>
+        <v>26.62166739654594</v>
       </c>
       <c r="I47" t="n">
         <v>23</v>
       </c>
       <c r="J47" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="K47" t="n">
-        <v>296.5966744253623</v>
+        <v>54.88130044176395</v>
       </c>
       <c r="L47" t="n">
-        <v>10.33974906172093</v>
+        <v>5.926782560449516</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7798580246578631</v>
+        <v>0.8113652264813139</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.212962962962963</v>
+        <v>0.359375</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2705761687432904</v>
+        <v>0.4510169350150526</v>
       </c>
       <c r="S47" t="n">
-        <v>0.94315832439465</v>
+        <v>0.4971828207965585</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>716</v>
+        <v>572</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>911</v>
+        <v>707</v>
       </c>
       <c r="B48" t="n">
-        <v>932</v>
+        <v>732</v>
       </c>
       <c r="C48" t="n">
-        <v>1011</v>
+        <v>870</v>
       </c>
       <c r="D48" t="n">
-        <v>1.684827037908847</v>
+        <v>2.65616044515899</v>
       </c>
       <c r="E48" t="n">
-        <v>1.172502320708319</v>
+        <v>2.09198485741527</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.512324717200528</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G48" t="n">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="H48" t="n">
-        <v>21.84671187381866</v>
+        <v>65.86534197603794</v>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="K48" t="n">
-        <v>108.7141415919897</v>
+        <v>246.1525464626055</v>
       </c>
       <c r="L48" t="n">
-        <v>5.472323040041071</v>
+        <v>13.21852520536559</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8342787322536067</v>
+        <v>0.90925051703917</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2658227848101266</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2420435880301404</v>
+        <v>0.2735649367426958</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6533518401940257</v>
+        <v>0.8516614110666993</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>717</v>
+        <v>573</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1202</v>
+        <v>1027</v>
       </c>
       <c r="B49" t="n">
-        <v>1224</v>
+        <v>1051</v>
       </c>
       <c r="C49" t="n">
-        <v>1276</v>
+        <v>1139</v>
       </c>
       <c r="D49" t="n">
-        <v>1.827244547331251</v>
+        <v>3.317059997980862</v>
       </c>
       <c r="E49" t="n">
-        <v>1.314919830130723</v>
+        <v>2.752884410237141</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.512324717200528</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G49" t="n">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="H49" t="n">
-        <v>22.28764640629993</v>
+        <v>24.93457963278229</v>
       </c>
       <c r="I49" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J49" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K49" t="n">
-        <v>102.1914049430972</v>
+        <v>274.0972436244435</v>
       </c>
       <c r="L49" t="n">
-        <v>5.934895518154193</v>
+        <v>16.50752734870856</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.6852672780167169</v>
+        <v>0.89057107484771</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2465933920665367</v>
+        <v>0.2485365545408771</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7672901756221443</v>
+        <v>0.882410351429415</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>718</v>
+        <v>574</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>551</v>
+        <v>1036</v>
       </c>
       <c r="B50" t="n">
-        <v>608</v>
+        <v>1074</v>
       </c>
       <c r="C50" t="n">
-        <v>687</v>
+        <v>1260</v>
       </c>
       <c r="D50" t="n">
-        <v>1.778110931394338</v>
+        <v>3.903719169467402</v>
       </c>
       <c r="E50" t="n">
-        <v>1.232508572632632</v>
+        <v>3.403103516637999</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5456023587617066</v>
+        <v>-0.5006156528294028</v>
       </c>
       <c r="G50" t="n">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H50" t="n">
-        <v>54.01187391635392</v>
+        <v>33.73448868032006</v>
       </c>
       <c r="I50" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J50" t="n">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="K50" t="n">
-        <v>118.3149066489065</v>
+        <v>569.6308567776565</v>
       </c>
       <c r="L50" t="n">
-        <v>4.565594930690688</v>
+        <v>11.7293634050488</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.6635691863885199</v>
+        <v>0.8140566214014777</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.7215189873417721</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3411280882413548</v>
+        <v>0.2425786696416579</v>
       </c>
       <c r="S50" t="n">
-        <v>0.5120717844693701</v>
+        <v>0.8461390318284536</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>719</v>
+        <v>575</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1252</v>
+        <v>2238</v>
       </c>
       <c r="B51" t="n">
-        <v>1273</v>
+        <v>2256</v>
       </c>
       <c r="C51" t="n">
-        <v>1391</v>
+        <v>2305</v>
       </c>
       <c r="D51" t="n">
-        <v>2.938065569112225</v>
+        <v>2.627092700263288</v>
       </c>
       <c r="E51" t="n">
-        <v>2.392463210350518</v>
+        <v>2.132307377897471</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5456023587617066</v>
+        <v>-0.4947853223658176</v>
       </c>
       <c r="G51" t="n">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="H51" t="n">
-        <v>54.08006205484639</v>
+        <v>34.18590855961838</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J51" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="K51" t="n">
-        <v>310.666470999489</v>
+        <v>93.08923490016319</v>
       </c>
       <c r="L51" t="n">
-        <v>7.543970981527444</v>
+        <v>6.384125691886928</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8164216839925644</v>
+        <v>0.8876251284828105</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1178791115493855</v>
+        <v>0.2485401921266116</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8311975290654782</v>
+        <v>0.8550539618967348</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1784</v>
+        <v>3257</v>
       </c>
       <c r="B52" t="n">
-        <v>1799</v>
+        <v>3288</v>
       </c>
       <c r="C52" t="n">
-        <v>1821</v>
+        <v>3344</v>
       </c>
       <c r="D52" t="n">
-        <v>1.365154056333443</v>
+        <v>2.903238458381197</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8195516975717366</v>
+        <v>2.500259979960525</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5456023587617066</v>
+        <v>-0.4029784784206714</v>
       </c>
       <c r="G52" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H52" t="n">
-        <v>21.15799282295666</v>
+        <v>37.16598476384206</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J52" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K52" t="n">
-        <v>37.7412930476213</v>
+        <v>156.2202377282612</v>
       </c>
       <c r="L52" t="n">
-        <v>3.505259615225626</v>
+        <v>6.44665224388156</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7865825146974048</v>
+        <v>0.8546539275456759</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2122439673098931</v>
+        <v>0.3179738592755668</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9697323711152183</v>
+        <v>0.9474764666989087</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>3344</v>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>3373</v>
       </c>
       <c r="C53" t="n">
-        <v>48</v>
+        <v>3530</v>
       </c>
       <c r="D53" t="n">
-        <v>1.829564315358272</v>
+        <v>4.669424475675235</v>
       </c>
       <c r="E53" t="n">
-        <v>1.185371657737174</v>
+        <v>4.266445997254563</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.4029784784206714</v>
       </c>
       <c r="G53" t="n">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="H53" t="n">
-        <v>21.40716397482633</v>
+        <v>56.79925965231996</v>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J53" t="n">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="K53" t="n">
-        <v>56.83338777580624</v>
+        <v>413.6151597349105</v>
       </c>
       <c r="L53" t="n">
-        <v>6.147994826236797</v>
+        <v>10.36847513742696</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.8965725824972535</v>
+        <v>0.889154079763832</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3401474845308551</v>
+        <v>0.2262848685874936</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9215089234904855</v>
+        <v>0.8861914074269864</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>722</v>
+        <v>578</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>233</v>
+        <v>987</v>
       </c>
       <c r="B54" t="n">
-        <v>244</v>
+        <v>1022</v>
       </c>
       <c r="C54" t="n">
-        <v>280</v>
+        <v>1136</v>
       </c>
       <c r="D54" t="n">
-        <v>2.561021747820768</v>
+        <v>3.985016474188782</v>
       </c>
       <c r="E54" t="n">
-        <v>1.916829090199669</v>
+        <v>3.515335055517151</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.4696814186716316</v>
       </c>
       <c r="G54" t="n">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H54" t="n">
-        <v>12.53421356742072</v>
+        <v>47.56502730385091</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J54" t="n">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="K54" t="n">
-        <v>106.8853914358237</v>
+        <v>279.778985119654</v>
       </c>
       <c r="L54" t="n">
-        <v>8.605955157361453</v>
+        <v>10.11438341364799</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7422990007630224</v>
+        <v>0.9229428844016767</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="R54" t="n">
-        <v>0.03577112682351462</v>
+        <v>0.2840998955524756</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9116821072483797</v>
+        <v>0.8548258830854654</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>723</v>
+        <v>579</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>466</v>
+        <v>1376</v>
       </c>
       <c r="B55" t="n">
-        <v>479</v>
+        <v>1441</v>
       </c>
       <c r="C55" t="n">
-        <v>506</v>
+        <v>1586</v>
       </c>
       <c r="D55" t="n">
-        <v>1.744388074908882</v>
+        <v>2.985626756173513</v>
       </c>
       <c r="E55" t="n">
-        <v>1.100195417287783</v>
+        <v>2.518178944070337</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.4674478121031762</v>
       </c>
       <c r="G55" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="H55" t="n">
-        <v>13.79879274622334</v>
+        <v>84.02403888927279</v>
       </c>
       <c r="I55" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J55" t="n">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="K55" t="n">
-        <v>52.11430985980481</v>
+        <v>424.6873561920376</v>
       </c>
       <c r="L55" t="n">
-        <v>5.861771990993857</v>
+        <v>7.752771592385671</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.8837226868824558</v>
+        <v>0.6996039567852084</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2283607554590225</v>
+        <v>0.2221312964195201</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9755882624255172</v>
+        <v>0.8000192895263754</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>724</v>
+        <v>580</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>506</v>
+        <v>825</v>
       </c>
       <c r="B56" t="n">
-        <v>529</v>
+        <v>858</v>
       </c>
       <c r="C56" t="n">
-        <v>577</v>
+        <v>926</v>
       </c>
       <c r="D56" t="n">
-        <v>1.234746109907022</v>
+        <v>3.232043082373535</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5905534522859236</v>
+        <v>2.691217648198991</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.5408254341745437</v>
       </c>
       <c r="G56" t="n">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="H56" t="n">
-        <v>28.00748404040223</v>
+        <v>45.84256871559512</v>
       </c>
       <c r="I56" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J56" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K56" t="n">
-        <v>61.25859513406304</v>
+        <v>183.4099402254592</v>
       </c>
       <c r="L56" t="n">
-        <v>4.149191494226233</v>
+        <v>10.10599449905099</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.7417946029646566</v>
+        <v>0.8647805414928681</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06159134204812879</v>
+        <v>0.237726329499663</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9179752554115364</v>
+        <v>0.920285091508674</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>725</v>
+        <v>581</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,73 +5287,73 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>800</v>
+        <v>926</v>
       </c>
       <c r="B57" t="n">
-        <v>819</v>
+        <v>957</v>
       </c>
       <c r="C57" t="n">
-        <v>939</v>
+        <v>1178</v>
       </c>
       <c r="D57" t="n">
-        <v>2.704659328980751</v>
+        <v>1.484812507217218</v>
       </c>
       <c r="E57" t="n">
-        <v>2.060466671359652</v>
+        <v>0.9439870730426745</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.5408254341745437</v>
       </c>
       <c r="G57" t="n">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="H57" t="n">
-        <v>19.90888508811736</v>
+        <v>20.16471384846409</v>
       </c>
       <c r="I57" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="K57" t="n">
-        <v>185.9206187367435</v>
+        <v>185.8252363257498</v>
       </c>
       <c r="L57" t="n">
-        <v>9.088629146142118</v>
+        <v>4.642731129388173</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1045), 'value': np.float64(0.6232124973412384), 'amplitude': np.float64(1.164037931515782), 'start_idx': np.int64(1019), 'end_idx': np.int64(1062), 'duration': np.float64(43.0), 'fwhm': np.float64(29.05237092810262), 'rise_time': np.float64(26.0), 'decay_time': np.float64(17.0), 'auc': np.float64(40.17590655474236)}]</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7806819560702694</v>
+        <v>0.7100231771390415</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="R57" t="n">
-        <v>0.539229020629553</v>
+        <v>0.3949308074013385</v>
       </c>
       <c r="S57" t="n">
-        <v>0.8028321957821233</v>
+        <v>0.5789391013852065</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>726</v>
+        <v>582</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1247</v>
+        <v>837</v>
       </c>
       <c r="B58" t="n">
-        <v>1274</v>
+        <v>875</v>
       </c>
       <c r="C58" t="n">
-        <v>1321</v>
+        <v>942</v>
       </c>
       <c r="D58" t="n">
-        <v>1.417510166017939</v>
+        <v>1.587431940718305</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7733175083968401</v>
+        <v>1.15003061210808</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G58" t="n">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="H58" t="n">
-        <v>117.6071348393891</v>
+        <v>49.08133284929295</v>
       </c>
       <c r="I58" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J58" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="K58" t="n">
-        <v>66.64982337667632</v>
+        <v>84.92203550126106</v>
       </c>
       <c r="L58" t="n">
-        <v>4.763344526158282</v>
+        <v>6.366871385703176</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7333078561197901</v>
+        <v>0.7826334420997629</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.574468085106383</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4915677560441523</v>
+        <v>0.4436935742585831</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7245590774004604</v>
+        <v>0.6896212607852696</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3344</v>
+        <v>1470</v>
       </c>
       <c r="B59" t="n">
-        <v>3373</v>
+        <v>1514</v>
       </c>
       <c r="C59" t="n">
-        <v>3454</v>
+        <v>1570</v>
       </c>
       <c r="D59" t="n">
-        <v>2.991251184616945</v>
+        <v>5.717944330928857</v>
       </c>
       <c r="E59" t="n">
-        <v>2.347058526995846</v>
+        <v>5.280543002318632</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.6441926576210988</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G59" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H59" t="n">
-        <v>93.44021754781716</v>
+        <v>134.8048772019156</v>
       </c>
       <c r="I59" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J59" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="K59" t="n">
-        <v>206.1661190826517</v>
+        <v>412.5363119161529</v>
       </c>
       <c r="L59" t="n">
-        <v>10.05168096722439</v>
+        <v>22.93352880953206</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8633805747411888</v>
+        <v>0.7306216646483794</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2554956713298376</v>
+        <v>0.5356103139549032</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8636852678992946</v>
+        <v>0.9429428923229701</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>728</v>
+        <v>584</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>525</v>
+        <v>1570</v>
       </c>
       <c r="B60" t="n">
-        <v>547</v>
+        <v>1585</v>
       </c>
       <c r="C60" t="n">
-        <v>611</v>
+        <v>1713</v>
       </c>
       <c r="D60" t="n">
-        <v>1.208065885813514</v>
+        <v>4.509831870714901</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6461348231666509</v>
+        <v>4.072430542104676</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5619310626468637</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G60" t="n">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="H60" t="n">
-        <v>25.87202180876875</v>
+        <v>14.49934328154404</v>
       </c>
       <c r="I60" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="K60" t="n">
-        <v>54.46545549990353</v>
+        <v>359.7566871271966</v>
       </c>
       <c r="L60" t="n">
-        <v>5.978313282332094</v>
+        <v>18.08803184279775</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8148968423919699</v>
+        <v>0.7849976681362831</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.34375</v>
+        <v>0.1171875</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4301673672258323</v>
+        <v>0.4563137559796905</v>
       </c>
       <c r="S60" t="n">
-        <v>0.4904564831256345</v>
+        <v>0.9516983684074478</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>729</v>
+        <v>585</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>708</v>
+        <v>2078</v>
       </c>
       <c r="B61" t="n">
-        <v>733</v>
+        <v>2090</v>
       </c>
       <c r="C61" t="n">
-        <v>868</v>
+        <v>2216</v>
       </c>
       <c r="D61" t="n">
-        <v>2.675514831250046</v>
+        <v>2.435173226619329</v>
       </c>
       <c r="E61" t="n">
-        <v>2.113583768603182</v>
+        <v>1.911033667108031</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5619310626468637</v>
+        <v>-0.5241395595112982</v>
       </c>
       <c r="G61" t="n">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="H61" t="n">
-        <v>65.51136979468413</v>
+        <v>12.70620773602241</v>
       </c>
       <c r="I61" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K61" t="n">
-        <v>243.8948361869756</v>
+        <v>160.8987639343102</v>
       </c>
       <c r="L61" t="n">
-        <v>13.24022641527332</v>
+        <v>8.533060305893139</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.9084518479656587</v>
+        <v>0.7321264997032702</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2911838429630648</v>
+        <v>0.4983337582816214</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8485129786862188</v>
+        <v>0.7569948347197483</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>957</v>
+        <v>1964</v>
       </c>
       <c r="B62" t="n">
-        <v>988</v>
+        <v>2017</v>
       </c>
       <c r="C62" t="n">
-        <v>1028</v>
+        <v>2090</v>
       </c>
       <c r="D62" t="n">
-        <v>4.424249547382217</v>
+        <v>4.546383476073492</v>
       </c>
       <c r="E62" t="n">
-        <v>3.862318484735353</v>
+        <v>4.064431520778522</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5619310626468637</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G62" t="n">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="H62" t="n">
-        <v>152.1405021725275</v>
+        <v>207.3754854484321</v>
       </c>
       <c r="I62" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J62" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K62" t="n">
-        <v>242.6656546382879</v>
+        <v>439.0115865869587</v>
       </c>
       <c r="L62" t="n">
-        <v>21.89412857698209</v>
+        <v>15.31998968784487</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6925829181268346</v>
+        <v>0.6421863559928745</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.775</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="R62" t="n">
-        <v>0.179584905471501</v>
+        <v>0.2361401456297888</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9570103899282711</v>
+        <v>0.9639728632939484</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>731</v>
+        <v>587</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1028</v>
+        <v>2151</v>
       </c>
       <c r="B63" t="n">
-        <v>1051</v>
+        <v>2169</v>
       </c>
       <c r="C63" t="n">
-        <v>1140</v>
+        <v>2194</v>
       </c>
       <c r="D63" t="n">
-        <v>3.319650087065004</v>
+        <v>2.987668359922058</v>
       </c>
       <c r="E63" t="n">
-        <v>2.757719024418141</v>
+        <v>2.505716404627089</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5619310626468637</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G63" t="n">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="H63" t="n">
-        <v>25.28169910571023</v>
+        <v>12.74118693138189</v>
       </c>
       <c r="I63" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J63" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="K63" t="n">
-        <v>272.0765273613906</v>
+        <v>103.7710599263279</v>
       </c>
       <c r="L63" t="n">
-        <v>16.42783596594264</v>
+        <v>10.06757320529344</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8837780874687082</v>
+        <v>0.7231518871569605</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.2584269662921349</v>
+        <v>0.72</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2568675956192398</v>
+        <v>0.1439781790856297</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8797138457485832</v>
+        <v>0.9903658687006369</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>732</v>
+        <v>588</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1038</v>
+        <v>2194</v>
       </c>
       <c r="B64" t="n">
-        <v>1077</v>
+        <v>2226</v>
       </c>
       <c r="C64" t="n">
-        <v>1248</v>
+        <v>2346</v>
       </c>
       <c r="D64" t="n">
-        <v>3.909071759937584</v>
+        <v>2.486347301618379</v>
       </c>
       <c r="E64" t="n">
-        <v>3.408537896450711</v>
+        <v>2.004395346323409</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5005338634868728</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G64" t="n">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="H64" t="n">
-        <v>33.8959786622288</v>
+        <v>30.72183536095326</v>
       </c>
       <c r="I64" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J64" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="K64" t="n">
-        <v>552.2298101522678</v>
+        <v>241.5430052206538</v>
       </c>
       <c r="L64" t="n">
-        <v>11.67936649251661</v>
+        <v>8.378267082320958</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7743910609749374</v>
+        <v>0.8586797549837548</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2359519367189002</v>
+        <v>0.2980470742705802</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8308281158539526</v>
+        <v>0.799334075522106</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,73 +5975,73 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3168</v>
+        <v>2346</v>
       </c>
       <c r="B65" t="n">
-        <v>3215</v>
+        <v>2374</v>
       </c>
       <c r="C65" t="n">
-        <v>3303</v>
+        <v>2555</v>
       </c>
       <c r="D65" t="n">
-        <v>1.266711568157801</v>
+        <v>1.363661989965576</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7661777046709282</v>
+        <v>0.881710034670607</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5005338634868728</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G65" t="n">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="H65" t="n">
-        <v>59.0600780230584</v>
+        <v>20.52858109378303</v>
       </c>
       <c r="I65" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J65" t="n">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="K65" t="n">
-        <v>98.02939685129687</v>
+        <v>157.0203091034412</v>
       </c>
       <c r="L65" t="n">
-        <v>3.784629588140796</v>
+        <v>4.595144191844879</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2495), 'value': np.float64(0.5218209481697719), 'amplitude': np.float64(1.0037729034647414), 'start_idx': np.int64(2469), 'end_idx': np.int64(2514), 'duration': np.float64(45.0), 'fwhm': np.float64(32.78617476214231), 'rise_time': np.float64(26.0), 'decay_time': np.float64(19.0), 'auc': np.float64(35.84212701239561)}]</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.5986598119133252</v>
+        <v>0.6531920723007625</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.5340909090909091</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2553731881616402</v>
+        <v>0.3460718578523195</v>
       </c>
       <c r="S65" t="n">
-        <v>0.5414281925719558</v>
+        <v>0.2832921453256386</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>734</v>
+        <v>590</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1593</v>
+        <v>1824</v>
       </c>
       <c r="B66" t="n">
-        <v>1618</v>
+        <v>1852</v>
       </c>
       <c r="C66" t="n">
-        <v>1695</v>
+        <v>1913</v>
       </c>
       <c r="D66" t="n">
-        <v>1.761387983176645</v>
+        <v>3.040297327323197</v>
       </c>
       <c r="E66" t="n">
-        <v>1.264587413972522</v>
+        <v>2.475609236101003</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4968005692041229</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G66" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H66" t="n">
-        <v>25.1343156116925</v>
+        <v>36.00238596876466</v>
       </c>
       <c r="I66" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J66" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="K66" t="n">
-        <v>92.30914643812068</v>
+        <v>201.0105021474774</v>
       </c>
       <c r="L66" t="n">
-        <v>4.253353109166055</v>
+        <v>13.76610370819732</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8899632144567542</v>
+        <v>0.7733974808930351</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3826777480727525</v>
+        <v>0.07879081648773618</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9145071934385288</v>
+        <v>0.9731418771228372</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>735</v>
+        <v>591</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2238</v>
+        <v>1982</v>
       </c>
       <c r="B67" t="n">
-        <v>2255</v>
+        <v>2009</v>
       </c>
       <c r="C67" t="n">
-        <v>2305</v>
+        <v>2082</v>
       </c>
       <c r="D67" t="n">
-        <v>2.716960316457794</v>
+        <v>3.730873357682216</v>
       </c>
       <c r="E67" t="n">
-        <v>2.220159747253671</v>
+        <v>3.166185266460023</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4968005692041229</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G67" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H67" t="n">
-        <v>32.67509881070464</v>
+        <v>375.376564722796</v>
       </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J67" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="K67" t="n">
-        <v>93.23306406237427</v>
+        <v>305.18697573427</v>
       </c>
       <c r="L67" t="n">
-        <v>6.560843902571128</v>
+        <v>16.89294961464274</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.9015154963606027</v>
+        <v>0.748755514185802</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.34</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2566234883402448</v>
+        <v>0.1139442484339898</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8382233970382651</v>
+        <v>0.9125140252933597</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3258</v>
+        <v>2082</v>
       </c>
       <c r="B68" t="n">
-        <v>3288</v>
+        <v>2101</v>
       </c>
       <c r="C68" t="n">
-        <v>3344</v>
+        <v>2135</v>
       </c>
       <c r="D68" t="n">
-        <v>2.941071149652335</v>
+        <v>2.373929926997478</v>
       </c>
       <c r="E68" t="n">
-        <v>2.539895791333361</v>
+        <v>1.809241835775285</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4011753583189736</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G68" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="H68" t="n">
-        <v>36.89983673218103</v>
+        <v>18.68783679893431</v>
       </c>
       <c r="I68" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J68" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="K68" t="n">
-        <v>156.0465773719645</v>
+        <v>111.7868925580415</v>
       </c>
       <c r="L68" t="n">
-        <v>6.511251817306979</v>
+        <v>10.74887159138912</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8586383272841038</v>
+        <v>0.7398027179281497</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2935108425794201</v>
+        <v>0.08902174443337935</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9414569708219223</v>
+        <v>0.968327581518249</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>737</v>
+        <v>593</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3344</v>
+        <v>2327</v>
       </c>
       <c r="B69" t="n">
-        <v>3373</v>
+        <v>2346</v>
       </c>
       <c r="C69" t="n">
-        <v>3530</v>
+        <v>2376</v>
       </c>
       <c r="D69" t="n">
-        <v>4.736334527816763</v>
+        <v>2.237493236608753</v>
       </c>
       <c r="E69" t="n">
-        <v>4.335159169497789</v>
+        <v>1.672805145386559</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4011753583189736</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G69" t="n">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="H69" t="n">
-        <v>55.49887043942772</v>
+        <v>14.85612057576145</v>
       </c>
       <c r="I69" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J69" t="n">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>413.0414829959052</v>
+        <v>94.31369069523774</v>
       </c>
       <c r="L69" t="n">
-        <v>10.48579419959501</v>
+        <v>10.13110252893099</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8839327204311253</v>
+        <v>0.6904492719294322</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1847133757961783</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2309656497160279</v>
+        <v>0.08344289845116584</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8783302189672894</v>
+        <v>0.9762950333309991</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>738</v>
+        <v>594</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>988</v>
+        <v>1510</v>
       </c>
       <c r="B70" t="n">
-        <v>1023</v>
+        <v>1542</v>
       </c>
       <c r="C70" t="n">
-        <v>1136</v>
+        <v>1596</v>
       </c>
       <c r="D70" t="n">
-        <v>3.981706305531567</v>
+        <v>2.664689344703836</v>
       </c>
       <c r="E70" t="n">
-        <v>3.515494123700812</v>
+        <v>2.102551925319395</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4662121818307556</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G70" t="n">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="H70" t="n">
-        <v>48.50936473463651</v>
+        <v>36.61919267366079</v>
       </c>
       <c r="I70" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J70" t="n">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="K70" t="n">
-        <v>279.225845726711</v>
+        <v>146.9979980813635</v>
       </c>
       <c r="L70" t="n">
-        <v>10.07044472465671</v>
+        <v>6.448723024108354</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.920439872342933</v>
+        <v>0.853122057977593</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.3097345132743363</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3065542156482493</v>
+        <v>0.3734453146054506</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8311287166714492</v>
+        <v>0.9938104360083034</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1218</v>
+        <v>1679</v>
       </c>
       <c r="B71" t="n">
-        <v>1244</v>
+        <v>1706</v>
       </c>
       <c r="C71" t="n">
-        <v>1344</v>
+        <v>2015</v>
       </c>
       <c r="D71" t="n">
-        <v>4.444177260593383</v>
+        <v>2.224193328943004</v>
       </c>
       <c r="E71" t="n">
-        <v>3.977965078762627</v>
+        <v>1.662055909558563</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4662121818307556</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G71" t="n">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="H71" t="n">
-        <v>129.8233010522385</v>
+        <v>30.62640903968963</v>
       </c>
       <c r="I71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>309</v>
       </c>
       <c r="K71" t="n">
-        <v>346.1804069671223</v>
+        <v>458.6560855322574</v>
       </c>
       <c r="L71" t="n">
-        <v>11.24011617511982</v>
+        <v>5.382693768386391</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.9094862653986673</v>
+        <v>0.6515878828683791</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.26</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3533066355238476</v>
+        <v>0.1931283181491665</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9677558382688562</v>
+        <v>0.5161762367697318</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>740</v>
+        <v>596</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1203</v>
+        <v>2015</v>
       </c>
       <c r="B72" t="n">
-        <v>1239</v>
+        <v>2055</v>
       </c>
       <c r="C72" t="n">
-        <v>1302</v>
+        <v>2111</v>
       </c>
       <c r="D72" t="n">
-        <v>3.913975085574851</v>
+        <v>2.554274675454074</v>
       </c>
       <c r="E72" t="n">
-        <v>3.443764956222085</v>
+        <v>1.992137256069633</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4702101293527652</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G72" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H72" t="n">
-        <v>325.292402682657</v>
+        <v>25.44010434318466</v>
       </c>
       <c r="I72" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J72" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K72" t="n">
-        <v>272.5198510536509</v>
+        <v>150.2364875358816</v>
       </c>
       <c r="L72" t="n">
-        <v>10.12244385529851</v>
+        <v>6.181512281060411</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.6723704043995561</v>
+        <v>0.7655730229508428</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R72" t="n">
-        <v>0.3530568239900146</v>
+        <v>0.6023304745205309</v>
       </c>
       <c r="S72" t="n">
-        <v>0.7339117057266945</v>
+        <v>0.9354739417493916</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>741</v>
+        <v>597</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1302</v>
+        <v>2358</v>
       </c>
       <c r="B73" t="n">
-        <v>1322</v>
+        <v>2396</v>
       </c>
       <c r="C73" t="n">
-        <v>1375</v>
+        <v>2498</v>
       </c>
       <c r="D73" t="n">
-        <v>2.596100968828214</v>
+        <v>2.338948509729348</v>
       </c>
       <c r="E73" t="n">
-        <v>2.125890839475448</v>
+        <v>1.776811090344907</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4702101293527652</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G73" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="H73" t="n">
-        <v>13.53497890001199</v>
+        <v>34.40036557823942</v>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J73" t="n">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="K73" t="n">
-        <v>143.735116775849</v>
+        <v>157.0939436800796</v>
       </c>
       <c r="L73" t="n">
-        <v>6.714116908025754</v>
+        <v>5.660408834100688</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.7111202411209283</v>
+        <v>0.8236095392456229</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1465731918532413</v>
+        <v>0.437997875215511</v>
       </c>
       <c r="S73" t="n">
-        <v>0.660226927172492</v>
+        <v>0.7208129393917518</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1375</v>
+        <v>2762</v>
       </c>
       <c r="B74" t="n">
-        <v>1441</v>
+        <v>2788</v>
       </c>
       <c r="C74" t="n">
-        <v>1545</v>
+        <v>2886</v>
       </c>
       <c r="D74" t="n">
-        <v>3.028756486271006</v>
+        <v>1.844144862748477</v>
       </c>
       <c r="E74" t="n">
-        <v>2.558546356918241</v>
+        <v>1.263887421873345</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4702101293527652</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G74" t="n">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="H74" t="n">
-        <v>82.22375724450853</v>
+        <v>31.15374943592951</v>
       </c>
       <c r="I74" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="J74" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K74" t="n">
-        <v>386.9280266659712</v>
+        <v>153.7839529352069</v>
       </c>
       <c r="L74" t="n">
-        <v>7.83306403677493</v>
+        <v>7.681567765590413</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.488660070299898</v>
+        <v>0.8567049779723021</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1250613463999422</v>
+        <v>0.2415260235442377</v>
       </c>
       <c r="S74" t="n">
-        <v>0.6019840463628301</v>
+        <v>0.6800789948726111</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1545</v>
+        <v>2886</v>
       </c>
       <c r="B75" t="n">
-        <v>1559</v>
+        <v>2973</v>
       </c>
       <c r="C75" t="n">
-        <v>1586</v>
+        <v>3159</v>
       </c>
       <c r="D75" t="n">
-        <v>1.400925603528075</v>
+        <v>3.731828222156717</v>
       </c>
       <c r="E75" t="n">
-        <v>0.93071547417531</v>
+        <v>3.151570781281585</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4702101293527652</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G75" t="n">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="H75" t="n">
-        <v>11.96882537210536</v>
+        <v>83.10492657509667</v>
       </c>
       <c r="I75" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="J75" t="n">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="K75" t="n">
-        <v>39.75394778262263</v>
+        <v>524.1725522473885</v>
       </c>
       <c r="L75" t="n">
-        <v>3.623117280288044</v>
+        <v>15.54449000026817</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8288483148714961</v>
+        <v>0.7394574492130936</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="R75" t="n">
-        <v>0.221778640030062</v>
+        <v>0.2167624230778781</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9047276093082302</v>
+        <v>0.9673242651002526</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>825</v>
+        <v>3159</v>
       </c>
       <c r="B76" t="n">
-        <v>858</v>
+        <v>3255</v>
       </c>
       <c r="C76" t="n">
-        <v>929</v>
+        <v>3376</v>
       </c>
       <c r="D76" t="n">
-        <v>3.220232843045971</v>
+        <v>1.474458147682366</v>
       </c>
       <c r="E76" t="n">
-        <v>2.67973167891059</v>
+        <v>0.8942007068072336</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5405011641353811</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G76" t="n">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="H76" t="n">
-        <v>46.01202604682692</v>
+        <v>96.73060741754989</v>
       </c>
       <c r="I76" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="J76" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="K76" t="n">
-        <v>185.8924507647199</v>
+        <v>256.4053188858969</v>
       </c>
       <c r="L76" t="n">
-        <v>10.0559158557443</v>
+        <v>6.141681387257583</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8759481105705786</v>
+        <v>0.5297342562668589</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.4647887323943662</v>
+        <v>0.7933884297520661</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2556022711425869</v>
+        <v>0.1678006581977444</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9216775104207635</v>
+        <v>0.7642578415110038</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>745</v>
+        <v>601</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>986</v>
+        <v>2582</v>
       </c>
       <c r="B77" t="n">
-        <v>1045</v>
+        <v>2605</v>
       </c>
       <c r="C77" t="n">
-        <v>1178</v>
+        <v>2649</v>
       </c>
       <c r="D77" t="n">
-        <v>1.189358311683334</v>
+        <v>1.74384561159373</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6488571475479532</v>
+        <v>1.393705998217803</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5405011641353811</v>
+        <v>-0.3501396133759265</v>
       </c>
       <c r="G77" t="n">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="H77" t="n">
-        <v>28.00029788436063</v>
+        <v>48.55960658661979</v>
       </c>
       <c r="I77" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J77" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K77" t="n">
-        <v>122.5963320736365</v>
+        <v>80.17957977727936</v>
       </c>
       <c r="L77" t="n">
-        <v>3.714044197283833</v>
+        <v>4.103415879389794</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.6673311842013876</v>
+        <v>0.6293348061984626</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.443609022556391</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3028048478372926</v>
+        <v>0.1241111870464988</v>
       </c>
       <c r="S77" t="n">
-        <v>0.7303555611110564</v>
+        <v>0.7395150855565554</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>401</v>
+        <v>2043</v>
       </c>
       <c r="B78" t="n">
-        <v>424</v>
+        <v>2071</v>
       </c>
       <c r="C78" t="n">
-        <v>489</v>
+        <v>2151</v>
       </c>
       <c r="D78" t="n">
-        <v>0.972153178941594</v>
+        <v>3.480473785298237</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5304853389842934</v>
+        <v>2.991458518900645</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4416678399573006</v>
+        <v>-0.4890152663975921</v>
       </c>
       <c r="G78" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H78" t="n">
-        <v>18.82876743783584</v>
+        <v>147.6529062510836</v>
       </c>
       <c r="I78" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J78" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K78" t="n">
-        <v>54.32417970017426</v>
+        <v>255.1658603082567</v>
       </c>
       <c r="L78" t="n">
-        <v>3.861570905266063</v>
+        <v>15.76689365770022</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7451716988727105</v>
+        <v>0.8738285459444526</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.35</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2150115183358289</v>
+        <v>0.3990138293528559</v>
       </c>
       <c r="S78" t="n">
-        <v>0.4184434890015466</v>
+        <v>0.9515235777531217</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>747</v>
+        <v>603</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>837</v>
+        <v>2769</v>
       </c>
       <c r="B79" t="n">
-        <v>875</v>
+        <v>2799</v>
       </c>
       <c r="C79" t="n">
-        <v>942</v>
+        <v>2867</v>
       </c>
       <c r="D79" t="n">
-        <v>1.586913386212498</v>
+        <v>1.240557768686894</v>
       </c>
       <c r="E79" t="n">
-        <v>1.145245546255197</v>
+        <v>0.8560332093349322</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4416678399573006</v>
+        <v>-0.3845245593519623</v>
       </c>
       <c r="G79" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H79" t="n">
-        <v>49.44861617553374</v>
+        <v>38.31580036926243</v>
       </c>
       <c r="I79" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J79" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K79" t="n">
-        <v>85.47599556296153</v>
+        <v>54.98377129565139</v>
       </c>
       <c r="L79" t="n">
-        <v>6.303511312946692</v>
+        <v>4.293985816804508</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.755743998555837</v>
+        <v>0.901704652219437</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4433459891789627</v>
+        <v>0.3442812745712765</v>
       </c>
       <c r="S79" t="n">
-        <v>0.6524502844970497</v>
+        <v>0.9162814876713791</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>748</v>
+        <v>604</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1471</v>
+        <v>3037</v>
       </c>
       <c r="B80" t="n">
-        <v>1512</v>
+        <v>3052</v>
       </c>
       <c r="C80" t="n">
-        <v>1570</v>
+        <v>3107</v>
       </c>
       <c r="D80" t="n">
-        <v>5.723111580444591</v>
+        <v>2.052467745048431</v>
       </c>
       <c r="E80" t="n">
-        <v>5.28144374048729</v>
+        <v>1.667943185696469</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4416678399573006</v>
+        <v>-0.3845245593519623</v>
       </c>
       <c r="G80" t="n">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="H80" t="n">
-        <v>134.8873882659773</v>
+        <v>92.4149753290867</v>
       </c>
       <c r="I80" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J80" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K80" t="n">
-        <v>412.0837518728906</v>
+        <v>92.6759454964577</v>
       </c>
       <c r="L80" t="n">
-        <v>22.73324990892599</v>
+        <v>7.104278099048432</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.7472045372321159</v>
+        <v>0.8777088420178736</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7068965517241379</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R80" t="n">
-        <v>0.5564749630219599</v>
+        <v>0.2433301406601404</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9402022523118923</v>
+        <v>0.8182297823575274</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>749</v>
+        <v>605</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1570</v>
+        <v>3466</v>
       </c>
       <c r="B81" t="n">
-        <v>1584</v>
+        <v>3481</v>
       </c>
       <c r="C81" t="n">
-        <v>1707</v>
+        <v>3530</v>
       </c>
       <c r="D81" t="n">
-        <v>4.534174870907366</v>
+        <v>3.731443551143073</v>
       </c>
       <c r="E81" t="n">
-        <v>4.092507030950065</v>
+        <v>3.34691899179111</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.4416678399573006</v>
+        <v>-0.3845245593519623</v>
       </c>
       <c r="G81" t="n">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="H81" t="n">
-        <v>14.90126369399945</v>
+        <v>19.26918230519914</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J81" t="n">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="K81" t="n">
-        <v>353.898286369565</v>
+        <v>183.0670446013383</v>
       </c>
       <c r="L81" t="n">
-        <v>18.01057502064324</v>
+        <v>12.91577554004178</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7835116451396444</v>
+        <v>0.8187930484714191</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.1138211382113821</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4362348769754378</v>
+        <v>0.182024628397143</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9448975976972496</v>
+        <v>0.5769686658946408</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>903</v>
+        <v>1570</v>
       </c>
       <c r="B82" t="n">
-        <v>925</v>
+        <v>1606</v>
       </c>
       <c r="C82" t="n">
-        <v>969</v>
+        <v>1796</v>
       </c>
       <c r="D82" t="n">
-        <v>1.274721960656171</v>
+        <v>6.82525763027586</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7485553460269254</v>
+        <v>6.436039908743804</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5261666146292454</v>
+        <v>-0.3892177215320562</v>
       </c>
       <c r="G82" t="n">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="H82" t="n">
-        <v>42.12473620662786</v>
+        <v>102.0209278718223</v>
       </c>
       <c r="I82" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J82" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="K82" t="n">
-        <v>46.5589715482638</v>
+        <v>692.778848713305</v>
       </c>
       <c r="L82" t="n">
-        <v>4.442055227979474</v>
+        <v>30.3065434359822</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.8088621617184966</v>
+        <v>0.9204638014140321</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.5</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2192383789310435</v>
+        <v>0.2334435626221138</v>
       </c>
       <c r="S82" t="n">
-        <v>0.8257927468826682</v>
+        <v>0.9526614034834676</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>751</v>
+        <v>607</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2077</v>
+        <v>3307</v>
       </c>
       <c r="B83" t="n">
-        <v>2089</v>
+        <v>3334</v>
       </c>
       <c r="C83" t="n">
-        <v>2140</v>
+        <v>3421</v>
       </c>
       <c r="D83" t="n">
-        <v>2.436050865362348</v>
+        <v>1.031051272039893</v>
       </c>
       <c r="E83" t="n">
-        <v>1.909884250733103</v>
+        <v>0.6418335505078372</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5261666146292454</v>
+        <v>-0.3892177215320562</v>
       </c>
       <c r="G83" t="n">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="H83" t="n">
-        <v>13.57811097729336</v>
+        <v>24.80581141545963</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J83" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K83" t="n">
-        <v>102.0941226013266</v>
+        <v>74.71955925283851</v>
       </c>
       <c r="L83" t="n">
-        <v>8.488966861868864</v>
+        <v>4.578230134814528</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.8789994033605227</v>
+        <v>0.7646677516256837</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="R83" t="n">
-        <v>0.300121744568034</v>
+        <v>0.2861237461984419</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9366661442756075</v>
+        <v>0.3783097818490651</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>752</v>
+        <v>608</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2140</v>
+        <v>1675</v>
       </c>
       <c r="B84" t="n">
-        <v>2165</v>
+        <v>1694</v>
       </c>
       <c r="C84" t="n">
-        <v>2215</v>
+        <v>1720</v>
       </c>
       <c r="D84" t="n">
-        <v>1.168470611439157</v>
+        <v>3.285454987947819</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6423039968099115</v>
+        <v>2.815878170628604</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5261666146292454</v>
+        <v>-0.469576817319215</v>
       </c>
       <c r="G84" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H84" t="n">
-        <v>20.46152803878977</v>
+        <v>16.12804396037495</v>
       </c>
       <c r="I84" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J84" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K84" t="n">
-        <v>60.89675955938787</v>
+        <v>108.039623014197</v>
       </c>
       <c r="L84" t="n">
-        <v>4.071798516448154</v>
+        <v>7.594592314296723</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.6585208931165258</v>
+        <v>0.7621651782094152</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.5</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2986720620679989</v>
+        <v>0.1626999938058256</v>
       </c>
       <c r="S84" t="n">
-        <v>0.7630861749001486</v>
+        <v>0.96537825009748</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>753</v>
+        <v>609</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2398</v>
+        <v>2987</v>
       </c>
       <c r="B85" t="n">
-        <v>2412</v>
+        <v>3016</v>
       </c>
       <c r="C85" t="n">
-        <v>2438</v>
+        <v>3139</v>
       </c>
       <c r="D85" t="n">
-        <v>3.021888455535888</v>
+        <v>3.912542988700692</v>
       </c>
       <c r="E85" t="n">
-        <v>2.495721840906642</v>
+        <v>3.499090430873429</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5261666146292454</v>
+        <v>-0.4134525578272625</v>
       </c>
       <c r="G85" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="H85" t="n">
-        <v>13.6178192131465</v>
+        <v>24.51111015601737</v>
       </c>
       <c r="I85" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J85" t="n">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="K85" t="n">
-        <v>95.7720827262132</v>
+        <v>370.6013469875533</v>
       </c>
       <c r="L85" t="n">
-        <v>10.53044964046452</v>
+        <v>10.01403479698708</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.8549965389662741</v>
+        <v>0.8211905233173952</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.2357723577235772</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2318778013347351</v>
+        <v>0.2922441667174101</v>
       </c>
       <c r="S85" t="n">
-        <v>0.9463397084910053</v>
+        <v>0.7882680567942085</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>754</v>
+        <v>610</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7774,2844 +7774,6 @@
         </is>
       </c>
       <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2152</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2168</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2192</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3.011495778247282</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2.524623317954696</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.4868724602925866</v>
-      </c>
-      <c r="G86" t="n">
-        <v>40</v>
-      </c>
-      <c r="H86" t="n">
-        <v>13.94966039913425</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>24</v>
-      </c>
-      <c r="K86" t="n">
-        <v>98.11423579146225</v>
-      </c>
-      <c r="L86" t="n">
-        <v>10.09909478912142</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.737919810262911</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.1183165623636096</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.9882694335443273</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>755</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2192</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2227</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2348</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.516450909685183</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2.029578449392596</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.4868724602925866</v>
-      </c>
-      <c r="G87" t="n">
-        <v>156</v>
-      </c>
-      <c r="H87" t="n">
-        <v>30.7288836766329</v>
-      </c>
-      <c r="I87" t="n">
-        <v>35</v>
-      </c>
-      <c r="J87" t="n">
-        <v>121</v>
-      </c>
-      <c r="K87" t="n">
-        <v>247.6077905955003</v>
-      </c>
-      <c r="L87" t="n">
-        <v>8.438954639303061</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.8558879567190014</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.2892561983471074</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.3021278611810892</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.78791299600131</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n25</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>756</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1824</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1852</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1913</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3.042089910803752</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.477901549649005</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.5641883611547469</v>
-      </c>
-      <c r="G88" t="n">
-        <v>89</v>
-      </c>
-      <c r="H88" t="n">
-        <v>35.66443470983222</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28</v>
-      </c>
-      <c r="J88" t="n">
-        <v>61</v>
-      </c>
-      <c r="K88" t="n">
-        <v>200.9729062050684</v>
-      </c>
-      <c r="L88" t="n">
-        <v>13.66522889903114</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.7799263110765779</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.459016393442623</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.08706011877848362</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.9621174279766312</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>757</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2082</v>
-      </c>
-      <c r="D89" t="n">
-        <v>3.740720821597694</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3.176532460442948</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.5641883611547469</v>
-      </c>
-      <c r="G89" t="n">
-        <v>101</v>
-      </c>
-      <c r="H89" t="n">
-        <v>291.3624247696887</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>74</v>
-      </c>
-      <c r="K89" t="n">
-        <v>307.9972344715366</v>
-      </c>
-      <c r="L89" t="n">
-        <v>16.80351592928378</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.7438537169727558</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.3648648648648649</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.105319270598197</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.907658150963993</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>758</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2082</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2101</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2135</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2.402991505013956</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.838803143859209</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.5641883611547469</v>
-      </c>
-      <c r="G90" t="n">
-        <v>53</v>
-      </c>
-      <c r="H90" t="n">
-        <v>20.1136040981437</v>
-      </c>
-      <c r="I90" t="n">
-        <v>19</v>
-      </c>
-      <c r="J90" t="n">
-        <v>34</v>
-      </c>
-      <c r="K90" t="n">
-        <v>111.8828758337319</v>
-      </c>
-      <c r="L90" t="n">
-        <v>10.79436503234944</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>0.6073214495702347</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.5588235294117647</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.08921620805241923</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.9605258060508417</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>759</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2328</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2349</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2377</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.28685223147273</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.722663870317983</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.5641883611547469</v>
-      </c>
-      <c r="G91" t="n">
-        <v>49</v>
-      </c>
-      <c r="H91" t="n">
-        <v>13.97508509867293</v>
-      </c>
-      <c r="I91" t="n">
-        <v>21</v>
-      </c>
-      <c r="J91" t="n">
-        <v>28</v>
-      </c>
-      <c r="K91" t="n">
-        <v>93.77273895817181</v>
-      </c>
-      <c r="L91" t="n">
-        <v>10.27266126827867</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>0.6811636398891545</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.1148766866710936</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.9760047576381773</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>760</v>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1511</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1541</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1595</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2.650708168429819</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.094746205454808</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G92" t="n">
-        <v>84</v>
-      </c>
-      <c r="H92" t="n">
-        <v>37.9703752258979</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>54</v>
-      </c>
-      <c r="K92" t="n">
-        <v>144.8733499447426</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.379595222505495</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>0.8568826934770757</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.3803120598737756</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.9928508036479986</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
-        <v>761</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1595</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1631</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1678</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.806070163414772</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.250108200439761</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G93" t="n">
-        <v>83</v>
-      </c>
-      <c r="H93" t="n">
-        <v>60.67127470239939</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>47</v>
-      </c>
-      <c r="K93" t="n">
-        <v>171.1804192703777</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.753512899588764</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>0.7210809945652533</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.20481037996931</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.8578886283472172</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>762</v>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1815</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1834</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1891</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.647708896444094</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.091746933469084</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G94" t="n">
-        <v>76</v>
-      </c>
-      <c r="H94" t="n">
-        <v>26.55121047390935</v>
-      </c>
-      <c r="I94" t="n">
-        <v>19</v>
-      </c>
-      <c r="J94" t="n">
-        <v>57</v>
-      </c>
-      <c r="K94" t="n">
-        <v>104.1166927029303</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.965625461538942</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>0.7733763375950126</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.08456453603111795</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.7309659983818337</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
-        <v>763</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1891</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1923</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.667076676243854</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.111114713268843</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G95" t="n">
-        <v>123</v>
-      </c>
-      <c r="H95" t="n">
-        <v>32.60229952267014</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>91</v>
-      </c>
-      <c r="K95" t="n">
-        <v>124.7495706893273</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.012238889962591</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>0.6906800917822241</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.3516483516483517</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.3643430912209441</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.7988015463996466</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
-        <v>764</v>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2055</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2122</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2.571017798784953</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.015055835809943</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G96" t="n">
-        <v>108</v>
-      </c>
-      <c r="H96" t="n">
-        <v>23.78726676472047</v>
-      </c>
-      <c r="I96" t="n">
-        <v>41</v>
-      </c>
-      <c r="J96" t="n">
-        <v>67</v>
-      </c>
-      <c r="K96" t="n">
-        <v>164.5812854841304</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.187800325005617</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>0.766816011619032</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.6119402985074627</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.6055404090523312</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.9244698422826439</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
-        <v>765</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2358</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2398</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2498</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.338408252875237</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.782446289900227</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G97" t="n">
-        <v>140</v>
-      </c>
-      <c r="H97" t="n">
-        <v>35.11944373541883</v>
-      </c>
-      <c r="I97" t="n">
-        <v>40</v>
-      </c>
-      <c r="J97" t="n">
-        <v>100</v>
-      </c>
-      <c r="K97" t="n">
-        <v>156.2973794511568</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.627967007453412</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>0.8087513844308</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.4652076882644738</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.6977221692329304</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
-        <v>766</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2498</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2525</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2573</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.550754770449896</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.9947928074748859</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-0.5559619629750105</v>
-      </c>
-      <c r="G98" t="n">
-        <v>75</v>
-      </c>
-      <c r="H98" t="n">
-        <v>18.45663954500924</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>48</v>
-      </c>
-      <c r="K98" t="n">
-        <v>74.94353876236936</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.732280996704409</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>0.6696714468004886</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.4652884391615937</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0.3545201084032692</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
-        <v>767</v>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2586</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2645</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2762</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.050987012828004</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.470118828904075</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.5808681839239287</v>
-      </c>
-      <c r="G99" t="n">
-        <v>176</v>
-      </c>
-      <c r="H99" t="n">
-        <v>87.27061624134831</v>
-      </c>
-      <c r="I99" t="n">
-        <v>59</v>
-      </c>
-      <c r="J99" t="n">
-        <v>117</v>
-      </c>
-      <c r="K99" t="n">
-        <v>320.3610776079953</v>
-      </c>
-      <c r="L99" t="n">
-        <v>12.64231911380659</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>0.8100518058567888</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.5042735042735043</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.5755237946075121</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0.9556517041509999</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
-        <v>768</v>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2762</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2789</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2887</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.845057837648612</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.264189653724683</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-0.5808681839239287</v>
-      </c>
-      <c r="G100" t="n">
-        <v>125</v>
-      </c>
-      <c r="H100" t="n">
-        <v>32.92790756229397</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27</v>
-      </c>
-      <c r="J100" t="n">
-        <v>98</v>
-      </c>
-      <c r="K100" t="n">
-        <v>154.6671362559887</v>
-      </c>
-      <c r="L100" t="n">
-        <v>7.645332434687319</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>0.8668780415602508</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.2755102040816326</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.253533427822971</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.6722676037312649</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
-        <v>769</v>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2887</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2972</v>
-      </c>
-      <c r="C101" t="n">
-        <v>3156</v>
-      </c>
-      <c r="D101" t="n">
-        <v>3.74971937804307</v>
-      </c>
-      <c r="E101" t="n">
-        <v>3.168851194119141</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.5808681839239287</v>
-      </c>
-      <c r="G101" t="n">
-        <v>269</v>
-      </c>
-      <c r="H101" t="n">
-        <v>83.10778227630772</v>
-      </c>
-      <c r="I101" t="n">
-        <v>85</v>
-      </c>
-      <c r="J101" t="n">
-        <v>184</v>
-      </c>
-      <c r="K101" t="n">
-        <v>520.715504208855</v>
-      </c>
-      <c r="L101" t="n">
-        <v>15.53764364290242</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>0.7191910039308758</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.4619565217391304</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.2378936625616122</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0.9638734314296201</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
-        <v>770</v>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>3221</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3255</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3376</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.477503031307766</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.8966348473838376</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-0.5808681839239287</v>
-      </c>
-      <c r="G102" t="n">
-        <v>155</v>
-      </c>
-      <c r="H102" t="n">
-        <v>108.0145299308147</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34</v>
-      </c>
-      <c r="J102" t="n">
-        <v>121</v>
-      </c>
-      <c r="K102" t="n">
-        <v>179.4219986011985</v>
-      </c>
-      <c r="L102" t="n">
-        <v>6.122302302458988</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>0.6600186754584869</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.2809917355371901</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.1531957935292127</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.7668174163909353</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
-        <v>771</v>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1751</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1771</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1801</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2.149759844725208</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.796267349249296</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-0.3534924954759114</v>
-      </c>
-      <c r="G103" t="n">
-        <v>50</v>
-      </c>
-      <c r="H103" t="n">
-        <v>35.53619368386194</v>
-      </c>
-      <c r="I103" t="n">
-        <v>20</v>
-      </c>
-      <c r="J103" t="n">
-        <v>30</v>
-      </c>
-      <c r="K103" t="n">
-        <v>63.1858214009246</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5.0301241985495</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>0.666567251433809</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.1249453246577925</v>
-      </c>
-      <c r="S103" t="n">
-        <v>0.8280550927270935</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
-        <v>772</v>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2066</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.056483126136523</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.702990630660611</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-0.3534924954759114</v>
-      </c>
-      <c r="G104" t="n">
-        <v>36</v>
-      </c>
-      <c r="H104" t="n">
-        <v>11.98640984397503</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10</v>
-      </c>
-      <c r="J104" t="n">
-        <v>26</v>
-      </c>
-      <c r="K104" t="n">
-        <v>47.8517014247511</v>
-      </c>
-      <c r="L104" t="n">
-        <v>4.811870294288762</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>0.9154078076313904</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.3555437599361347</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0.9637064818580715</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
-        <v>773</v>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2066</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2078</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2127</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.514528566205922</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.16103607073001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.3534924954759114</v>
-      </c>
-      <c r="G105" t="n">
-        <v>61</v>
-      </c>
-      <c r="H105" t="n">
-        <v>16.32032297902924</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12</v>
-      </c>
-      <c r="J105" t="n">
-        <v>49</v>
-      </c>
-      <c r="K105" t="n">
-        <v>49.36347960163532</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3.5437757426531</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0.8677854423177686</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.2448979591836735</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.1899997440952807</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.8656247391632587</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>774</v>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2582</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2605</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2650</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.757999015919821</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.40450652044391</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.3534924954759114</v>
-      </c>
-      <c r="G106" t="n">
-        <v>68</v>
-      </c>
-      <c r="H106" t="n">
-        <v>48.49359150992177</v>
-      </c>
-      <c r="I106" t="n">
-        <v>23</v>
-      </c>
-      <c r="J106" t="n">
-        <v>45</v>
-      </c>
-      <c r="K106" t="n">
-        <v>80.71421270807527</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.113461051336572</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.6713086100405391</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.1359167389277707</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.7250926277823608</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>775</v>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2070</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2151</v>
-      </c>
-      <c r="D107" t="n">
-        <v>3.510616477398406</v>
-      </c>
-      <c r="E107" t="n">
-        <v>3.018406606488202</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.4922098709102036</v>
-      </c>
-      <c r="G107" t="n">
-        <v>108</v>
-      </c>
-      <c r="H107" t="n">
-        <v>147.4251295365862</v>
-      </c>
-      <c r="I107" t="n">
-        <v>27</v>
-      </c>
-      <c r="J107" t="n">
-        <v>81</v>
-      </c>
-      <c r="K107" t="n">
-        <v>255.3820300293712</v>
-      </c>
-      <c r="L107" t="n">
-        <v>15.72085481023335</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>0.8817820462095286</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.440218608528482</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.950041187764902</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>776</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2151</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2176</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2216</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2.248597440141023</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.75638756923082</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.4922098709102036</v>
-      </c>
-      <c r="G108" t="n">
-        <v>65</v>
-      </c>
-      <c r="H108" t="n">
-        <v>25.94486099006372</v>
-      </c>
-      <c r="I108" t="n">
-        <v>25</v>
-      </c>
-      <c r="J108" t="n">
-        <v>40</v>
-      </c>
-      <c r="K108" t="n">
-        <v>124.2274796646152</v>
-      </c>
-      <c r="L108" t="n">
-        <v>10.06942060196674</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>0.7406591823679899</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.1146205175794045</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.9183120106825747</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
-        <v>777</v>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2205</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2223</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2246</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.200213974050888</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.8089366022779423</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.3912773717729461</v>
-      </c>
-      <c r="G109" t="n">
-        <v>41</v>
-      </c>
-      <c r="H109" t="n">
-        <v>16.48494771054811</v>
-      </c>
-      <c r="I109" t="n">
-        <v>18</v>
-      </c>
-      <c r="J109" t="n">
-        <v>23</v>
-      </c>
-      <c r="K109" t="n">
-        <v>29.62897633216647</v>
-      </c>
-      <c r="L109" t="n">
-        <v>4.135625734522025</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>0.8104048505823693</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.3497694735028174</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.9775853521451435</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
-        <v>778</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2770</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2800</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2855</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.261529105451465</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.870251733678519</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-0.3912773717729461</v>
-      </c>
-      <c r="G110" t="n">
-        <v>85</v>
-      </c>
-      <c r="H110" t="n">
-        <v>38.42534837700669</v>
-      </c>
-      <c r="I110" t="n">
-        <v>30</v>
-      </c>
-      <c r="J110" t="n">
-        <v>55</v>
-      </c>
-      <c r="K110" t="n">
-        <v>54.44531629517184</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4.346901757646442</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>0.8289815651876968</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.2891015122893437</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.8511002023379642</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
-        <v>779</v>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>3036</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3052</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3106</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.111227150760055</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.719949778987109</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.3912773717729461</v>
-      </c>
-      <c r="G111" t="n">
-        <v>70</v>
-      </c>
-      <c r="H111" t="n">
-        <v>90.97946331321373</v>
-      </c>
-      <c r="I111" t="n">
-        <v>16</v>
-      </c>
-      <c r="J111" t="n">
-        <v>54</v>
-      </c>
-      <c r="K111" t="n">
-        <v>94.09562864610332</v>
-      </c>
-      <c r="L111" t="n">
-        <v>7.274740608656415</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>0.8673364232737713</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.2278746733681426</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.792107158005584</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
-        <v>780</v>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>3467</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3481</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3530</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3.782790806827014</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3.391513435054067</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.3912773717729461</v>
-      </c>
-      <c r="G112" t="n">
-        <v>63</v>
-      </c>
-      <c r="H112" t="n">
-        <v>19.30358555322482</v>
-      </c>
-      <c r="I112" t="n">
-        <v>14</v>
-      </c>
-      <c r="J112" t="n">
-        <v>49</v>
-      </c>
-      <c r="K112" t="n">
-        <v>180.6232047760934</v>
-      </c>
-      <c r="L112" t="n">
-        <v>13.03451496754846</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0.8336335485165228</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.1810891111267247</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.585903800819529</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
-        <v>781</v>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1570</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1606</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1796</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.804272955117167</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6.413723571245822</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.3905493838713447</v>
-      </c>
-      <c r="G113" t="n">
-        <v>226</v>
-      </c>
-      <c r="H113" t="n">
-        <v>102.4050844652234</v>
-      </c>
-      <c r="I113" t="n">
-        <v>36</v>
-      </c>
-      <c r="J113" t="n">
-        <v>190</v>
-      </c>
-      <c r="K113" t="n">
-        <v>692.9041448096214</v>
-      </c>
-      <c r="L113" t="n">
-        <v>29.88997423767389</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0.9200528091161952</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.1894736842105263</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.2401614444940991</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.9528146150203217</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
-        <v>782</v>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>3308</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3335</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3421</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.054386550166989</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.6638371662956439</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.3905493838713447</v>
-      </c>
-      <c r="G114" t="n">
-        <v>113</v>
-      </c>
-      <c r="H114" t="n">
-        <v>23.59305829411278</v>
-      </c>
-      <c r="I114" t="n">
-        <v>27</v>
-      </c>
-      <c r="J114" t="n">
-        <v>86</v>
-      </c>
-      <c r="K114" t="n">
-        <v>74.48592632774688</v>
-      </c>
-      <c r="L114" t="n">
-        <v>4.631734650994532</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>0.7503768161951553</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.2940678692285535</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.3420885951558504</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
-        <v>783</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1676</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1694</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D115" t="n">
-        <v>3.318837872701144</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.842146382277944</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.4766914904232001</v>
-      </c>
-      <c r="G115" t="n">
-        <v>43</v>
-      </c>
-      <c r="H115" t="n">
-        <v>16.16408852162044</v>
-      </c>
-      <c r="I115" t="n">
-        <v>18</v>
-      </c>
-      <c r="J115" t="n">
-        <v>25</v>
-      </c>
-      <c r="K115" t="n">
-        <v>104.9714850121686</v>
-      </c>
-      <c r="L115" t="n">
-        <v>7.634204369225038</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>0.760455316453244</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.1532777245990753</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.9492206784358824</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>784</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>3190</v>
-      </c>
-      <c r="B116" t="n">
-        <v>3214</v>
-      </c>
-      <c r="C116" t="n">
-        <v>3246</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.596453782403064</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.119762291979864</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-0.4766914904232001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>56</v>
-      </c>
-      <c r="H116" t="n">
-        <v>25.44845865144134</v>
-      </c>
-      <c r="I116" t="n">
-        <v>24</v>
-      </c>
-      <c r="J116" t="n">
-        <v>32</v>
-      </c>
-      <c r="K116" t="n">
-        <v>66.74445252220549</v>
-      </c>
-      <c r="L116" t="n">
-        <v>3.672265687075574</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>0.6562802127694172</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.07513439228252591</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.9188064603547519</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
-        <v>785</v>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>3041</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3057</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3140</v>
-      </c>
-      <c r="D117" t="n">
-        <v>3.090219002742799</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.668489742949726</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.421729259793073</v>
-      </c>
-      <c r="G117" t="n">
-        <v>99</v>
-      </c>
-      <c r="H117" t="n">
-        <v>10.68413546052807</v>
-      </c>
-      <c r="I117" t="n">
-        <v>16</v>
-      </c>
-      <c r="J117" t="n">
-        <v>83</v>
-      </c>
-      <c r="K117" t="n">
-        <v>198.1941188693604</v>
-      </c>
-      <c r="L117" t="n">
-        <v>7.883695983358058</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>0.7864760611070685</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.1927710843373494</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0.3112684633476842</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0.8030074258603634</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
-        <v>786</v>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>3140</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3159</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3206</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.344271871590973</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9225426117978999</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-0.421729259793073</v>
-      </c>
-      <c r="G118" t="n">
-        <v>66</v>
-      </c>
-      <c r="H118" t="n">
-        <v>15.55657832758379</v>
-      </c>
-      <c r="I118" t="n">
-        <v>19</v>
-      </c>
-      <c r="J118" t="n">
-        <v>47</v>
-      </c>
-      <c r="K118" t="n">
-        <v>53.55763381454359</v>
-      </c>
-      <c r="L118" t="n">
-        <v>3.429475627842755</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>0.7384436254053166</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0.1411081995929224</v>
-      </c>
-      <c r="S118" t="n">
-        <v>0.7481447831774696</v>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U118" t="n">
-        <v>787</v>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,62 +560,62 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>2.418872974003441</v>
+        <v>2.401350274604297</v>
       </c>
       <c r="E2" t="n">
-        <v>1.890071967772948</v>
+        <v>1.871965155221943</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5288010062304928</v>
+        <v>-0.5293851193823544</v>
       </c>
       <c r="G2" t="n">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="H2" t="n">
-        <v>90.75073420365888</v>
+        <v>48.00546046704465</v>
       </c>
       <c r="I2" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>744.8017968926492</v>
+        <v>186.1270409401379</v>
       </c>
       <c r="L2" t="n">
-        <v>6.533371441166255</v>
+        <v>6.174535686322745</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(324), 'value': np.float64(1.4246990889856255), 'amplitude': np.float64(1.9535000952161181), 'start_idx': np.int64(311), 'end_idx': np.int64(358), 'duration': np.float64(47.0), 'fwhm': np.float64(73.864709034361), 'rise_time': np.float64(13.0), 'decay_time': np.float64(34.0), 'auc': np.float64(77.23337597028228)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.4811236498166616</v>
+        <v>0.7002823410749881</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6210526315789474</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3519724353961571</v>
+        <v>0.2338134485933463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4643324429471961</v>
+        <v>0.8699059729768573</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>278</v>
+        <v>527</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="B3" t="n">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="C3" t="n">
-        <v>2177</v>
+        <v>2182</v>
       </c>
       <c r="D3" t="n">
-        <v>3.137094902085761</v>
+        <v>3.226048590288291</v>
       </c>
       <c r="E3" t="n">
-        <v>2.511959848708628</v>
+        <v>2.594746349442793</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6251350533771335</v>
+        <v>-0.6313022408454982</v>
       </c>
       <c r="G3" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="n">
-        <v>63.45833069465834</v>
+        <v>64.8320414665186</v>
       </c>
       <c r="I3" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K3" t="n">
-        <v>250.6352370003625</v>
+        <v>257.7566120771129</v>
       </c>
       <c r="L3" t="n">
-        <v>12.8420215108701</v>
+        <v>13.03031335228681</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8107648107845944</v>
+        <v>0.8837411494053191</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.618421052631579</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4726855133377765</v>
+        <v>0.4706782536547426</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9321984286456655</v>
+        <v>0.9259852819339685</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>279</v>
+        <v>528</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2177</v>
+        <v>2182</v>
       </c>
       <c r="B4" t="n">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="C4" t="n">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D4" t="n">
-        <v>3.879539778344186</v>
+        <v>3.915466561338287</v>
       </c>
       <c r="E4" t="n">
-        <v>3.254404724967053</v>
+        <v>3.284164320492789</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6251350533771335</v>
+        <v>-0.6313022408454982</v>
       </c>
       <c r="G4" t="n">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H4" t="n">
-        <v>133.1092659696051</v>
+        <v>127.3424869927458</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>771.6552472741841</v>
+        <v>767.076034909556</v>
       </c>
       <c r="L4" t="n">
-        <v>15.88129618031244</v>
+        <v>15.81493731006683</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7609203039360594</v>
+        <v>0.7449589643548332</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08411214953271028</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5333144032875747</v>
+        <v>0.5153250682315429</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6713031634949964</v>
+        <v>0.6521343461050655</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3073</v>
+        <v>398</v>
       </c>
       <c r="B5" t="n">
-        <v>3121</v>
+        <v>430</v>
       </c>
       <c r="C5" t="n">
-        <v>3382</v>
+        <v>518</v>
       </c>
       <c r="D5" t="n">
-        <v>4.189811618828707</v>
+        <v>3.427725132754378</v>
       </c>
       <c r="E5" t="n">
-        <v>3.564676565451574</v>
+        <v>2.755233661677169</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6251350533771335</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G5" t="n">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="H5" t="n">
-        <v>127.9331020684363</v>
+        <v>20.91371969517746</v>
       </c>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="K5" t="n">
-        <v>597.0237369502188</v>
+        <v>356.3983775460356</v>
       </c>
       <c r="L5" t="n">
-        <v>17.15142595772858</v>
+        <v>28.30462226536594</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8503028671556732</v>
+        <v>0.7510256710461291</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1839080459770115</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2114661151507298</v>
+        <v>0.1305753196926709</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6294721242630457</v>
+        <v>0.9017033107570407</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>334</v>
+        <v>518</v>
       </c>
       <c r="B6" t="n">
-        <v>374</v>
+        <v>552</v>
       </c>
       <c r="C6" t="n">
-        <v>493</v>
+        <v>756</v>
       </c>
       <c r="D6" t="n">
-        <v>3.799325939265389</v>
+        <v>2.987248941468659</v>
       </c>
       <c r="E6" t="n">
-        <v>3.127436911855919</v>
+        <v>2.31475747039145</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.67188902740947</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="H6" t="n">
-        <v>389.1899173096521</v>
+        <v>26.33446293010115</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J6" t="n">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="K6" t="n">
-        <v>498.679022945492</v>
+        <v>482.5458110546726</v>
       </c>
       <c r="L6" t="n">
-        <v>32.80886539409065</v>
+        <v>24.66736673046517</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7237815965916231</v>
+        <v>0.8021921827125221</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3361344537815126</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09987076247497595</v>
+        <v>0.2987143909824077</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7693930780818603</v>
+        <v>0.9262706541376718</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>282</v>
+        <v>531</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>493</v>
+        <v>756</v>
       </c>
       <c r="B7" t="n">
-        <v>551</v>
+        <v>793</v>
       </c>
       <c r="C7" t="n">
-        <v>753</v>
+        <v>996</v>
       </c>
       <c r="D7" t="n">
-        <v>2.882180756780955</v>
+        <v>2.606894311899427</v>
       </c>
       <c r="E7" t="n">
-        <v>2.210291729371485</v>
+        <v>1.934402840822217</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.67188902740947</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G7" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="H7" t="n">
-        <v>47.86786351778665</v>
+        <v>99.45584849029922</v>
       </c>
       <c r="I7" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" t="n">
-        <v>542.6108215894288</v>
+        <v>399.7011987752197</v>
       </c>
       <c r="L7" t="n">
-        <v>24.88890977038636</v>
+        <v>21.52656818335723</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7294550944153932</v>
+        <v>0.8229848766770084</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2871287128712871</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2697746789061015</v>
+        <v>0.1041345699113463</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9285357649522098</v>
+        <v>0.9528521515648397</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>283</v>
+        <v>532</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>753</v>
+        <v>996</v>
       </c>
       <c r="B8" t="n">
-        <v>799</v>
+        <v>1030</v>
       </c>
       <c r="C8" t="n">
-        <v>992</v>
+        <v>1126</v>
       </c>
       <c r="D8" t="n">
-        <v>2.593234878084207</v>
+        <v>1.526023783783248</v>
       </c>
       <c r="E8" t="n">
-        <v>1.921345850674737</v>
+        <v>0.8535323127060384</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.67188902740947</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G8" t="n">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="H8" t="n">
-        <v>101.6841580568479</v>
+        <v>64.66111925282939</v>
       </c>
       <c r="I8" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="K8" t="n">
-        <v>399.1143230396034</v>
+        <v>149.7528306105603</v>
       </c>
       <c r="L8" t="n">
-        <v>22.39373389132718</v>
+        <v>12.60122241284871</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8594130564523347</v>
+        <v>0.7498908038349534</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2383419689119171</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1177698470052937</v>
+        <v>0.06142173962272525</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9544738722311573</v>
+        <v>0.8447281981162704</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>284</v>
+        <v>533</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>992</v>
+        <v>1126</v>
       </c>
       <c r="B9" t="n">
-        <v>1035</v>
+        <v>1160</v>
       </c>
       <c r="C9" t="n">
-        <v>1122</v>
+        <v>1348</v>
       </c>
       <c r="D9" t="n">
-        <v>1.500914120566697</v>
+        <v>1.931932240076798</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8290250931572274</v>
+        <v>1.259440768999589</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.67188902740947</v>
+        <v>-0.6724914710772094</v>
       </c>
       <c r="G9" t="n">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="H9" t="n">
-        <v>61.45343615057936</v>
+        <v>83.905549429149</v>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="K9" t="n">
-        <v>150.2781477095403</v>
+        <v>257.0960961261789</v>
       </c>
       <c r="L9" t="n">
-        <v>12.96105944500357</v>
+        <v>15.9530330408131</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.6974352762850459</v>
+        <v>0.8248961450682707</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4942528735632184</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04814028009295274</v>
+        <v>0.08871991599156458</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9055846121964127</v>
+        <v>0.9888715616072117</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>285</v>
+        <v>534</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1122</v>
+        <v>3397</v>
       </c>
       <c r="B10" t="n">
-        <v>1166</v>
+        <v>3431</v>
       </c>
       <c r="C10" t="n">
-        <v>1342</v>
+        <v>3530</v>
       </c>
       <c r="D10" t="n">
-        <v>1.884428219799667</v>
+        <v>1.727865619778633</v>
       </c>
       <c r="E10" t="n">
-        <v>1.212539192390197</v>
+        <v>1.23100136855762</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.67188902740947</v>
+        <v>-0.496864251221013</v>
       </c>
       <c r="G10" t="n">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="H10" t="n">
-        <v>83.22638949041561</v>
+        <v>42.28464281209881</v>
       </c>
       <c r="I10" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J10" t="n">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="K10" t="n">
-        <v>256.4178325310084</v>
+        <v>161.8215933893283</v>
       </c>
       <c r="L10" t="n">
-        <v>16.27287387198671</v>
+        <v>12.0316609317051</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8766895895863602</v>
+        <v>0.895465647845803</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.25</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1072538067910052</v>
+        <v>0.1840011214078102</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9921917465747747</v>
+        <v>0.9662721038810849</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>286</v>
+        <v>535</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2508</v>
+        <v>2392</v>
       </c>
       <c r="B11" t="n">
-        <v>2554</v>
+        <v>2442</v>
       </c>
       <c r="C11" t="n">
-        <v>2834</v>
+        <v>2507</v>
       </c>
       <c r="D11" t="n">
-        <v>2.425221361072304</v>
+        <v>3.287520223884112</v>
       </c>
       <c r="E11" t="n">
-        <v>1.793300250976516</v>
+        <v>2.653066557056909</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6319211100957874</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G11" t="n">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="H11" t="n">
-        <v>120.3814521743179</v>
+        <v>73.12044339167778</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="K11" t="n">
-        <v>542.2596646897098</v>
+        <v>236.1766643747584</v>
       </c>
       <c r="L11" t="n">
-        <v>5.812937753806867</v>
+        <v>7.705852679279238</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.859522862440711</v>
+        <v>0.7576815547616994</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1642857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R11" t="n">
-        <v>0.212825198169973</v>
+        <v>0.4165830797788214</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8867219755662236</v>
+        <v>0.9302308659781365</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>287</v>
+        <v>536</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,65 +1417,65 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2834</v>
+        <v>2507</v>
       </c>
       <c r="B12" t="n">
-        <v>2918</v>
+        <v>2537</v>
       </c>
       <c r="C12" t="n">
-        <v>3366</v>
+        <v>2836</v>
       </c>
       <c r="D12" t="n">
-        <v>2.975880864039115</v>
+        <v>2.42725628914845</v>
       </c>
       <c r="E12" t="n">
-        <v>2.343959753943328</v>
+        <v>1.792802622321247</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6319211100957874</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G12" t="n">
-        <v>532</v>
+        <v>329</v>
       </c>
       <c r="H12" t="n">
-        <v>157.8311277152902</v>
+        <v>125.3108391114902</v>
       </c>
       <c r="I12" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>448</v>
+        <v>299</v>
       </c>
       <c r="K12" t="n">
-        <v>802.2858832111692</v>
+        <v>546.0807733674756</v>
       </c>
       <c r="L12" t="n">
-        <v>7.132796413171889</v>
+        <v>5.689418803615337</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(3275), 'value': np.float64(1.1652328232326077), 'amplitude': np.float64(1.7971539333283952), 'start_idx': np.int64(3216), 'end_idx': np.int64(3306), 'duration': np.float64(90.0), 'fwhm': np.float64(98.57884237327698), 'rise_time': np.float64(59.0), 'decay_time': np.float64(31.0), 'auc': np.float64(127.8874839709283)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.763972569293065</v>
+        <v>0.7842868056146907</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1875</v>
+        <v>0.1003344481605351</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3157769913905834</v>
+        <v>0.1097966834700033</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3310697954344219</v>
+        <v>0.86653038947862</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>288</v>
+        <v>537</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1651</v>
+        <v>2836</v>
       </c>
       <c r="B13" t="n">
-        <v>1781</v>
+        <v>2911</v>
       </c>
       <c r="C13" t="n">
-        <v>2139</v>
+        <v>3210</v>
       </c>
       <c r="D13" t="n">
-        <v>3.195520494261339</v>
+        <v>3.026199814438293</v>
       </c>
       <c r="E13" t="n">
-        <v>2.579986794049107</v>
+        <v>2.39174614761109</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6155337002122319</v>
+        <v>-0.6344536668272031</v>
       </c>
       <c r="G13" t="n">
-        <v>488</v>
+        <v>374</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7489081155366</v>
+        <v>154.5523107488834</v>
       </c>
       <c r="I13" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="J13" t="n">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="K13" t="n">
-        <v>642.6547043584003</v>
+        <v>603.6546681686236</v>
       </c>
       <c r="L13" t="n">
-        <v>10.18981818789078</v>
+        <v>7.093325169136873</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7954227562056677</v>
+        <v>0.8311450887558961</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3631284916201117</v>
+        <v>0.2508361204013378</v>
       </c>
       <c r="R13" t="n">
-        <v>1.290828472664187</v>
+        <v>0.1627852284826126</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9082995946100384</v>
+        <v>0.8391747380168968</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>289</v>
+        <v>538</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2139</v>
+        <v>1660</v>
       </c>
       <c r="B14" t="n">
-        <v>2186</v>
+        <v>1777</v>
       </c>
       <c r="C14" t="n">
-        <v>2394</v>
+        <v>2146</v>
       </c>
       <c r="D14" t="n">
-        <v>2.597371952282421</v>
+        <v>3.14333003619494</v>
       </c>
       <c r="E14" t="n">
-        <v>1.981838252070189</v>
+        <v>2.535745689181783</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6155337002122319</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G14" t="n">
-        <v>255</v>
+        <v>486</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8847378919422</v>
+        <v>212.9216005518867</v>
       </c>
       <c r="I14" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="J14" t="n">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="K14" t="n">
-        <v>412.296616474271</v>
+        <v>641.4196205351907</v>
       </c>
       <c r="L14" t="n">
-        <v>8.282452892295636</v>
+        <v>10.01408334441443</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8985725334803791</v>
+        <v>0.7699043311953107</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2259615384615385</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3761934525994419</v>
+        <v>1.383244392658659</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8671843516637801</v>
+        <v>0.9045244334010536</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>290</v>
+        <v>539</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2394</v>
+        <v>2146</v>
       </c>
       <c r="B15" t="n">
-        <v>2445</v>
+        <v>2181</v>
       </c>
       <c r="C15" t="n">
-        <v>3128</v>
+        <v>2391</v>
       </c>
       <c r="D15" t="n">
-        <v>4.035158383995698</v>
+        <v>2.684854851400217</v>
       </c>
       <c r="E15" t="n">
-        <v>3.419624683783466</v>
+        <v>2.07727050438706</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6155337002122319</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G15" t="n">
-        <v>734</v>
+        <v>245</v>
       </c>
       <c r="H15" t="n">
-        <v>156.7564087019564</v>
+        <v>66.12531215462923</v>
       </c>
       <c r="I15" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>683</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
-        <v>1047.869608568543</v>
+        <v>405.4653537177056</v>
       </c>
       <c r="L15" t="n">
-        <v>12.86724036541154</v>
+        <v>8.553463982459704</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7588316042634199</v>
+        <v>0.8589423872741478</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0746705710102489</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4628802806196233</v>
+        <v>0.3726912047292455</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7147203479066178</v>
+        <v>0.8678055030208154</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>291</v>
+        <v>540</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2468</v>
+        <v>2391</v>
       </c>
       <c r="B16" t="n">
-        <v>2539</v>
+        <v>2438</v>
       </c>
       <c r="C16" t="n">
-        <v>2836</v>
+        <v>2826</v>
       </c>
       <c r="D16" t="n">
-        <v>4.574235684400485</v>
+        <v>4.001173590738132</v>
       </c>
       <c r="E16" t="n">
-        <v>3.941483824924317</v>
+        <v>3.393589243724975</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6327518594761675</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G16" t="n">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="H16" t="n">
-        <v>109.5256796503404</v>
+        <v>160.0125789903009</v>
       </c>
       <c r="I16" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J16" t="n">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="K16" t="n">
-        <v>971.3177325242752</v>
+        <v>804.5025127147875</v>
       </c>
       <c r="L16" t="n">
-        <v>27.02376041007401</v>
+        <v>12.7470184014227</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7668672492763927</v>
+        <v>0.8507225052681463</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2390572390572391</v>
+        <v>0.1211340206185567</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4114351951258344</v>
+        <v>0.1845176283021044</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6625076511898259</v>
+        <v>0.9800588973855229</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2836</v>
+        <v>2826</v>
       </c>
       <c r="B17" t="n">
-        <v>2921</v>
+        <v>2859</v>
       </c>
       <c r="C17" t="n">
-        <v>3070</v>
+        <v>3200</v>
       </c>
       <c r="D17" t="n">
-        <v>2.270392989303194</v>
+        <v>1.327356162151672</v>
       </c>
       <c r="E17" t="n">
-        <v>1.637641129827027</v>
+        <v>0.7197718151385154</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6327518594761675</v>
+        <v>-0.6075843470131569</v>
       </c>
       <c r="G17" t="n">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="H17" t="n">
-        <v>41.2402315836689</v>
+        <v>107.6305790842857</v>
       </c>
       <c r="I17" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="J17" t="n">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="K17" t="n">
-        <v>385.5519875657009</v>
+        <v>247.1686622636625</v>
       </c>
       <c r="L17" t="n">
-        <v>13.41307278697481</v>
+        <v>4.228717660077286</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.5957988405520415</v>
+        <v>0.8178775659097361</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5704697986577181</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2482223839038691</v>
+        <v>0.2742012202659675</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9510102051136915</v>
+        <v>0.7720173030271086</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>293</v>
+        <v>542</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3070</v>
+        <v>2043</v>
       </c>
       <c r="B18" t="n">
-        <v>3121</v>
+        <v>2074</v>
       </c>
       <c r="C18" t="n">
-        <v>3212</v>
+        <v>2221</v>
       </c>
       <c r="D18" t="n">
-        <v>2.259582073678034</v>
+        <v>0.9844847422611991</v>
       </c>
       <c r="E18" t="n">
-        <v>1.626830214201867</v>
+        <v>0.3424247569100641</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6327518594761675</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G18" t="n">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="H18" t="n">
-        <v>83.43893894962184</v>
+        <v>115.1789883417623</v>
       </c>
       <c r="I18" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="K18" t="n">
-        <v>236.1031300943695</v>
+        <v>97.05972673334678</v>
       </c>
       <c r="L18" t="n">
-        <v>13.34920384496464</v>
+        <v>5.779572530044123</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7095679326801588</v>
+        <v>0.8966913931830158</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5604395604395604</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1311592462200608</v>
+        <v>0.2201947931122314</v>
       </c>
       <c r="S18" t="n">
-        <v>0.928331064503906</v>
+        <v>0.9368811131893189</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>294</v>
+        <v>543</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3212</v>
+        <v>2472</v>
       </c>
       <c r="B19" t="n">
-        <v>3260</v>
+        <v>2538</v>
       </c>
       <c r="C19" t="n">
-        <v>3530</v>
+        <v>2750</v>
       </c>
       <c r="D19" t="n">
-        <v>1.75522840542751</v>
+        <v>4.63063040627532</v>
       </c>
       <c r="E19" t="n">
-        <v>1.122476545951343</v>
+        <v>3.988570420924185</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6327518594761675</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G19" t="n">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="H19" t="n">
-        <v>144.743883162078</v>
+        <v>108.9145421140356</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J19" t="n">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="K19" t="n">
-        <v>441.5380093642829</v>
+        <v>793.9983439485283</v>
       </c>
       <c r="L19" t="n">
-        <v>10.36957322837335</v>
+        <v>27.18484415657429</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7232811922157802</v>
+        <v>0.8385413919638587</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.3113207547169811</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1144519889969418</v>
+        <v>0.3597572764013382</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7790816948643196</v>
+        <v>0.8255769423663107</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>295</v>
+        <v>544</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>2780</v>
       </c>
       <c r="C20" t="n">
-        <v>137</v>
+        <v>2841</v>
       </c>
       <c r="D20" t="n">
-        <v>3.324503168320578</v>
+        <v>2.314688794497746</v>
       </c>
       <c r="E20" t="n">
-        <v>2.8177064298194</v>
+        <v>1.672628809146611</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5067967385011781</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G20" t="n">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27228133667928</v>
+        <v>40.04498777483604</v>
       </c>
       <c r="I20" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="K20" t="n">
-        <v>318.2468347958524</v>
+        <v>187.9018851652596</v>
       </c>
       <c r="L20" t="n">
-        <v>13.74857349971025</v>
+        <v>13.58874464783808</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.5989055155321804</v>
+        <v>0.7182507760407667</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1420148680791291</v>
+        <v>0.04806320518534352</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9424510758604615</v>
+        <v>0.9585690323130098</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>296</v>
+        <v>545</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>137</v>
+        <v>2841</v>
       </c>
       <c r="B21" t="n">
-        <v>170</v>
+        <v>2924</v>
       </c>
       <c r="C21" t="n">
-        <v>227</v>
+        <v>3078</v>
       </c>
       <c r="D21" t="n">
-        <v>1.93279262801506</v>
+        <v>2.301045099178814</v>
       </c>
       <c r="E21" t="n">
-        <v>1.425995889513882</v>
+        <v>1.658985113827679</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5067967385011781</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G21" t="n">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="H21" t="n">
-        <v>48.62669112712442</v>
+        <v>43.6590634338495</v>
       </c>
       <c r="I21" t="n">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="J21" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="K21" t="n">
-        <v>146.8767089876407</v>
+        <v>387.5359352780914</v>
       </c>
       <c r="L21" t="n">
-        <v>7.993116613387678</v>
+        <v>13.50864718843767</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6713258463882738</v>
+        <v>0.6263179696444714</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.538961038961039</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06843090797648532</v>
+        <v>0.2739386189967072</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8897267628597706</v>
+        <v>0.9335029171292931</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>297</v>
+        <v>546</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>159</v>
+        <v>3078</v>
       </c>
       <c r="B22" t="n">
-        <v>203</v>
+        <v>3116</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>3209</v>
       </c>
       <c r="D22" t="n">
-        <v>3.065245414174544</v>
+        <v>2.305134558580497</v>
       </c>
       <c r="E22" t="n">
-        <v>2.535849351145315</v>
+        <v>1.663074573229362</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.529396063029229</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G22" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="H22" t="n">
-        <v>53.67034147488124</v>
+        <v>82.85195702491092</v>
       </c>
       <c r="I22" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K22" t="n">
-        <v>209.9214407009135</v>
+        <v>225.4023643209053</v>
       </c>
       <c r="L22" t="n">
-        <v>17.42639903753569</v>
+        <v>13.53265500309045</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7550963942214086</v>
+        <v>0.7833092293482051</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="R22" t="n">
-        <v>0.459139571235315</v>
+        <v>0.1345681107600429</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8787282872220469</v>
+        <v>0.8925774558113453</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>298</v>
+        <v>547</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>259</v>
+        <v>3209</v>
       </c>
       <c r="B23" t="n">
-        <v>307</v>
+        <v>3247</v>
       </c>
       <c r="C23" t="n">
-        <v>506</v>
+        <v>3530</v>
       </c>
       <c r="D23" t="n">
-        <v>4.03838924642327</v>
+        <v>1.75532284081152</v>
       </c>
       <c r="E23" t="n">
-        <v>3.508993183394041</v>
+        <v>1.113262855460385</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.529396063029229</v>
+        <v>-0.642059985351135</v>
       </c>
       <c r="G23" t="n">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="H23" t="n">
-        <v>167.5057360791016</v>
+        <v>154.1231594261967</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J23" t="n">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="K23" t="n">
-        <v>571.5391835839946</v>
+        <v>448.1644904539878</v>
       </c>
       <c r="L23" t="n">
-        <v>22.9588737500865</v>
+        <v>10.3048988334871</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8732164687091796</v>
+        <v>0.7082589270223091</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2412060301507538</v>
+        <v>0.1342756183745583</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1756830127168493</v>
+        <v>0.06311298278825907</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9561444487403985</v>
+        <v>0.7786290102414031</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>299</v>
+        <v>548</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,73 +2449,73 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>506</v>
+        <v>977</v>
       </c>
       <c r="B24" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.304946218337921</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.859386817087629</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.4455594012502923</v>
+      </c>
+      <c r="G24" t="n">
+        <v>178</v>
+      </c>
+      <c r="H24" t="n">
+        <v>112.6468188174312</v>
+      </c>
+      <c r="I24" t="n">
+        <v>41</v>
+      </c>
+      <c r="J24" t="n">
+        <v>137</v>
+      </c>
+      <c r="K24" t="n">
+        <v>549.7144445543342</v>
+      </c>
+      <c r="L24" t="n">
+        <v>12.34911089060413</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9225891315922732</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.2992700729927008</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.2495759759157136</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9322927216514141</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>n9</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>549</v>
-      </c>
-      <c r="C24" t="n">
-        <v>603</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.770110076787659</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.24071401375843</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.529396063029229</v>
-      </c>
-      <c r="G24" t="n">
-        <v>97</v>
-      </c>
-      <c r="H24" t="n">
-        <v>138.984543675803</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>54</v>
-      </c>
-      <c r="K24" t="n">
-        <v>267.0323266314189</v>
-      </c>
-      <c r="L24" t="n">
-        <v>21.433664759671</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0.7319749806340364</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.7962962962962963</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.2699762024669384</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.9638536387945971</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>n12</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
-        <v>300</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="C25" t="n">
-        <v>96</v>
+        <v>598</v>
       </c>
       <c r="D25" t="n">
-        <v>2.605986792983335</v>
+        <v>2.525870097100722</v>
       </c>
       <c r="E25" t="n">
-        <v>2.09825928390084</v>
+        <v>1.894159511461269</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.507727509082495</v>
+        <v>-0.6317105856394525</v>
       </c>
       <c r="G25" t="n">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="H25" t="n">
-        <v>22.50482775413062</v>
+        <v>22.5113780467459</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="K25" t="n">
-        <v>197.2010938368717</v>
+        <v>252.2754277583129</v>
       </c>
       <c r="L25" t="n">
-        <v>9.120597543206793</v>
+        <v>10.31186454290642</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.738020696596724</v>
+        <v>0.8056565512316248</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1566265060240964</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1622892990036811</v>
+        <v>0.3967572830422686</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6599390976672275</v>
+        <v>0.9391454502500914</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>596</v>
+        <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>755</v>
+        <v>2042</v>
       </c>
       <c r="C26" t="n">
-        <v>1082</v>
+        <v>2224</v>
       </c>
       <c r="D26" t="n">
-        <v>4.60950106547175</v>
+        <v>4.255490231093923</v>
       </c>
       <c r="E26" t="n">
-        <v>4.101773556389254</v>
+        <v>3.62377964545447</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.507727509082495</v>
+        <v>-0.6317105856394525</v>
       </c>
       <c r="G26" t="n">
-        <v>486</v>
+        <v>212</v>
       </c>
       <c r="H26" t="n">
-        <v>117.8821956429548</v>
+        <v>111.894021108038</v>
       </c>
       <c r="I26" t="n">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="K26" t="n">
-        <v>698.7177603120664</v>
+        <v>482.7601946063873</v>
       </c>
       <c r="L26" t="n">
-        <v>16.13262362125087</v>
+        <v>17.37303865193675</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.6393793137493829</v>
+        <v>0.9026274428917911</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4862385321100918</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6742538345028686</v>
+        <v>0.2425053332285277</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8786553320111519</v>
+        <v>0.9948483759643739</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>302</v>
+        <v>551</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1259</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1290</v>
+        <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>1384</v>
+        <v>132</v>
       </c>
       <c r="D27" t="n">
-        <v>2.929853582025857</v>
+        <v>3.573628501558256</v>
       </c>
       <c r="E27" t="n">
-        <v>2.395153488902936</v>
+        <v>3.059265232687474</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.5347000931229209</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G27" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H27" t="n">
-        <v>39.6516540566945</v>
+        <v>29.35874532574216</v>
       </c>
       <c r="I27" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J27" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K27" t="n">
-        <v>284.8059897470447</v>
+        <v>315.0311577478662</v>
       </c>
       <c r="L27" t="n">
-        <v>7.916173898215678</v>
+        <v>13.99155160893724</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8035033325136661</v>
+        <v>0.5387846527786461</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3297872340425532</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1725215177211873</v>
+        <v>0.1532122284949639</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8653928189403315</v>
+        <v>0.8496089007877679</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>303</v>
+        <v>552</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="C28" t="n">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D28" t="n">
-        <v>1.877809904258827</v>
+        <v>1.923873049611907</v>
       </c>
       <c r="E28" t="n">
-        <v>1.212727747073192</v>
+        <v>1.409509780741125</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6650821571856359</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G28" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="H28" t="n">
-        <v>21.98433933275284</v>
+        <v>59.65780814159643</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J28" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="K28" t="n">
-        <v>57.11566569444452</v>
+        <v>160.1519253210589</v>
       </c>
       <c r="L28" t="n">
-        <v>6.725594796454184</v>
+        <v>7.532391531730587</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8867670916139676</v>
+        <v>0.7019955776333542</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2418579250386222</v>
+        <v>0.1098482960472516</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9477246040995477</v>
+        <v>0.9032206594940164</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>304</v>
+        <v>553</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>476</v>
+        <v>231</v>
       </c>
       <c r="B29" t="n">
-        <v>501</v>
+        <v>267</v>
       </c>
       <c r="C29" t="n">
-        <v>596</v>
+        <v>316</v>
       </c>
       <c r="D29" t="n">
-        <v>1.201944842982621</v>
+        <v>4.096230995846985</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6545078107322431</v>
+        <v>3.581867726976203</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5474370322503781</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G29" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="H29" t="n">
-        <v>19.59188186823462</v>
+        <v>137.3255223359637</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K29" t="n">
-        <v>95.45749061415427</v>
+        <v>259.3169425010976</v>
       </c>
       <c r="L29" t="n">
-        <v>6.33616516043815</v>
+        <v>16.03765678372296</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.8221886647744968</v>
+        <v>0.7490434625132049</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2532115247656716</v>
+        <v>0.3331129990926022</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7234228170933634</v>
+        <v>0.9908528266857833</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>305</v>
+        <v>554</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>702</v>
+        <v>407</v>
       </c>
       <c r="B30" t="n">
-        <v>732</v>
+        <v>432</v>
       </c>
       <c r="C30" t="n">
-        <v>864</v>
+        <v>569</v>
       </c>
       <c r="D30" t="n">
-        <v>2.465547892732972</v>
+        <v>2.029963778723523</v>
       </c>
       <c r="E30" t="n">
-        <v>1.918110860482594</v>
+        <v>1.515600509852741</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5474370322503781</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G30" t="n">
         <v>162</v>
       </c>
       <c r="H30" t="n">
-        <v>72.69521974629788</v>
+        <v>72.83360503920392</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K30" t="n">
-        <v>246.5000586331962</v>
+        <v>255.1801798012211</v>
       </c>
       <c r="L30" t="n">
-        <v>12.9973673505351</v>
+        <v>7.947760367900239</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.9293822437507138</v>
+        <v>0.7592866608437575</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.1824817518248175</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2263098099337613</v>
+        <v>0.09894981871843748</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9065652126975031</v>
+        <v>0.7327896114805577</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>306</v>
+        <v>555</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>946</v>
+        <v>3106</v>
       </c>
       <c r="B31" t="n">
-        <v>994</v>
+        <v>3134</v>
       </c>
       <c r="C31" t="n">
-        <v>1141</v>
+        <v>3185</v>
       </c>
       <c r="D31" t="n">
-        <v>4.390899027671415</v>
+        <v>1.521760444353264</v>
       </c>
       <c r="E31" t="n">
-        <v>3.843461995421037</v>
+        <v>1.007397175482482</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5474370322503781</v>
+        <v>-0.5143632688707819</v>
       </c>
       <c r="G31" t="n">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2766956188392</v>
+        <v>49.31526563912303</v>
       </c>
       <c r="I31" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J31" t="n">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K31" t="n">
-        <v>537.7084897585103</v>
+        <v>70.51690995629232</v>
       </c>
       <c r="L31" t="n">
-        <v>23.147036741798</v>
+        <v>5.958031111606542</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7829423205804893</v>
+        <v>0.7985247592757023</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1164817887956669</v>
+        <v>0.1884753231772402</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8409171910382847</v>
+        <v>0.9762198299056232</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>307</v>
+        <v>556</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1141</v>
+        <v>264</v>
       </c>
       <c r="B32" t="n">
-        <v>1280</v>
+        <v>300</v>
       </c>
       <c r="C32" t="n">
-        <v>1539</v>
+        <v>375</v>
       </c>
       <c r="D32" t="n">
-        <v>3.159810047047435</v>
+        <v>4.130083369905956</v>
       </c>
       <c r="E32" t="n">
-        <v>2.612373014797056</v>
+        <v>3.598063673729264</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5474370322503781</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G32" t="n">
-        <v>398</v>
+        <v>111</v>
       </c>
       <c r="H32" t="n">
-        <v>96.39850404830509</v>
+        <v>149.390077341078</v>
       </c>
       <c r="I32" t="n">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>667.5646495618222</v>
+        <v>334.4009206417339</v>
       </c>
       <c r="L32" t="n">
-        <v>16.65723552174171</v>
+        <v>21.56265559968397</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.4827414662105525</v>
+        <v>0.8140922077085387</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.5366795366795367</v>
+        <v>0.48</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1720755295890758</v>
+        <v>0.2348071549797187</v>
       </c>
       <c r="S32" t="n">
-        <v>0.274034889550029</v>
+        <v>0.9319685059571337</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>308</v>
+        <v>557</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1030</v>
+        <v>375</v>
       </c>
       <c r="B33" t="n">
-        <v>1078</v>
+        <v>393</v>
       </c>
       <c r="C33" t="n">
-        <v>1258</v>
+        <v>468</v>
       </c>
       <c r="D33" t="n">
-        <v>3.717399368271741</v>
+        <v>2.444271206686613</v>
       </c>
       <c r="E33" t="n">
-        <v>3.287335510090375</v>
+        <v>1.912251510509922</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.4300638581813659</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G33" t="n">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="H33" t="n">
-        <v>247.7291599859509</v>
+        <v>24.31808939972206</v>
       </c>
       <c r="I33" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="K33" t="n">
-        <v>568.651505837055</v>
+        <v>183.4184341634647</v>
       </c>
       <c r="L33" t="n">
-        <v>11.5126280578698</v>
+        <v>12.76123833384204</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8138555028458148</v>
+        <v>0.8599725808900487</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.24</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2547360380592215</v>
+        <v>0.1849111695149281</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8451107112555334</v>
+        <v>0.876888683721721</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>309</v>
+        <v>558</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,73 +3309,73 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1233</v>
+        <v>509</v>
       </c>
       <c r="B34" t="n">
-        <v>1334</v>
+        <v>544</v>
       </c>
       <c r="C34" t="n">
-        <v>1685</v>
+        <v>609</v>
       </c>
       <c r="D34" t="n">
-        <v>3.213235759995167</v>
+        <v>3.846914718371169</v>
       </c>
       <c r="E34" t="n">
-        <v>2.743579075618865</v>
+        <v>3.314895022194477</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.469656684376302</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G34" t="n">
-        <v>452</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>123.737272815757</v>
+        <v>75.61615594451484</v>
       </c>
       <c r="I34" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="J34" t="n">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="K34" t="n">
-        <v>630.0162055907966</v>
+        <v>278.385842651451</v>
       </c>
       <c r="L34" t="n">
-        <v>8.204098824541575</v>
+        <v>20.08426701456189</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1471), 'value': np.float64(1.6341790624602395), 'amplitude': np.float64(2.1038357468365416), 'start_idx': np.int64(1464), 'end_idx': np.int64(1494), 'duration': np.float64(30.0), 'fwhm': np.float64(47.287476192398344), 'rise_time': np.float64(7.0), 'decay_time': np.float64(23.0), 'auc': np.float64(51.27428582060887)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.6653536455737754</v>
+        <v>0.8046405897110738</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2877492877492878</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4304602489267703</v>
+        <v>0.3191180726127152</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4747873428296038</v>
+        <v>0.9046780240430659</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>310</v>
+        <v>559</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3253</v>
+        <v>609</v>
       </c>
       <c r="B35" t="n">
-        <v>3290</v>
+        <v>638</v>
       </c>
       <c r="C35" t="n">
-        <v>3337</v>
+        <v>710</v>
       </c>
       <c r="D35" t="n">
-        <v>2.673274795912805</v>
+        <v>3.680504030983523</v>
       </c>
       <c r="E35" t="n">
-        <v>2.274767905686225</v>
+        <v>3.148484334806832</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3985068902265802</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G35" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H35" t="n">
-        <v>38.10712566558777</v>
+        <v>26.3166385367183</v>
       </c>
       <c r="I35" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J35" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K35" t="n">
-        <v>146.9402476712047</v>
+        <v>265.2670367828174</v>
       </c>
       <c r="L35" t="n">
-        <v>6.064240399818722</v>
+        <v>19.21545735168862</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.792512469482649</v>
+        <v>0.7954034063568129</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3817141973555552</v>
+        <v>0.1685923761085492</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9741866944751977</v>
+        <v>0.8322499114955351</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>311</v>
+        <v>560</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3337</v>
+        <v>781</v>
       </c>
       <c r="B36" t="n">
-        <v>3381</v>
+        <v>803</v>
       </c>
       <c r="C36" t="n">
-        <v>3530</v>
+        <v>912</v>
       </c>
       <c r="D36" t="n">
-        <v>4.341082282449425</v>
+        <v>3.161799052584352</v>
       </c>
       <c r="E36" t="n">
-        <v>3.942575392222845</v>
+        <v>2.651369942029803</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3985068902265802</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G36" t="n">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="H36" t="n">
-        <v>65.18044639550953</v>
+        <v>18.68905816136953</v>
       </c>
       <c r="I36" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="K36" t="n">
-        <v>423.6499473064245</v>
+        <v>294.8483777800328</v>
       </c>
       <c r="L36" t="n">
-        <v>9.847609604675199</v>
+        <v>10.36530015727529</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.9481595728059335</v>
+        <v>0.7712921659710578</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2953020134228188</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2730498947468041</v>
+        <v>0.2741966882820233</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9003119804716657</v>
+        <v>0.9513471070538262</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>312</v>
+        <v>561</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>985</v>
+        <v>912</v>
       </c>
       <c r="B37" t="n">
-        <v>1025</v>
+        <v>931</v>
       </c>
       <c r="C37" t="n">
-        <v>1158</v>
+        <v>1069</v>
       </c>
       <c r="D37" t="n">
-        <v>3.907999885835665</v>
+        <v>1.623118725198889</v>
       </c>
       <c r="E37" t="n">
-        <v>3.454461633353121</v>
+        <v>1.112689614644341</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.453538252482544</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G37" t="n">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H37" t="n">
-        <v>50.43927649962609</v>
+        <v>24.07194289511369</v>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K37" t="n">
-        <v>283.8493545390289</v>
+        <v>124.9352870580854</v>
       </c>
       <c r="L37" t="n">
-        <v>10.16159252566969</v>
+        <v>5.32105693555352</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9320896122625892</v>
+        <v>0.7548490023278652</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3007518796992481</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3468495670415983</v>
+        <v>0.4444923154126008</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9437402472665652</v>
+        <v>0.7087112418752757</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>313</v>
+        <v>562</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>820</v>
+        <v>1069</v>
       </c>
       <c r="B38" t="n">
-        <v>861</v>
+        <v>1126</v>
       </c>
       <c r="C38" t="n">
-        <v>1169</v>
+        <v>1354</v>
       </c>
       <c r="D38" t="n">
-        <v>3.200226295037933</v>
+        <v>3.81186493128148</v>
       </c>
       <c r="E38" t="n">
-        <v>2.641321108658862</v>
+        <v>3.301435820726931</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5589051863790712</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G38" t="n">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="H38" t="n">
-        <v>47.32743200732625</v>
+        <v>75.36281009023105</v>
       </c>
       <c r="I38" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J38" t="n">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="K38" t="n">
-        <v>373.037504996081</v>
+        <v>445.6822031362523</v>
       </c>
       <c r="L38" t="n">
-        <v>10.10482933403133</v>
+        <v>12.49640584825559</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7664751748112549</v>
+        <v>0.7799300576059024</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1331168831168831</v>
+        <v>0.25</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4629459989641942</v>
+        <v>0.401551853607659</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7991012288064494</v>
+        <v>0.7712431139785386</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>314</v>
+        <v>563</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1839</v>
+        <v>1252</v>
       </c>
       <c r="B39" t="n">
-        <v>1861</v>
+        <v>1273</v>
       </c>
       <c r="C39" t="n">
-        <v>1956</v>
+        <v>1377</v>
       </c>
       <c r="D39" t="n">
-        <v>1.649002610753798</v>
+        <v>2.945439592025124</v>
       </c>
       <c r="E39" t="n">
-        <v>1.12448459956896</v>
+        <v>2.405636692458279</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5245180111848382</v>
+        <v>-0.539802899566844</v>
       </c>
       <c r="G39" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H39" t="n">
-        <v>22.17364566938454</v>
+        <v>53.45031429716892</v>
       </c>
       <c r="I39" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K39" t="n">
-        <v>132.8502391978401</v>
+        <v>293.3391280426263</v>
       </c>
       <c r="L39" t="n">
-        <v>5.979623822450462</v>
+        <v>7.582570784207206</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.6978142492248948</v>
+        <v>0.7815313305305809</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2315789473684211</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="R39" t="n">
-        <v>0.148839600798235</v>
+        <v>0.0969071080997103</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4738669871434725</v>
+        <v>0.7720024659126753</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>315</v>
+        <v>564</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1956</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>2038</v>
+        <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>2223</v>
+        <v>48</v>
       </c>
       <c r="D40" t="n">
-        <v>4.245919166550113</v>
+        <v>1.828149728326042</v>
       </c>
       <c r="E40" t="n">
-        <v>3.721401155365275</v>
+        <v>1.182638189939626</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5245180111848382</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G40" t="n">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="H40" t="n">
-        <v>128.426252522074</v>
+        <v>21.4374995288902</v>
       </c>
       <c r="I40" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J40" t="n">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="K40" t="n">
-        <v>499.7309274518432</v>
+        <v>56.91711784090381</v>
       </c>
       <c r="L40" t="n">
-        <v>15.39657926005111</v>
+        <v>6.188763193081753</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.8776911831271498</v>
+        <v>0.9001171420899143</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4432432432432433</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3916621091310337</v>
+        <v>0.3380910533721146</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9340759894611557</v>
+        <v>0.9384038425165715</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>316</v>
+        <v>565</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1961</v>
+        <v>234</v>
       </c>
       <c r="B41" t="n">
-        <v>2003</v>
+        <v>244</v>
       </c>
       <c r="C41" t="n">
-        <v>2201</v>
+        <v>275</v>
       </c>
       <c r="D41" t="n">
-        <v>4.675587951454577</v>
+        <v>2.564320750475144</v>
       </c>
       <c r="E41" t="n">
-        <v>4.203173766726184</v>
+        <v>1.918809212088728</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4724141847283925</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G41" t="n">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="H41" t="n">
-        <v>210.1563665349784</v>
+        <v>11.57871867418646</v>
       </c>
       <c r="I41" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="K41" t="n">
-        <v>735.6779090067778</v>
+        <v>93.99407980990428</v>
       </c>
       <c r="L41" t="n">
-        <v>16.24021360162147</v>
+        <v>8.68089392783369</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8681986092678631</v>
+        <v>0.7370566501501291</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3290179268586124</v>
+        <v>0.02514931609373777</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8683288909274059</v>
+        <v>0.9356415559156388</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>317</v>
+        <v>566</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,73 +3997,73 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2201</v>
+        <v>365</v>
       </c>
       <c r="B42" t="n">
-        <v>2225</v>
+        <v>411</v>
       </c>
       <c r="C42" t="n">
-        <v>2923</v>
+        <v>507</v>
       </c>
       <c r="D42" t="n">
-        <v>2.450026620241437</v>
+        <v>2.493256073537125</v>
       </c>
       <c r="E42" t="n">
-        <v>1.977612435513044</v>
+        <v>1.84774453515071</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4724141847283925</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G42" t="n">
-        <v>722</v>
+        <v>142</v>
       </c>
       <c r="H42" t="n">
-        <v>33.6634065431781</v>
+        <v>34.24974365428437</v>
       </c>
       <c r="I42" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J42" t="n">
-        <v>698</v>
+        <v>96</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0376778617178</v>
+        <v>247.3733841978912</v>
       </c>
       <c r="L42" t="n">
-        <v>8.509936302235809</v>
+        <v>8.440321479008634</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2700), 'value': np.float64(0.7048718136600686), 'amplitude': np.float64(1.1772859983884612), 'start_idx': np.int64(2681), 'end_idx': np.int64(2716), 'duration': np.float64(35.0), 'fwhm': np.float64(128.3166343226244), 'rise_time': np.float64(19.0), 'decay_time': np.float64(16.0), 'auc': np.float64(36.56977019517342)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.6101315151106187</v>
+        <v>0.6963128283557483</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03438395415472779</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6062578034891207</v>
+        <v>0.2122817845192466</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3127129128748306</v>
+        <v>0.7237674559852978</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>318</v>
+        <v>567</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1414</v>
+        <v>696</v>
       </c>
       <c r="B43" t="n">
-        <v>1487</v>
+        <v>778</v>
       </c>
       <c r="C43" t="n">
-        <v>1655</v>
+        <v>939</v>
       </c>
       <c r="D43" t="n">
-        <v>1.792395456546904</v>
+        <v>2.742072718063547</v>
       </c>
       <c r="E43" t="n">
-        <v>1.235962065017719</v>
+        <v>2.09656117967713</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5564333915291853</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G43" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H43" t="n">
-        <v>85.5606593310165</v>
+        <v>133.0562403570758</v>
       </c>
       <c r="I43" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J43" t="n">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K43" t="n">
-        <v>209.2474324993681</v>
+        <v>393.2991028315603</v>
       </c>
       <c r="L43" t="n">
-        <v>8.70973925781186</v>
+        <v>9.282630655118194</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7479633184566712</v>
+        <v>0.696432056883042</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4345238095238095</v>
+        <v>0.5093167701863354</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4420689938759964</v>
+        <v>0.310872399061705</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8038568610674147</v>
+        <v>0.8809953665001217</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>319</v>
+        <v>568</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1981</v>
+        <v>1247</v>
       </c>
       <c r="B44" t="n">
-        <v>2017</v>
+        <v>1274</v>
       </c>
       <c r="C44" t="n">
-        <v>2131</v>
+        <v>1321</v>
       </c>
       <c r="D44" t="n">
-        <v>3.547592279539145</v>
+        <v>1.370067919859899</v>
       </c>
       <c r="E44" t="n">
-        <v>2.99115888800996</v>
+        <v>0.7245563814734824</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5564333915291853</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G44" t="n">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="H44" t="n">
-        <v>36.76530716242019</v>
+        <v>118.1795313846192</v>
       </c>
       <c r="I44" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J44" t="n">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="K44" t="n">
-        <v>411.334186729319</v>
+        <v>67.0411136172031</v>
       </c>
       <c r="L44" t="n">
-        <v>17.23872019143549</v>
+        <v>4.638036908615192</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.896066225321025</v>
+        <v>0.744473422016342</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2350998160659614</v>
+        <v>0.4682085590839498</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9244589468015505</v>
+        <v>0.7756475123596933</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>320</v>
+        <v>569</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1505</v>
+        <v>3343</v>
       </c>
       <c r="B45" t="n">
-        <v>1546</v>
+        <v>3374</v>
       </c>
       <c r="C45" t="n">
-        <v>1600</v>
+        <v>3454</v>
       </c>
       <c r="D45" t="n">
-        <v>2.591862566544921</v>
+        <v>3.01747191333463</v>
       </c>
       <c r="E45" t="n">
-        <v>2.014332146502385</v>
+        <v>2.371960374948214</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5775304200425361</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G45" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H45" t="n">
-        <v>34.909887790124</v>
+        <v>93.17873288038436</v>
       </c>
       <c r="I45" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>156.1393624154385</v>
+        <v>206.3551340409408</v>
       </c>
       <c r="L45" t="n">
-        <v>6.46867636632137</v>
+        <v>10.21492869213874</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8165244697596448</v>
+        <v>0.8522974679237976</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.3875</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3012167305284124</v>
+        <v>0.2668639532329011</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9854781440050984</v>
+        <v>0.8735968334005089</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>321</v>
+        <v>570</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,73 +4341,73 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1600</v>
+        <v>479</v>
       </c>
       <c r="B46" t="n">
-        <v>1640</v>
+        <v>495</v>
       </c>
       <c r="C46" t="n">
-        <v>2008</v>
+        <v>525</v>
       </c>
       <c r="D46" t="n">
-        <v>2.768868358085456</v>
+        <v>1.237150055928833</v>
       </c>
       <c r="E46" t="n">
-        <v>2.19133793804292</v>
+        <v>0.6729744681851125</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5775304200425361</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G46" t="n">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="H46" t="n">
-        <v>416.9006164777115</v>
+        <v>29.84402576236721</v>
       </c>
       <c r="I46" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>368</v>
+        <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>630.0977745509683</v>
+        <v>46.10021040202625</v>
       </c>
       <c r="L46" t="n">
-        <v>6.910440985796003</v>
+        <v>6.156743741485792</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1711), 'value': np.float64(1.596227173815862), 'amplitude': np.float64(2.173757593858398), 'start_idx': np.int64(1686), 'end_idx': np.int64(1723), 'duration': np.float64(37.0), 'fwhm': np.float64(42.2204787104547), 'rise_time': np.float64(25.0), 'decay_time': np.float64(12.0), 'auc': np.float64(68.36643117229686)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7454318426761647</v>
+        <v>0.7011387993010889</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.108695652173913</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3049160549850969</v>
+        <v>0.1248522377648418</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5402856200108648</v>
+        <v>0.783483663413996</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2114</v>
+        <v>525</v>
       </c>
       <c r="B47" t="n">
-        <v>2179</v>
+        <v>548</v>
       </c>
       <c r="C47" t="n">
-        <v>2361</v>
+        <v>612</v>
       </c>
       <c r="D47" t="n">
-        <v>2.674113254439709</v>
+        <v>1.190941134471948</v>
       </c>
       <c r="E47" t="n">
-        <v>2.096582834397172</v>
+        <v>0.6267655467282269</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5775304200425361</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G47" t="n">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="H47" t="n">
-        <v>73.31919396511103</v>
+        <v>26.62166739654594</v>
       </c>
       <c r="I47" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="J47" t="n">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K47" t="n">
-        <v>427.8886112869216</v>
+        <v>54.88130044176395</v>
       </c>
       <c r="L47" t="n">
-        <v>6.673954642942317</v>
+        <v>5.926782560449516</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.5893570718035419</v>
+        <v>0.8113652264813139</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.359375</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2013534270371825</v>
+        <v>0.4510169350150526</v>
       </c>
       <c r="S47" t="n">
-        <v>0.294334994970807</v>
+        <v>0.4971828207965585</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>323</v>
+        <v>572</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2746</v>
+        <v>707</v>
       </c>
       <c r="B48" t="n">
-        <v>2793</v>
+        <v>732</v>
       </c>
       <c r="C48" t="n">
-        <v>2878</v>
+        <v>870</v>
       </c>
       <c r="D48" t="n">
-        <v>1.798898886524356</v>
+        <v>2.65616044515899</v>
       </c>
       <c r="E48" t="n">
-        <v>1.217439780160209</v>
+        <v>2.09198485741527</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5814591063641478</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G48" t="n">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="H48" t="n">
-        <v>28.22348908820686</v>
+        <v>65.86534197603794</v>
       </c>
       <c r="I48" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="K48" t="n">
-        <v>168.6147437379905</v>
+        <v>246.1525464626055</v>
       </c>
       <c r="L48" t="n">
-        <v>7.804086955029174</v>
+        <v>13.21852520536559</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.6430719365015771</v>
+        <v>0.90925051703917</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.5529411764705883</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2363068938776534</v>
+        <v>0.2735649367426958</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6893128620304669</v>
+        <v>0.8516614110666993</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>324</v>
+        <v>573</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2878</v>
+        <v>1027</v>
       </c>
       <c r="B49" t="n">
-        <v>2979</v>
+        <v>1051</v>
       </c>
       <c r="C49" t="n">
-        <v>3158</v>
+        <v>1139</v>
       </c>
       <c r="D49" t="n">
-        <v>3.648126055554895</v>
+        <v>3.317059997980862</v>
       </c>
       <c r="E49" t="n">
-        <v>3.066666949190747</v>
+        <v>2.752884410237141</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5814591063641478</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G49" t="n">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="H49" t="n">
-        <v>89.24312806322814</v>
+        <v>24.93457963278229</v>
       </c>
       <c r="I49" t="n">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="J49" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="K49" t="n">
-        <v>530.9284323870078</v>
+        <v>274.0972436244435</v>
       </c>
       <c r="L49" t="n">
-        <v>15.82651096942158</v>
+        <v>16.50752734870856</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.6680535207963924</v>
+        <v>0.89057107484771</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.5642458100558659</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1523295644038504</v>
+        <v>0.2485365545408771</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9821716250555443</v>
+        <v>0.882410351429415</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>325</v>
+        <v>574</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2949</v>
+        <v>1036</v>
       </c>
       <c r="B50" t="n">
-        <v>3122</v>
+        <v>1074</v>
       </c>
       <c r="C50" t="n">
-        <v>3381</v>
+        <v>1260</v>
       </c>
       <c r="D50" t="n">
-        <v>4.894388442221667</v>
+        <v>3.903719169467402</v>
       </c>
       <c r="E50" t="n">
-        <v>4.417820897901296</v>
+        <v>3.403103516637999</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.4765675443203706</v>
+        <v>-0.5006156528294028</v>
       </c>
       <c r="G50" t="n">
-        <v>432</v>
+        <v>224</v>
       </c>
       <c r="H50" t="n">
-        <v>120.7745677582507</v>
+        <v>33.73448868032006</v>
       </c>
       <c r="I50" t="n">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="J50" t="n">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="K50" t="n">
-        <v>838.9262618577052</v>
+        <v>569.6308567776565</v>
       </c>
       <c r="L50" t="n">
-        <v>23.8359028524909</v>
+        <v>11.7293634050488</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.5957091756935851</v>
+        <v>0.8140566214014777</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.667953667953668</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R50" t="n">
-        <v>1.542934987624837</v>
+        <v>0.2425786696416579</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8502937034877192</v>
+        <v>0.8461390318284536</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>326</v>
+        <v>575</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,85 +4771,3009 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3395</v>
+        <v>2238</v>
       </c>
       <c r="B51" t="n">
-        <v>3431</v>
+        <v>2256</v>
       </c>
       <c r="C51" t="n">
+        <v>2305</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.627092700263288</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.132307377897471</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.4947853223658176</v>
+      </c>
+      <c r="G51" t="n">
+        <v>67</v>
+      </c>
+      <c r="H51" t="n">
+        <v>34.18590855961838</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>93.08923490016319</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.384125691886928</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8876251284828105</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2485401921266116</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8550539618967348</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>576</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3257</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3288</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3344</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.903238458381197</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.500259979960525</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.4029784784206714</v>
+      </c>
+      <c r="G52" t="n">
+        <v>87</v>
+      </c>
+      <c r="H52" t="n">
+        <v>37.16598476384206</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>56</v>
+      </c>
+      <c r="K52" t="n">
+        <v>156.2202377282612</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.44665224388156</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8546539275456759</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3179738592755668</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9474764666989087</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>577</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3344</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3373</v>
+      </c>
+      <c r="C53" t="n">
         <v>3530</v>
       </c>
-      <c r="D51" t="n">
-        <v>4.436116680566931</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.070283193714653</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.3658334868522777</v>
-      </c>
-      <c r="G51" t="n">
-        <v>135</v>
-      </c>
-      <c r="H51" t="n">
-        <v>86.91567482922937</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="D53" t="n">
+        <v>4.669424475675235</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.266445997254563</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.4029784784206714</v>
+      </c>
+      <c r="G53" t="n">
+        <v>186</v>
+      </c>
+      <c r="H53" t="n">
+        <v>56.79925965231996</v>
+      </c>
+      <c r="I53" t="n">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>157</v>
+      </c>
+      <c r="K53" t="n">
+        <v>413.6151597349105</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10.36847513742696</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.889154079763832</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.1847133757961783</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2262848685874936</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.8861914074269864</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>578</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>987</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1136</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.985016474188782</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.515335055517151</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.4696814186716316</v>
+      </c>
+      <c r="G54" t="n">
+        <v>149</v>
+      </c>
+      <c r="H54" t="n">
+        <v>47.56502730385091</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>114</v>
+      </c>
+      <c r="K54" t="n">
+        <v>279.778985119654</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10.11438341364799</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9229428844016767</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3070175438596491</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2840998955524756</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.8548258830854654</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>579</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1441</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1586</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.985626756173513</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.518178944070337</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.4674478121031762</v>
+      </c>
+      <c r="G55" t="n">
+        <v>210</v>
+      </c>
+      <c r="H55" t="n">
+        <v>84.02403888927279</v>
+      </c>
+      <c r="I55" t="n">
+        <v>65</v>
+      </c>
+      <c r="J55" t="n">
+        <v>145</v>
+      </c>
+      <c r="K55" t="n">
+        <v>424.6873561920376</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.752771592385671</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6996039567852084</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.4482758620689655</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2221312964195201</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8000192895263754</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>580</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>825</v>
+      </c>
+      <c r="B56" t="n">
+        <v>858</v>
+      </c>
+      <c r="C56" t="n">
+        <v>926</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.232043082373535</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.691217648198991</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5408254341745437</v>
+      </c>
+      <c r="G56" t="n">
+        <v>101</v>
+      </c>
+      <c r="H56" t="n">
+        <v>45.84256871559512</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33</v>
+      </c>
+      <c r="J56" t="n">
+        <v>68</v>
+      </c>
+      <c r="K56" t="n">
+        <v>183.4099402254592</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10.10599449905099</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8647805414928681</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.4852941176470588</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.237726329499663</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.920285091508674</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>581</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>926</v>
+      </c>
+      <c r="B57" t="n">
+        <v>957</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1178</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.484812507217218</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9439870730426745</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5408254341745437</v>
+      </c>
+      <c r="G57" t="n">
+        <v>252</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20.16471384846409</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>221</v>
+      </c>
+      <c r="K57" t="n">
+        <v>185.8252363257498</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.642731129388173</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1045), 'value': np.float64(0.6232124973412384), 'amplitude': np.float64(1.164037931515782), 'start_idx': np.int64(1019), 'end_idx': np.int64(1062), 'duration': np.float64(43.0), 'fwhm': np.float64(29.05237092810262), 'rise_time': np.float64(26.0), 'decay_time': np.float64(17.0), 'auc': np.float64(40.17590655474236)}]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7100231771390415</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.1402714932126697</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.3949308074013385</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5789391013852065</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>582</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>837</v>
+      </c>
+      <c r="B58" t="n">
+        <v>875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>942</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.587431940718305</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.15003061210808</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4374013286102243</v>
+      </c>
+      <c r="G58" t="n">
+        <v>105</v>
+      </c>
+      <c r="H58" t="n">
+        <v>49.08133284929295</v>
+      </c>
+      <c r="I58" t="n">
+        <v>38</v>
+      </c>
+      <c r="J58" t="n">
+        <v>67</v>
+      </c>
+      <c r="K58" t="n">
+        <v>84.92203550126106</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.366871385703176</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7826334420997629</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5671641791044776</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.4436935742585831</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.6896212607852696</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>583</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5.717944330928857</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5.280543002318632</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4374013286102243</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>134.8048772019156</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44</v>
+      </c>
+      <c r="J59" t="n">
+        <v>56</v>
+      </c>
+      <c r="K59" t="n">
+        <v>412.5363119161529</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22.93352880953206</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.7306216646483794</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.5356103139549032</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9429428923229701</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>584</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.509831870714901</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.072430542104676</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.4374013286102243</v>
+      </c>
+      <c r="G60" t="n">
+        <v>143</v>
+      </c>
+      <c r="H60" t="n">
+        <v>14.49934328154404</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>128</v>
+      </c>
+      <c r="K60" t="n">
+        <v>359.7566871271966</v>
+      </c>
+      <c r="L60" t="n">
+        <v>18.08803184279775</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7849976681362831</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1171875</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4563137559796905</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9516983684074478</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>585</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.435173226619329</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.911033667108031</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5241395595112982</v>
+      </c>
+      <c r="G61" t="n">
+        <v>138</v>
+      </c>
+      <c r="H61" t="n">
+        <v>12.70620773602241</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>126</v>
+      </c>
+      <c r="K61" t="n">
+        <v>160.8987639343102</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.533060305893139</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7321264997032702</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.4983337582816214</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.7569948347197483</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>586</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2090</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.546383476073492</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.064431520778522</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4819519552949694</v>
+      </c>
+      <c r="G62" t="n">
+        <v>126</v>
+      </c>
+      <c r="H62" t="n">
+        <v>207.3754854484321</v>
+      </c>
+      <c r="I62" t="n">
+        <v>53</v>
+      </c>
+      <c r="J62" t="n">
+        <v>73</v>
+      </c>
+      <c r="K62" t="n">
+        <v>439.0115865869587</v>
+      </c>
+      <c r="L62" t="n">
+        <v>15.31998968784487</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.6421863559928745</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.726027397260274</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2361401456297888</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9639728632939484</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>587</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2169</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2194</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.987668359922058</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.505716404627089</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4819519552949694</v>
+      </c>
+      <c r="G63" t="n">
+        <v>43</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12.74118693138189</v>
+      </c>
+      <c r="I63" t="n">
+        <v>18</v>
+      </c>
+      <c r="J63" t="n">
+        <v>25</v>
+      </c>
+      <c r="K63" t="n">
+        <v>103.7710599263279</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10.06757320529344</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7231518871569605</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.1439781790856297</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.9903658687006369</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>588</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2226</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.486347301618379</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.004395346323409</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4819519552949694</v>
+      </c>
+      <c r="G64" t="n">
+        <v>152</v>
+      </c>
+      <c r="H64" t="n">
+        <v>30.72183536095326</v>
+      </c>
+      <c r="I64" t="n">
+        <v>32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>120</v>
+      </c>
+      <c r="K64" t="n">
+        <v>241.5430052206538</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.378267082320958</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8586797549837548</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2980470742705802</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.799334075522106</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>589</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2374</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2555</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.363661989965576</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.881710034670607</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.4819519552949694</v>
+      </c>
+      <c r="G65" t="n">
+        <v>209</v>
+      </c>
+      <c r="H65" t="n">
+        <v>20.52858109378303</v>
+      </c>
+      <c r="I65" t="n">
+        <v>28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>181</v>
+      </c>
+      <c r="K65" t="n">
+        <v>157.0203091034412</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.595144191844879</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(2495), 'value': np.float64(0.5218209481697719), 'amplitude': np.float64(1.0037729034647414), 'start_idx': np.int64(2469), 'end_idx': np.int64(2514), 'duration': np.float64(45.0), 'fwhm': np.float64(32.78617476214231), 'rise_time': np.float64(26.0), 'decay_time': np.float64(19.0), 'auc': np.float64(35.84212701239561)}]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.6531920723007625</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1546961325966851</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3460718578523195</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.2832921453256386</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>590</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1852</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.040297327323197</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.475609236101003</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5646880912221937</v>
+      </c>
+      <c r="G66" t="n">
+        <v>89</v>
+      </c>
+      <c r="H66" t="n">
+        <v>36.00238596876466</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>61</v>
+      </c>
+      <c r="K66" t="n">
+        <v>201.0105021474774</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13.76610370819732</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.7733974808930351</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.07879081648773618</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9731418771228372</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>591</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2082</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3.730873357682216</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.166185266460023</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5646880912221937</v>
+      </c>
+      <c r="G67" t="n">
+        <v>100</v>
+      </c>
+      <c r="H67" t="n">
+        <v>375.376564722796</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>73</v>
+      </c>
+      <c r="K67" t="n">
+        <v>305.18697573427</v>
+      </c>
+      <c r="L67" t="n">
+        <v>16.89294961464274</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.748755514185802</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.1139442484339898</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.9125140252933597</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>592</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.373929926997478</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.809241835775285</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.5646880912221937</v>
+      </c>
+      <c r="G68" t="n">
+        <v>53</v>
+      </c>
+      <c r="H68" t="n">
+        <v>18.68783679893431</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>34</v>
+      </c>
+      <c r="K68" t="n">
+        <v>111.7868925580415</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10.74887159138912</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7398027179281497</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.08902174443337935</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.968327581518249</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>593</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2346</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2376</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.237493236608753</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.672805145386559</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5646880912221937</v>
+      </c>
+      <c r="G69" t="n">
+        <v>49</v>
+      </c>
+      <c r="H69" t="n">
+        <v>14.85612057576145</v>
+      </c>
+      <c r="I69" t="n">
+        <v>19</v>
+      </c>
+      <c r="J69" t="n">
+        <v>30</v>
+      </c>
+      <c r="K69" t="n">
+        <v>94.31369069523774</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10.13110252893099</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.6904492719294322</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.08344289845116584</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9762950333309991</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>594</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1510</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1596</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.664689344703836</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.102551925319395</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5621374193844411</v>
+      </c>
+      <c r="G70" t="n">
+        <v>86</v>
+      </c>
+      <c r="H70" t="n">
+        <v>36.61919267366079</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>54</v>
+      </c>
+      <c r="K70" t="n">
+        <v>146.9979980813635</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.448723024108354</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.853122057977593</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3734453146054506</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9938104360083034</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>595</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.224193328943004</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.662055909558563</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5621374193844411</v>
+      </c>
+      <c r="G71" t="n">
+        <v>336</v>
+      </c>
+      <c r="H71" t="n">
+        <v>30.62640903968963</v>
+      </c>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="n">
+        <v>309</v>
+      </c>
+      <c r="K71" t="n">
+        <v>458.6560855322574</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.382693768386391</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.6515878828683791</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.08737864077669903</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.1931283181491665</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5161762367697318</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>596</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2055</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2111</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.554274675454074</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.992137256069633</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5621374193844411</v>
+      </c>
+      <c r="G72" t="n">
+        <v>96</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25.44010434318466</v>
+      </c>
+      <c r="I72" t="n">
+        <v>40</v>
+      </c>
+      <c r="J72" t="n">
+        <v>56</v>
+      </c>
+      <c r="K72" t="n">
+        <v>150.2364875358816</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.181512281060411</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7655730229508428</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.6023304745205309</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9354739417493916</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>597</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2396</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2498</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.338948509729348</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.776811090344907</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.5621374193844411</v>
+      </c>
+      <c r="G73" t="n">
+        <v>140</v>
+      </c>
+      <c r="H73" t="n">
+        <v>34.40036557823942</v>
+      </c>
+      <c r="I73" t="n">
+        <v>38</v>
+      </c>
+      <c r="J73" t="n">
+        <v>102</v>
+      </c>
+      <c r="K73" t="n">
+        <v>157.0939436800796</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.660408834100688</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8236095392456229</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.437997875215511</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.7208129393917518</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>598</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2762</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2788</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2886</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.844144862748477</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.263887421873345</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.5802574408751324</v>
+      </c>
+      <c r="G74" t="n">
+        <v>124</v>
+      </c>
+      <c r="H74" t="n">
+        <v>31.15374943592951</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26</v>
+      </c>
+      <c r="J74" t="n">
+        <v>98</v>
+      </c>
+      <c r="K74" t="n">
+        <v>153.7839529352069</v>
+      </c>
+      <c r="L74" t="n">
+        <v>7.681567765590413</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8567049779723021</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2415260235442377</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.6800789948726111</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>599</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2886</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2973</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.731828222156717</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.151570781281585</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.5802574408751324</v>
+      </c>
+      <c r="G75" t="n">
+        <v>273</v>
+      </c>
+      <c r="H75" t="n">
+        <v>83.10492657509667</v>
+      </c>
+      <c r="I75" t="n">
+        <v>87</v>
+      </c>
+      <c r="J75" t="n">
+        <v>186</v>
+      </c>
+      <c r="K75" t="n">
+        <v>524.1725522473885</v>
+      </c>
+      <c r="L75" t="n">
+        <v>15.54449000026817</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7394574492130936</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.4677419354838709</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2167624230778781</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9673242651002526</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>600</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3159</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3255</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3376</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.474458147682366</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8942007068072336</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5802574408751324</v>
+      </c>
+      <c r="G76" t="n">
+        <v>217</v>
+      </c>
+      <c r="H76" t="n">
+        <v>96.73060741754989</v>
+      </c>
+      <c r="I76" t="n">
+        <v>96</v>
+      </c>
+      <c r="J76" t="n">
+        <v>121</v>
+      </c>
+      <c r="K76" t="n">
+        <v>256.4053188858969</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.141681387257583</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.5297342562668589</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.7933884297520661</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1678006581977444</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.7642578415110038</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>601</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2582</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2605</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2649</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.74384561159373</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.393705998217803</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.3501396133759265</v>
+      </c>
+      <c r="G77" t="n">
+        <v>67</v>
+      </c>
+      <c r="H77" t="n">
+        <v>48.55960658661979</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23</v>
+      </c>
+      <c r="J77" t="n">
+        <v>44</v>
+      </c>
+      <c r="K77" t="n">
+        <v>80.17957977727936</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4.103415879389794</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.6293348061984626</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5227272727272727</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.1241111870464988</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.7395150855565554</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>602</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2071</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2151</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.480473785298237</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.991458518900645</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.4890152663975921</v>
+      </c>
+      <c r="G78" t="n">
+        <v>108</v>
+      </c>
+      <c r="H78" t="n">
+        <v>147.6529062510836</v>
+      </c>
+      <c r="I78" t="n">
+        <v>28</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80</v>
+      </c>
+      <c r="K78" t="n">
+        <v>255.1658603082567</v>
+      </c>
+      <c r="L78" t="n">
+        <v>15.76689365770022</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.8738285459444526</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.3990138293528559</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9515235777531217</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>603</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2769</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2799</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2867</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.240557768686894</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8560332093349322</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.3845245593519623</v>
+      </c>
+      <c r="G79" t="n">
+        <v>98</v>
+      </c>
+      <c r="H79" t="n">
+        <v>38.31580036926243</v>
+      </c>
+      <c r="I79" t="n">
+        <v>30</v>
+      </c>
+      <c r="J79" t="n">
+        <v>68</v>
+      </c>
+      <c r="K79" t="n">
+        <v>54.98377129565139</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4.293985816804508</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.901704652219437</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.3442812745712765</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9162814876713791</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>604</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3037</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3052</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3107</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.052467745048431</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.667943185696469</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.3845245593519623</v>
+      </c>
+      <c r="G80" t="n">
+        <v>70</v>
+      </c>
+      <c r="H80" t="n">
+        <v>92.4149753290867</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>55</v>
+      </c>
+      <c r="K80" t="n">
+        <v>92.6759454964577</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.104278099048432</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8777088420178736</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.2433301406601404</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.8182297823575274</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>605</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3466</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3481</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.731443551143073</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.34691899179111</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.3845245593519623</v>
+      </c>
+      <c r="G81" t="n">
+        <v>64</v>
+      </c>
+      <c r="H81" t="n">
+        <v>19.26918230519914</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>49</v>
+      </c>
+      <c r="K81" t="n">
+        <v>183.0670446013383</v>
+      </c>
+      <c r="L81" t="n">
+        <v>12.91577554004178</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.8187930484714191</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.182024628397143</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.5769686658946408</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>606</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.82525763027586</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.436039908743804</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.3892177215320562</v>
+      </c>
+      <c r="G82" t="n">
+        <v>226</v>
+      </c>
+      <c r="H82" t="n">
+        <v>102.0209278718223</v>
+      </c>
+      <c r="I82" t="n">
         <v>36</v>
       </c>
-      <c r="J51" t="n">
-        <v>99</v>
-      </c>
-      <c r="K51" t="n">
-        <v>445.9754363807448</v>
-      </c>
-      <c r="L51" t="n">
-        <v>16.42091676468257</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>0.7521997556057592</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.08810108505649021</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.8555004505890464</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>327</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
+      <c r="J82" t="n">
+        <v>190</v>
+      </c>
+      <c r="K82" t="n">
+        <v>692.778848713305</v>
+      </c>
+      <c r="L82" t="n">
+        <v>30.3065434359822</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.9204638014140321</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.1894736842105263</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.2334435626221138</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9526614034834676</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>607</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3421</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.031051272039893</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6418335505078372</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.3892177215320562</v>
+      </c>
+      <c r="G83" t="n">
+        <v>114</v>
+      </c>
+      <c r="H83" t="n">
+        <v>24.80581141545963</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27</v>
+      </c>
+      <c r="J83" t="n">
+        <v>87</v>
+      </c>
+      <c r="K83" t="n">
+        <v>74.71955925283851</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4.578230134814528</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7646677516256837</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2861237461984419</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.3783097818490651</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>608</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.285454987947819</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.815878170628604</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.469576817319215</v>
+      </c>
+      <c r="G84" t="n">
+        <v>45</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16.12804396037495</v>
+      </c>
+      <c r="I84" t="n">
+        <v>19</v>
+      </c>
+      <c r="J84" t="n">
+        <v>26</v>
+      </c>
+      <c r="K84" t="n">
+        <v>108.039623014197</v>
+      </c>
+      <c r="L84" t="n">
+        <v>7.594592314296723</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7621651782094152</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1626999938058256</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.96537825009748</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>609</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2987</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3016</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3139</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.912542988700692</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.499090430873429</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.4134525578272625</v>
+      </c>
+      <c r="G85" t="n">
+        <v>152</v>
+      </c>
+      <c r="H85" t="n">
+        <v>24.51111015601737</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="n">
+        <v>123</v>
+      </c>
+      <c r="K85" t="n">
+        <v>370.6013469875533</v>
+      </c>
+      <c r="L85" t="n">
+        <v>10.01403479698708</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8211905233173952</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2357723577235772</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.2922441667174101</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.7882680567942085</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>610</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace/processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>638</v>
       </c>
       <c r="C35" t="n">
-        <v>710</v>
+        <v>675</v>
       </c>
       <c r="D35" t="n">
         <v>3.680504030983523</v>
@@ -3413,7 +3413,7 @@
         <v>-0.5320196961766912</v>
       </c>
       <c r="G35" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="H35" t="n">
         <v>26.3166385367183</v>
@@ -3422,10 +3422,10 @@
         <v>29</v>
       </c>
       <c r="J35" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K35" t="n">
-        <v>265.2670367828174</v>
+        <v>189.7166653187193</v>
       </c>
       <c r="L35" t="n">
         <v>19.21545735168862</v>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7954034063568129</v>
+        <v>0.6741212016904052</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1685923761085492</v>
+        <v>0.06795017365697853</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8322499114955351</v>
+        <v>0.9816736617922801</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>781</v>
+        <v>675</v>
       </c>
       <c r="B36" t="n">
-        <v>803</v>
+        <v>688</v>
       </c>
       <c r="C36" t="n">
-        <v>912</v>
+        <v>710</v>
       </c>
       <c r="D36" t="n">
-        <v>3.161799052584352</v>
+        <v>2.415605454326397</v>
       </c>
       <c r="E36" t="n">
-        <v>2.651369942029803</v>
+        <v>1.883585758149706</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5104291105545484</v>
+        <v>-0.5320196961766912</v>
       </c>
       <c r="G36" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>18.68905816136953</v>
+        <v>13.45598577636997</v>
       </c>
       <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
         <v>22</v>
       </c>
-      <c r="J36" t="n">
-        <v>109</v>
-      </c>
       <c r="K36" t="n">
-        <v>294.8483777800328</v>
+        <v>75.55037146409806</v>
       </c>
       <c r="L36" t="n">
-        <v>10.36530015727529</v>
+        <v>12.61157797827802</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7712921659710578</v>
+        <v>0.7602397923269144</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2018348623853211</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2741966882820233</v>
+        <v>0.1029002871741115</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9513471070538262</v>
+        <v>0.9836953093410866</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>931</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>1069</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>1.623118725198889</v>
+        <v>2.511696321307261</v>
       </c>
       <c r="E37" t="n">
-        <v>1.112689614644341</v>
+        <v>2.001267210752713</v>
       </c>
       <c r="F37" t="n">
         <v>-0.5104291105545484</v>
       </c>
       <c r="G37" t="n">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="H37" t="n">
-        <v>24.07194289511369</v>
+        <v>23.11358339051755</v>
       </c>
       <c r="I37" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="K37" t="n">
-        <v>124.9352870580854</v>
+        <v>94.77133173985645</v>
       </c>
       <c r="L37" t="n">
-        <v>5.32105693555352</v>
+        <v>8.234073652781374</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.7548490023278652</v>
+        <v>0.7011146651223469</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1376811594202899</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4444923154126008</v>
+        <v>0.08383890741348614</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7087112418752757</v>
+        <v>0.9347294529761698</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1069</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>1126</v>
+        <v>63</v>
       </c>
       <c r="C38" t="n">
-        <v>1354</v>
+        <v>94</v>
       </c>
       <c r="D38" t="n">
-        <v>3.81186493128148</v>
+        <v>2.504215776596275</v>
       </c>
       <c r="E38" t="n">
-        <v>3.301435820726931</v>
+        <v>1.993786666041727</v>
       </c>
       <c r="F38" t="n">
         <v>-0.5104291105545484</v>
       </c>
       <c r="G38" t="n">
-        <v>285</v>
+        <v>52</v>
       </c>
       <c r="H38" t="n">
-        <v>75.36281009023105</v>
+        <v>19.78301953144651</v>
       </c>
       <c r="I38" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="J38" t="n">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="K38" t="n">
-        <v>445.6822031362523</v>
+        <v>98.28000488477595</v>
       </c>
       <c r="L38" t="n">
-        <v>12.49640584825559</v>
+        <v>8.209550243804477</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7799300576059024</v>
+        <v>0.7938066330022756</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.25</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="R38" t="n">
-        <v>0.401551853607659</v>
+        <v>0.1759027652024089</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7712431139785386</v>
+        <v>0.9512378610325554</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1252</v>
+        <v>781</v>
       </c>
       <c r="B39" t="n">
-        <v>1273</v>
+        <v>803</v>
       </c>
       <c r="C39" t="n">
-        <v>1377</v>
+        <v>912</v>
       </c>
       <c r="D39" t="n">
-        <v>2.945439592025124</v>
+        <v>3.161799052584352</v>
       </c>
       <c r="E39" t="n">
-        <v>2.405636692458279</v>
+        <v>2.651369942029803</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.539802899566844</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G39" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H39" t="n">
-        <v>53.45031429716892</v>
+        <v>18.68905816136953</v>
       </c>
       <c r="I39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J39" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K39" t="n">
-        <v>293.3391280426263</v>
+        <v>294.8483777800328</v>
       </c>
       <c r="L39" t="n">
-        <v>7.582570784207206</v>
+        <v>10.36530015727529</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7815313305305809</v>
+        <v>0.7712921659710578</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0969071080997103</v>
+        <v>0.2741966882820233</v>
       </c>
       <c r="S39" t="n">
-        <v>0.7720024659126753</v>
+        <v>0.9513471070538262</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>931</v>
       </c>
       <c r="C40" t="n">
-        <v>48</v>
+        <v>1069</v>
       </c>
       <c r="D40" t="n">
-        <v>1.828149728326042</v>
+        <v>1.623118725198889</v>
       </c>
       <c r="E40" t="n">
-        <v>1.182638189939626</v>
+        <v>1.112689614644341</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6455115383864161</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G40" t="n">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="H40" t="n">
-        <v>21.4374995288902</v>
+        <v>24.07194289511369</v>
       </c>
       <c r="I40" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J40" t="n">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="K40" t="n">
-        <v>56.91711784090381</v>
+        <v>124.9352870580854</v>
       </c>
       <c r="L40" t="n">
-        <v>6.188763193081753</v>
+        <v>5.32105693555352</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9001171420899143</v>
+        <v>0.7548490023278652</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3380910533721146</v>
+        <v>0.4444923154126008</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9384038425165715</v>
+        <v>0.7087112418752757</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>234</v>
+        <v>1069</v>
       </c>
       <c r="B41" t="n">
-        <v>244</v>
+        <v>1126</v>
       </c>
       <c r="C41" t="n">
-        <v>275</v>
+        <v>1354</v>
       </c>
       <c r="D41" t="n">
-        <v>2.564320750475144</v>
+        <v>3.81186493128148</v>
       </c>
       <c r="E41" t="n">
-        <v>1.918809212088728</v>
+        <v>3.301435820726931</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6455115383864161</v>
+        <v>-0.5104291105545484</v>
       </c>
       <c r="G41" t="n">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="H41" t="n">
-        <v>11.57871867418646</v>
+        <v>75.36281009023105</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J41" t="n">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="K41" t="n">
-        <v>93.99407980990428</v>
+        <v>445.6822031362523</v>
       </c>
       <c r="L41" t="n">
-        <v>8.68089392783369</v>
+        <v>12.49640584825559</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7370566501501291</v>
+        <v>0.7799300576059024</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.25</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02514931609373777</v>
+        <v>0.401551853607659</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9356415559156388</v>
+        <v>0.7712431139785386</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>365</v>
+        <v>1252</v>
       </c>
       <c r="B42" t="n">
-        <v>411</v>
+        <v>1273</v>
       </c>
       <c r="C42" t="n">
-        <v>507</v>
+        <v>1377</v>
       </c>
       <c r="D42" t="n">
-        <v>2.493256073537125</v>
+        <v>2.945439592025124</v>
       </c>
       <c r="E42" t="n">
-        <v>1.84774453515071</v>
+        <v>2.405636692458279</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6455115383864161</v>
+        <v>-0.539802899566844</v>
       </c>
       <c r="G42" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H42" t="n">
-        <v>34.24974365428437</v>
+        <v>53.45031429716892</v>
       </c>
       <c r="I42" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J42" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K42" t="n">
-        <v>247.3733841978912</v>
+        <v>293.3391280426263</v>
       </c>
       <c r="L42" t="n">
-        <v>8.440321479008634</v>
+        <v>7.582570784207206</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.6963128283557483</v>
+        <v>0.7815313305305809</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2122817845192466</v>
+        <v>0.0969071080997103</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7237674559852978</v>
+        <v>0.7720024659126753</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>778</v>
+        <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>939</v>
+        <v>48</v>
       </c>
       <c r="D43" t="n">
-        <v>2.742072718063547</v>
+        <v>1.828149728326042</v>
       </c>
       <c r="E43" t="n">
-        <v>2.09656117967713</v>
+        <v>1.182638189939626</v>
       </c>
       <c r="F43" t="n">
         <v>-0.6455115383864161</v>
       </c>
       <c r="G43" t="n">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="H43" t="n">
-        <v>133.0562403570758</v>
+        <v>21.4374995288902</v>
       </c>
       <c r="I43" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="J43" t="n">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="K43" t="n">
-        <v>393.2991028315603</v>
+        <v>56.91711784090381</v>
       </c>
       <c r="L43" t="n">
-        <v>9.282630655118194</v>
+        <v>6.188763193081753</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.696432056883042</v>
+        <v>0.9001171420899143</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5093167701863354</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="R43" t="n">
-        <v>0.310872399061705</v>
+        <v>0.3380910533721146</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8809953665001217</v>
+        <v>0.9384038425165715</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1247</v>
+        <v>234</v>
       </c>
       <c r="B44" t="n">
-        <v>1274</v>
+        <v>244</v>
       </c>
       <c r="C44" t="n">
-        <v>1321</v>
+        <v>275</v>
       </c>
       <c r="D44" t="n">
-        <v>1.370067919859899</v>
+        <v>2.564320750475144</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7245563814734824</v>
+        <v>1.918809212088728</v>
       </c>
       <c r="F44" t="n">
         <v>-0.6455115383864161</v>
       </c>
       <c r="G44" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H44" t="n">
-        <v>118.1795313846192</v>
+        <v>11.57871867418646</v>
       </c>
       <c r="I44" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K44" t="n">
-        <v>67.0411136172031</v>
+        <v>93.99407980990428</v>
       </c>
       <c r="L44" t="n">
-        <v>4.638036908615192</v>
+        <v>8.68089392783369</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.744473422016342</v>
+        <v>0.7370566501501291</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.574468085106383</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4682085590839498</v>
+        <v>0.02514931609373777</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7756475123596933</v>
+        <v>0.9356415559156388</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3343</v>
+        <v>365</v>
       </c>
       <c r="B45" t="n">
-        <v>3374</v>
+        <v>411</v>
       </c>
       <c r="C45" t="n">
-        <v>3454</v>
+        <v>507</v>
       </c>
       <c r="D45" t="n">
-        <v>3.01747191333463</v>
+        <v>2.493256073537125</v>
       </c>
       <c r="E45" t="n">
-        <v>2.371960374948214</v>
+        <v>1.84774453515071</v>
       </c>
       <c r="F45" t="n">
         <v>-0.6455115383864161</v>
       </c>
       <c r="G45" t="n">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="H45" t="n">
-        <v>93.17873288038436</v>
+        <v>34.24974365428437</v>
       </c>
       <c r="I45" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K45" t="n">
-        <v>206.3551340409408</v>
+        <v>247.3733841978912</v>
       </c>
       <c r="L45" t="n">
-        <v>10.21492869213874</v>
+        <v>8.440321479008634</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.8522974679237976</v>
+        <v>0.6963128283557483</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.3875</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2668639532329011</v>
+        <v>0.2122817845192466</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8735968334005089</v>
+        <v>0.7237674559852978</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>479</v>
+        <v>800</v>
       </c>
       <c r="B46" t="n">
-        <v>495</v>
+        <v>818</v>
       </c>
       <c r="C46" t="n">
-        <v>525</v>
+        <v>939</v>
       </c>
       <c r="D46" t="n">
-        <v>1.237150055928833</v>
+        <v>2.695026780191958</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6729744681851125</v>
+        <v>2.049515241805542</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.5641755877437209</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G46" t="n">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="H46" t="n">
-        <v>29.84402576236721</v>
+        <v>19.57442537378961</v>
       </c>
       <c r="I46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J46" t="n">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="K46" t="n">
-        <v>46.10021040202625</v>
+        <v>185.9894489723235</v>
       </c>
       <c r="L46" t="n">
-        <v>6.156743741485792</v>
+        <v>9.123367896618483</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7011387993010889</v>
+        <v>0.739763183410085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1248522377648418</v>
+        <v>0.5329235698568666</v>
       </c>
       <c r="S46" t="n">
-        <v>0.783483663413996</v>
+        <v>0.811303550862233</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>525</v>
+        <v>1247</v>
       </c>
       <c r="B47" t="n">
-        <v>548</v>
+        <v>1274</v>
       </c>
       <c r="C47" t="n">
-        <v>612</v>
+        <v>1321</v>
       </c>
       <c r="D47" t="n">
-        <v>1.190941134471948</v>
+        <v>1.370067919859899</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6267655467282269</v>
+        <v>0.7245563814734824</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.5641755877437209</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G47" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H47" t="n">
-        <v>26.62166739654594</v>
+        <v>118.1795313846192</v>
       </c>
       <c r="I47" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J47" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K47" t="n">
-        <v>54.88130044176395</v>
+        <v>67.0411136172031</v>
       </c>
       <c r="L47" t="n">
-        <v>5.926782560449516</v>
+        <v>4.638036908615192</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8113652264813139</v>
+        <v>0.744473422016342</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.359375</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4510169350150526</v>
+        <v>0.4682085590839498</v>
       </c>
       <c r="S47" t="n">
-        <v>0.4971828207965585</v>
+        <v>0.7756475123596933</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>707</v>
+        <v>3343</v>
       </c>
       <c r="B48" t="n">
-        <v>732</v>
+        <v>3374</v>
       </c>
       <c r="C48" t="n">
-        <v>870</v>
+        <v>3454</v>
       </c>
       <c r="D48" t="n">
-        <v>2.65616044515899</v>
+        <v>3.01747191333463</v>
       </c>
       <c r="E48" t="n">
-        <v>2.09198485741527</v>
+        <v>2.371960374948214</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5641755877437209</v>
+        <v>-0.6455115383864161</v>
       </c>
       <c r="G48" t="n">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="H48" t="n">
-        <v>65.86534197603794</v>
+        <v>93.17873288038436</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="K48" t="n">
-        <v>246.1525464626055</v>
+        <v>206.3551340409408</v>
       </c>
       <c r="L48" t="n">
-        <v>13.21852520536559</v>
+        <v>10.21492869213874</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.90925051703917</v>
+        <v>0.8522974679237976</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1811594202898551</v>
+        <v>0.3875</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2735649367426958</v>
+        <v>0.2668639532329011</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8516614110666993</v>
+        <v>0.8735968334005089</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1027</v>
+        <v>479</v>
       </c>
       <c r="B49" t="n">
-        <v>1051</v>
+        <v>495</v>
       </c>
       <c r="C49" t="n">
-        <v>1139</v>
+        <v>525</v>
       </c>
       <c r="D49" t="n">
-        <v>3.317059997980862</v>
+        <v>1.237150055928833</v>
       </c>
       <c r="E49" t="n">
-        <v>2.752884410237141</v>
+        <v>0.6729744681851125</v>
       </c>
       <c r="F49" t="n">
         <v>-0.5641755877437209</v>
       </c>
       <c r="G49" t="n">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="H49" t="n">
-        <v>24.93457963278229</v>
+        <v>29.84402576236721</v>
       </c>
       <c r="I49" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J49" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>274.0972436244435</v>
+        <v>46.10021040202625</v>
       </c>
       <c r="L49" t="n">
-        <v>16.50752734870856</v>
+        <v>6.156743741485792</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.89057107484771</v>
+        <v>0.7011387993010889</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2485365545408771</v>
+        <v>0.1248522377648418</v>
       </c>
       <c r="S49" t="n">
-        <v>0.882410351429415</v>
+        <v>0.783483663413996</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1036</v>
+        <v>525</v>
       </c>
       <c r="B50" t="n">
-        <v>1074</v>
+        <v>548</v>
       </c>
       <c r="C50" t="n">
-        <v>1260</v>
+        <v>612</v>
       </c>
       <c r="D50" t="n">
-        <v>3.903719169467402</v>
+        <v>1.190941134471948</v>
       </c>
       <c r="E50" t="n">
-        <v>3.403103516637999</v>
+        <v>0.6267655467282269</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5006156528294028</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G50" t="n">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="H50" t="n">
-        <v>33.73448868032006</v>
+        <v>26.62166739654594</v>
       </c>
       <c r="I50" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J50" t="n">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="K50" t="n">
-        <v>569.6308567776565</v>
+        <v>54.88130044176395</v>
       </c>
       <c r="L50" t="n">
-        <v>11.7293634050488</v>
+        <v>5.926782560449516</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8140566214014777</v>
+        <v>0.8113652264813139</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.359375</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2425786696416579</v>
+        <v>0.4510169350150526</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8461390318284536</v>
+        <v>0.4971828207965585</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2238</v>
+        <v>707</v>
       </c>
       <c r="B51" t="n">
-        <v>2256</v>
+        <v>732</v>
       </c>
       <c r="C51" t="n">
-        <v>2305</v>
+        <v>870</v>
       </c>
       <c r="D51" t="n">
-        <v>2.627092700263288</v>
+        <v>2.65616044515899</v>
       </c>
       <c r="E51" t="n">
-        <v>2.132307377897471</v>
+        <v>2.09198485741527</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.4947853223658176</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G51" t="n">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="H51" t="n">
-        <v>34.18590855961838</v>
+        <v>65.86534197603794</v>
       </c>
       <c r="I51" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J51" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="K51" t="n">
-        <v>93.08923490016319</v>
+        <v>246.1525464626055</v>
       </c>
       <c r="L51" t="n">
-        <v>6.384125691886928</v>
+        <v>13.21852520536559</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.8876251284828105</v>
+        <v>0.90925051703917</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2485401921266116</v>
+        <v>0.2735649367426958</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8550539618967348</v>
+        <v>0.8516614110666993</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3257</v>
+        <v>1027</v>
       </c>
       <c r="B52" t="n">
-        <v>3288</v>
+        <v>1051</v>
       </c>
       <c r="C52" t="n">
-        <v>3344</v>
+        <v>1139</v>
       </c>
       <c r="D52" t="n">
-        <v>2.903238458381197</v>
+        <v>3.317059997980862</v>
       </c>
       <c r="E52" t="n">
-        <v>2.500259979960525</v>
+        <v>2.752884410237141</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.4029784784206714</v>
+        <v>-0.5641755877437209</v>
       </c>
       <c r="G52" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H52" t="n">
-        <v>37.16598476384206</v>
+        <v>24.93457963278229</v>
       </c>
       <c r="I52" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J52" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="K52" t="n">
-        <v>156.2202377282612</v>
+        <v>274.0972436244435</v>
       </c>
       <c r="L52" t="n">
-        <v>6.44665224388156</v>
+        <v>16.50752734870856</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.8546539275456759</v>
+        <v>0.89057107484771</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.5535714285714286</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R52" t="n">
-        <v>0.3179738592755668</v>
+        <v>0.2485365545408771</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9474764666989087</v>
+        <v>0.882410351429415</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3344</v>
+        <v>1036</v>
       </c>
       <c r="B53" t="n">
-        <v>3373</v>
+        <v>1074</v>
       </c>
       <c r="C53" t="n">
-        <v>3530</v>
+        <v>1260</v>
       </c>
       <c r="D53" t="n">
-        <v>4.669424475675235</v>
+        <v>3.903719169467402</v>
       </c>
       <c r="E53" t="n">
-        <v>4.266445997254563</v>
+        <v>3.403103516637999</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.4029784784206714</v>
+        <v>-0.5006156528294028</v>
       </c>
       <c r="G53" t="n">
+        <v>224</v>
+      </c>
+      <c r="H53" t="n">
+        <v>33.73448868032006</v>
+      </c>
+      <c r="I53" t="n">
+        <v>38</v>
+      </c>
+      <c r="J53" t="n">
         <v>186</v>
       </c>
-      <c r="H53" t="n">
-        <v>56.79925965231996</v>
-      </c>
-      <c r="I53" t="n">
-        <v>29</v>
-      </c>
-      <c r="J53" t="n">
-        <v>157</v>
-      </c>
       <c r="K53" t="n">
-        <v>413.6151597349105</v>
+        <v>569.6308567776565</v>
       </c>
       <c r="L53" t="n">
-        <v>10.36847513742696</v>
+        <v>11.7293634050488</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.889154079763832</v>
+        <v>0.8140566214014777</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1847133757961783</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2262848685874936</v>
+        <v>0.2425786696416579</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8861914074269864</v>
+        <v>0.8461390318284536</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>987</v>
+        <v>2238</v>
       </c>
       <c r="B54" t="n">
-        <v>1022</v>
+        <v>2256</v>
       </c>
       <c r="C54" t="n">
-        <v>1136</v>
+        <v>2305</v>
       </c>
       <c r="D54" t="n">
-        <v>3.985016474188782</v>
+        <v>2.627092700263288</v>
       </c>
       <c r="E54" t="n">
-        <v>3.515335055517151</v>
+        <v>2.132307377897471</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.4696814186716316</v>
+        <v>-0.4947853223658176</v>
       </c>
       <c r="G54" t="n">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="H54" t="n">
-        <v>47.56502730385091</v>
+        <v>34.18590855961838</v>
       </c>
       <c r="I54" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J54" t="n">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="K54" t="n">
-        <v>279.778985119654</v>
+        <v>93.08923490016319</v>
       </c>
       <c r="L54" t="n">
-        <v>10.11438341364799</v>
+        <v>6.384125691886928</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.9229428844016767</v>
+        <v>0.8876251284828105</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3070175438596491</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2840998955524756</v>
+        <v>0.2485401921266116</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8548258830854654</v>
+        <v>0.8550539618967348</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1376</v>
+        <v>3257</v>
       </c>
       <c r="B55" t="n">
-        <v>1441</v>
+        <v>3288</v>
       </c>
       <c r="C55" t="n">
-        <v>1586</v>
+        <v>3344</v>
       </c>
       <c r="D55" t="n">
-        <v>2.985626756173513</v>
+        <v>2.903238458381197</v>
       </c>
       <c r="E55" t="n">
-        <v>2.518178944070337</v>
+        <v>2.500259979960525</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.4674478121031762</v>
+        <v>-0.4029784784206714</v>
       </c>
       <c r="G55" t="n">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="H55" t="n">
-        <v>84.02403888927279</v>
+        <v>37.16598476384206</v>
       </c>
       <c r="I55" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J55" t="n">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="K55" t="n">
-        <v>424.6873561920376</v>
+        <v>156.2202377282612</v>
       </c>
       <c r="L55" t="n">
-        <v>7.752771592385671</v>
+        <v>6.44665224388156</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.6996039567852084</v>
+        <v>0.8546539275456759</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2221312964195201</v>
+        <v>0.3179738592755668</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8000192895263754</v>
+        <v>0.9474764666989087</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>825</v>
+        <v>3344</v>
       </c>
       <c r="B56" t="n">
-        <v>858</v>
+        <v>3373</v>
       </c>
       <c r="C56" t="n">
-        <v>926</v>
+        <v>3530</v>
       </c>
       <c r="D56" t="n">
-        <v>3.232043082373535</v>
+        <v>4.669424475675235</v>
       </c>
       <c r="E56" t="n">
-        <v>2.691217648198991</v>
+        <v>4.266445997254563</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5408254341745437</v>
+        <v>-0.4029784784206714</v>
       </c>
       <c r="G56" t="n">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="H56" t="n">
-        <v>45.84256871559512</v>
+        <v>56.79925965231996</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J56" t="n">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="K56" t="n">
-        <v>183.4099402254592</v>
+        <v>413.6151597349105</v>
       </c>
       <c r="L56" t="n">
-        <v>10.10599449905099</v>
+        <v>10.36847513742696</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8647805414928681</v>
+        <v>0.889154079763832</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="R56" t="n">
-        <v>0.237726329499663</v>
+        <v>0.2262848685874936</v>
       </c>
       <c r="S56" t="n">
-        <v>0.920285091508674</v>
+        <v>0.8861914074269864</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,73 +5287,73 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>926</v>
+        <v>987</v>
       </c>
       <c r="B57" t="n">
-        <v>957</v>
+        <v>1022</v>
       </c>
       <c r="C57" t="n">
-        <v>1178</v>
+        <v>1136</v>
       </c>
       <c r="D57" t="n">
-        <v>1.484812507217218</v>
+        <v>3.985016474188782</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9439870730426745</v>
+        <v>3.515335055517151</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5408254341745437</v>
+        <v>-0.4696814186716316</v>
       </c>
       <c r="G57" t="n">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="H57" t="n">
-        <v>20.16471384846409</v>
+        <v>47.56502730385091</v>
       </c>
       <c r="I57" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J57" t="n">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="K57" t="n">
-        <v>185.8252363257498</v>
+        <v>279.778985119654</v>
       </c>
       <c r="L57" t="n">
-        <v>4.642731129388173</v>
+        <v>10.11438341364799</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1045), 'value': np.float64(0.6232124973412384), 'amplitude': np.float64(1.164037931515782), 'start_idx': np.int64(1019), 'end_idx': np.int64(1062), 'duration': np.float64(43.0), 'fwhm': np.float64(29.05237092810262), 'rise_time': np.float64(26.0), 'decay_time': np.float64(17.0), 'auc': np.float64(40.17590655474236)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7100231771390415</v>
+        <v>0.9229428844016767</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.1402714932126697</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3949308074013385</v>
+        <v>0.2840998955524756</v>
       </c>
       <c r="S57" t="n">
-        <v>0.5789391013852065</v>
+        <v>0.8548258830854654</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>837</v>
+        <v>1308</v>
       </c>
       <c r="B58" t="n">
-        <v>875</v>
+        <v>1323</v>
       </c>
       <c r="C58" t="n">
-        <v>942</v>
+        <v>1376</v>
       </c>
       <c r="D58" t="n">
-        <v>1.587431940718305</v>
+        <v>2.520261267901382</v>
       </c>
       <c r="E58" t="n">
-        <v>1.15003061210808</v>
+        <v>2.052813455798205</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4374013286102243</v>
+        <v>-0.4674478121031762</v>
       </c>
       <c r="G58" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H58" t="n">
-        <v>49.08133284929295</v>
+        <v>14.73273001434745</v>
       </c>
       <c r="I58" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J58" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K58" t="n">
-        <v>84.92203550126106</v>
+        <v>132.9527067303184</v>
       </c>
       <c r="L58" t="n">
-        <v>6.366871385703176</v>
+        <v>6.544357871516942</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7826334420997629</v>
+        <v>0.8257693620196241</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5671641791044776</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4436935742585831</v>
+        <v>0.190361703199067</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6896212607852696</v>
+        <v>0.7133880288495571</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1470</v>
+        <v>1376</v>
       </c>
       <c r="B59" t="n">
-        <v>1514</v>
+        <v>1441</v>
       </c>
       <c r="C59" t="n">
-        <v>1570</v>
+        <v>1586</v>
       </c>
       <c r="D59" t="n">
-        <v>5.717944330928857</v>
+        <v>2.985626756173513</v>
       </c>
       <c r="E59" t="n">
-        <v>5.280543002318632</v>
+        <v>2.518178944070337</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.4374013286102243</v>
+        <v>-0.4674478121031762</v>
       </c>
       <c r="G59" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="H59" t="n">
-        <v>134.8048772019156</v>
+        <v>84.02403888927279</v>
       </c>
       <c r="I59" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J59" t="n">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="K59" t="n">
-        <v>412.5363119161529</v>
+        <v>424.6873561920376</v>
       </c>
       <c r="L59" t="n">
-        <v>22.93352880953206</v>
+        <v>7.752771592385671</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.7306216646483794</v>
+        <v>0.6996039567852084</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="R59" t="n">
-        <v>0.5356103139549032</v>
+        <v>0.2221312964195201</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9429428923229701</v>
+        <v>0.8000192895263754</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1570</v>
+        <v>825</v>
       </c>
       <c r="B60" t="n">
-        <v>1585</v>
+        <v>858</v>
       </c>
       <c r="C60" t="n">
-        <v>1713</v>
+        <v>926</v>
       </c>
       <c r="D60" t="n">
-        <v>4.509831870714901</v>
+        <v>3.232043082373535</v>
       </c>
       <c r="E60" t="n">
-        <v>4.072430542104676</v>
+        <v>2.691217648198991</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.4374013286102243</v>
+        <v>-0.5408254341745437</v>
       </c>
       <c r="G60" t="n">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="H60" t="n">
-        <v>14.49934328154404</v>
+        <v>45.84256871559512</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J60" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="K60" t="n">
-        <v>359.7566871271966</v>
+        <v>183.4099402254592</v>
       </c>
       <c r="L60" t="n">
-        <v>18.08803184279775</v>
+        <v>10.10599449905099</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.7849976681362831</v>
+        <v>0.8647805414928681</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1171875</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4563137559796905</v>
+        <v>0.237726329499663</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9516983684074478</v>
+        <v>0.920285091508674</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>585</v>
+        <v>621</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,73 +5631,73 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2078</v>
+        <v>926</v>
       </c>
       <c r="B61" t="n">
-        <v>2090</v>
+        <v>957</v>
       </c>
       <c r="C61" t="n">
-        <v>2216</v>
+        <v>1178</v>
       </c>
       <c r="D61" t="n">
-        <v>2.435173226619329</v>
+        <v>1.484812507217218</v>
       </c>
       <c r="E61" t="n">
-        <v>1.911033667108031</v>
+        <v>0.9439870730426745</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5241395595112982</v>
+        <v>-0.5408254341745437</v>
       </c>
       <c r="G61" t="n">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="H61" t="n">
-        <v>12.70620773602241</v>
+        <v>20.16471384846409</v>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J61" t="n">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="K61" t="n">
-        <v>160.8987639343102</v>
+        <v>185.8252363257498</v>
       </c>
       <c r="L61" t="n">
-        <v>8.533060305893139</v>
+        <v>4.642731129388173</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1045), 'value': np.float64(0.6232124973412384), 'amplitude': np.float64(1.164037931515782), 'start_idx': np.int64(1019), 'end_idx': np.int64(1062), 'duration': np.float64(43.0), 'fwhm': np.float64(29.05237092810262), 'rise_time': np.float64(26.0), 'decay_time': np.float64(17.0), 'auc': np.float64(40.17590655474236)}]</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7321264997032702</v>
+        <v>0.7100231771390415</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1402714932126697</v>
       </c>
       <c r="R61" t="n">
-        <v>0.4983337582816214</v>
+        <v>0.3949308074013385</v>
       </c>
       <c r="S61" t="n">
-        <v>0.7569948347197483</v>
+        <v>0.5789391013852065</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1964</v>
+        <v>837</v>
       </c>
       <c r="B62" t="n">
-        <v>2017</v>
+        <v>875</v>
       </c>
       <c r="C62" t="n">
-        <v>2090</v>
+        <v>942</v>
       </c>
       <c r="D62" t="n">
-        <v>4.546383476073492</v>
+        <v>1.587431940718305</v>
       </c>
       <c r="E62" t="n">
-        <v>4.064431520778522</v>
+        <v>1.15003061210808</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4819519552949694</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G62" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H62" t="n">
-        <v>207.3754854484321</v>
+        <v>49.08133284929295</v>
       </c>
       <c r="I62" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J62" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K62" t="n">
-        <v>439.0115865869587</v>
+        <v>84.92203550126106</v>
       </c>
       <c r="L62" t="n">
-        <v>15.31998968784487</v>
+        <v>6.366871385703176</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6421863559928745</v>
+        <v>0.7826334420997629</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.726027397260274</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2361401456297888</v>
+        <v>0.4436935742585831</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9639728632939484</v>
+        <v>0.6896212607852696</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2151</v>
+        <v>1470</v>
       </c>
       <c r="B63" t="n">
-        <v>2169</v>
+        <v>1514</v>
       </c>
       <c r="C63" t="n">
-        <v>2194</v>
+        <v>1570</v>
       </c>
       <c r="D63" t="n">
-        <v>2.987668359922058</v>
+        <v>5.717944330928857</v>
       </c>
       <c r="E63" t="n">
-        <v>2.505716404627089</v>
+        <v>5.280543002318632</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4819519552949694</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G63" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H63" t="n">
-        <v>12.74118693138189</v>
+        <v>134.8048772019156</v>
       </c>
       <c r="I63" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J63" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K63" t="n">
-        <v>103.7710599263279</v>
+        <v>412.5363119161529</v>
       </c>
       <c r="L63" t="n">
-        <v>10.06757320529344</v>
+        <v>22.93352880953206</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7231518871569605</v>
+        <v>0.7306216646483794</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.72</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1439781790856297</v>
+        <v>0.5356103139549032</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9903658687006369</v>
+        <v>0.9429428923229701</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2194</v>
+        <v>1570</v>
       </c>
       <c r="B64" t="n">
-        <v>2226</v>
+        <v>1585</v>
       </c>
       <c r="C64" t="n">
-        <v>2346</v>
+        <v>1713</v>
       </c>
       <c r="D64" t="n">
-        <v>2.486347301618379</v>
+        <v>4.509831870714901</v>
       </c>
       <c r="E64" t="n">
-        <v>2.004395346323409</v>
+        <v>4.072430542104676</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4819519552949694</v>
+        <v>-0.4374013286102243</v>
       </c>
       <c r="G64" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H64" t="n">
-        <v>30.72183536095326</v>
+        <v>14.49934328154404</v>
       </c>
       <c r="I64" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K64" t="n">
-        <v>241.5430052206538</v>
+        <v>359.7566871271966</v>
       </c>
       <c r="L64" t="n">
-        <v>8.378267082320958</v>
+        <v>18.08803184279775</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.8586797549837548</v>
+        <v>0.7849976681362831</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1171875</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2980470742705802</v>
+        <v>0.4563137559796905</v>
       </c>
       <c r="S64" t="n">
-        <v>0.799334075522106</v>
+        <v>0.9516983684074478</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,73 +5975,73 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2346</v>
+        <v>2078</v>
       </c>
       <c r="B65" t="n">
-        <v>2374</v>
+        <v>2090</v>
       </c>
       <c r="C65" t="n">
-        <v>2555</v>
+        <v>2216</v>
       </c>
       <c r="D65" t="n">
-        <v>1.363661989965576</v>
+        <v>2.435173226619329</v>
       </c>
       <c r="E65" t="n">
-        <v>0.881710034670607</v>
+        <v>1.911033667108031</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4819519552949694</v>
+        <v>-0.5241395595112982</v>
       </c>
       <c r="G65" t="n">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="H65" t="n">
-        <v>20.52858109378303</v>
+        <v>12.70620773602241</v>
       </c>
       <c r="I65" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="K65" t="n">
-        <v>157.0203091034412</v>
+        <v>160.8987639343102</v>
       </c>
       <c r="L65" t="n">
-        <v>4.595144191844879</v>
+        <v>8.533060305893139</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(2495), 'value': np.float64(0.5218209481697719), 'amplitude': np.float64(1.0037729034647414), 'start_idx': np.int64(2469), 'end_idx': np.int64(2514), 'duration': np.float64(45.0), 'fwhm': np.float64(32.78617476214231), 'rise_time': np.float64(26.0), 'decay_time': np.float64(19.0), 'auc': np.float64(35.84212701239561)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.6531920723007625</v>
+        <v>0.7321264997032702</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1546961325966851</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3460718578523195</v>
+        <v>0.4983337582816214</v>
       </c>
       <c r="S65" t="n">
-        <v>0.2832921453256386</v>
+        <v>0.7569948347197483</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1824</v>
+        <v>1964</v>
       </c>
       <c r="B66" t="n">
-        <v>1852</v>
+        <v>2017</v>
       </c>
       <c r="C66" t="n">
-        <v>1913</v>
+        <v>2090</v>
       </c>
       <c r="D66" t="n">
-        <v>3.040297327323197</v>
+        <v>4.546383476073492</v>
       </c>
       <c r="E66" t="n">
-        <v>2.475609236101003</v>
+        <v>4.064431520778522</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5646880912221937</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G66" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="H66" t="n">
-        <v>36.00238596876466</v>
+        <v>207.3754854484321</v>
       </c>
       <c r="I66" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J66" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K66" t="n">
-        <v>201.0105021474774</v>
+        <v>439.0115865869587</v>
       </c>
       <c r="L66" t="n">
-        <v>13.76610370819732</v>
+        <v>15.31998968784487</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.7733974808930351</v>
+        <v>0.6421863559928745</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.459016393442623</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="R66" t="n">
-        <v>0.07879081648773618</v>
+        <v>0.2361401456297888</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9731418771228372</v>
+        <v>0.9639728632939484</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1982</v>
+        <v>2151</v>
       </c>
       <c r="B67" t="n">
-        <v>2009</v>
+        <v>2169</v>
       </c>
       <c r="C67" t="n">
-        <v>2082</v>
+        <v>2194</v>
       </c>
       <c r="D67" t="n">
-        <v>3.730873357682216</v>
+        <v>2.987668359922058</v>
       </c>
       <c r="E67" t="n">
-        <v>3.166185266460023</v>
+        <v>2.505716404627089</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5646880912221937</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G67" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H67" t="n">
-        <v>375.376564722796</v>
+        <v>12.74118693138189</v>
       </c>
       <c r="I67" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J67" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K67" t="n">
-        <v>305.18697573427</v>
+        <v>103.7710599263279</v>
       </c>
       <c r="L67" t="n">
-        <v>16.89294961464274</v>
+        <v>10.06757320529344</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.748755514185802</v>
+        <v>0.7231518871569605</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3698630136986301</v>
+        <v>0.72</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1139442484339898</v>
+        <v>0.1439781790856297</v>
       </c>
       <c r="S67" t="n">
-        <v>0.9125140252933597</v>
+        <v>0.9903658687006369</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2082</v>
+        <v>2194</v>
       </c>
       <c r="B68" t="n">
-        <v>2101</v>
+        <v>2226</v>
       </c>
       <c r="C68" t="n">
-        <v>2135</v>
+        <v>2346</v>
       </c>
       <c r="D68" t="n">
-        <v>2.373929926997478</v>
+        <v>2.486347301618379</v>
       </c>
       <c r="E68" t="n">
-        <v>1.809241835775285</v>
+        <v>2.004395346323409</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5646880912221937</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G68" t="n">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="H68" t="n">
-        <v>18.68783679893431</v>
+        <v>30.72183536095326</v>
       </c>
       <c r="I68" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J68" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="K68" t="n">
-        <v>111.7868925580415</v>
+        <v>241.5430052206538</v>
       </c>
       <c r="L68" t="n">
-        <v>10.74887159138912</v>
+        <v>8.378267082320958</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7398027179281497</v>
+        <v>0.8586797549837548</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="R68" t="n">
-        <v>0.08902174443337935</v>
+        <v>0.2980470742705802</v>
       </c>
       <c r="S68" t="n">
-        <v>0.968327581518249</v>
+        <v>0.799334075522106</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,73 +6319,73 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2327</v>
+        <v>2346</v>
       </c>
       <c r="B69" t="n">
-        <v>2346</v>
+        <v>2374</v>
       </c>
       <c r="C69" t="n">
-        <v>2376</v>
+        <v>2555</v>
       </c>
       <c r="D69" t="n">
-        <v>2.237493236608753</v>
+        <v>1.363661989965576</v>
       </c>
       <c r="E69" t="n">
-        <v>1.672805145386559</v>
+        <v>0.881710034670607</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5646880912221937</v>
+        <v>-0.4819519552949694</v>
       </c>
       <c r="G69" t="n">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="H69" t="n">
-        <v>14.85612057576145</v>
+        <v>20.52858109378303</v>
       </c>
       <c r="I69" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="K69" t="n">
-        <v>94.31369069523774</v>
+        <v>157.0203091034412</v>
       </c>
       <c r="L69" t="n">
-        <v>10.13110252893099</v>
+        <v>4.595144191844879</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(2495), 'value': np.float64(0.5218209481697719), 'amplitude': np.float64(1.0037729034647414), 'start_idx': np.int64(2469), 'end_idx': np.int64(2514), 'duration': np.float64(45.0), 'fwhm': np.float64(32.78617476214231), 'rise_time': np.float64(26.0), 'decay_time': np.float64(19.0), 'auc': np.float64(35.84212701239561)}]</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.6904492719294322</v>
+        <v>0.6531920723007625</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08344289845116584</v>
+        <v>0.3460718578523195</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9762950333309991</v>
+        <v>0.2832921453256386</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1510</v>
+        <v>1824</v>
       </c>
       <c r="B70" t="n">
-        <v>1542</v>
+        <v>1852</v>
       </c>
       <c r="C70" t="n">
-        <v>1596</v>
+        <v>1913</v>
       </c>
       <c r="D70" t="n">
-        <v>2.664689344703836</v>
+        <v>3.040297327323197</v>
       </c>
       <c r="E70" t="n">
-        <v>2.102551925319395</v>
+        <v>2.475609236101003</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5621374193844411</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G70" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H70" t="n">
-        <v>36.61919267366079</v>
+        <v>36.00238596876466</v>
       </c>
       <c r="I70" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J70" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K70" t="n">
-        <v>146.9979980813635</v>
+        <v>201.0105021474774</v>
       </c>
       <c r="L70" t="n">
-        <v>6.448723024108354</v>
+        <v>13.76610370819732</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.853122057977593</v>
+        <v>0.7733974808930351</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3734453146054506</v>
+        <v>0.07879081648773618</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9938104360083034</v>
+        <v>0.9731418771228372</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1679</v>
+        <v>1982</v>
       </c>
       <c r="B71" t="n">
-        <v>1706</v>
+        <v>2009</v>
       </c>
       <c r="C71" t="n">
-        <v>2015</v>
+        <v>2082</v>
       </c>
       <c r="D71" t="n">
-        <v>2.224193328943004</v>
+        <v>3.730873357682216</v>
       </c>
       <c r="E71" t="n">
-        <v>1.662055909558563</v>
+        <v>3.166185266460023</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5621374193844411</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G71" t="n">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="H71" t="n">
-        <v>30.62640903968963</v>
+        <v>375.376564722796</v>
       </c>
       <c r="I71" t="n">
         <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="K71" t="n">
-        <v>458.6560855322574</v>
+        <v>305.18697573427</v>
       </c>
       <c r="L71" t="n">
-        <v>5.382693768386391</v>
+        <v>16.89294961464274</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.6515878828683791</v>
+        <v>0.748755514185802</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.08737864077669903</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1931283181491665</v>
+        <v>0.1139442484339898</v>
       </c>
       <c r="S71" t="n">
-        <v>0.5161762367697318</v>
+        <v>0.9125140252933597</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2015</v>
+        <v>2082</v>
       </c>
       <c r="B72" t="n">
-        <v>2055</v>
+        <v>2101</v>
       </c>
       <c r="C72" t="n">
-        <v>2111</v>
+        <v>2135</v>
       </c>
       <c r="D72" t="n">
-        <v>2.554274675454074</v>
+        <v>2.373929926997478</v>
       </c>
       <c r="E72" t="n">
-        <v>1.992137256069633</v>
+        <v>1.809241835775285</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5621374193844411</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G72" t="n">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="H72" t="n">
-        <v>25.44010434318466</v>
+        <v>18.68783679893431</v>
       </c>
       <c r="I72" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J72" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>150.2364875358816</v>
+        <v>111.7868925580415</v>
       </c>
       <c r="L72" t="n">
-        <v>6.181512281060411</v>
+        <v>10.74887159138912</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7655730229508428</v>
+        <v>0.7398027179281497</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="R72" t="n">
-        <v>0.6023304745205309</v>
+        <v>0.08902174443337935</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9354739417493916</v>
+        <v>0.968327581518249</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2358</v>
+        <v>2327</v>
       </c>
       <c r="B73" t="n">
-        <v>2396</v>
+        <v>2346</v>
       </c>
       <c r="C73" t="n">
-        <v>2498</v>
+        <v>2376</v>
       </c>
       <c r="D73" t="n">
-        <v>2.338948509729348</v>
+        <v>2.237493236608753</v>
       </c>
       <c r="E73" t="n">
-        <v>1.776811090344907</v>
+        <v>1.672805145386559</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.5621374193844411</v>
+        <v>-0.5646880912221937</v>
       </c>
       <c r="G73" t="n">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="H73" t="n">
-        <v>34.40036557823942</v>
+        <v>14.85612057576145</v>
       </c>
       <c r="I73" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="K73" t="n">
-        <v>157.0939436800796</v>
+        <v>94.31369069523774</v>
       </c>
       <c r="L73" t="n">
-        <v>5.660408834100688</v>
+        <v>10.13110252893099</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.8236095392456229</v>
+        <v>0.6904492719294322</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="R73" t="n">
-        <v>0.437997875215511</v>
+        <v>0.08344289845116584</v>
       </c>
       <c r="S73" t="n">
-        <v>0.7208129393917518</v>
+        <v>0.9762950333309991</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2762</v>
+        <v>1510</v>
       </c>
       <c r="B74" t="n">
-        <v>2788</v>
+        <v>1542</v>
       </c>
       <c r="C74" t="n">
-        <v>2886</v>
+        <v>1596</v>
       </c>
       <c r="D74" t="n">
-        <v>1.844144862748477</v>
+        <v>2.664689344703836</v>
       </c>
       <c r="E74" t="n">
-        <v>1.263887421873345</v>
+        <v>2.102551925319395</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.5802574408751324</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G74" t="n">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="H74" t="n">
-        <v>31.15374943592951</v>
+        <v>36.61919267366079</v>
       </c>
       <c r="I74" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J74" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K74" t="n">
-        <v>153.7839529352069</v>
+        <v>146.9979980813635</v>
       </c>
       <c r="L74" t="n">
-        <v>7.681567765590413</v>
+        <v>6.448723024108354</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8567049779723021</v>
+        <v>0.853122057977593</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.2653061224489796</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2415260235442377</v>
+        <v>0.3734453146054506</v>
       </c>
       <c r="S74" t="n">
-        <v>0.6800789948726111</v>
+        <v>0.9938104360083034</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>599</v>
+        <v>635</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2886</v>
+        <v>1679</v>
       </c>
       <c r="B75" t="n">
-        <v>2973</v>
+        <v>1706</v>
       </c>
       <c r="C75" t="n">
-        <v>3159</v>
+        <v>1816</v>
       </c>
       <c r="D75" t="n">
-        <v>3.731828222156717</v>
+        <v>2.224193328943004</v>
       </c>
       <c r="E75" t="n">
-        <v>3.151570781281585</v>
+        <v>1.662055909558563</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5802574408751324</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G75" t="n">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="H75" t="n">
-        <v>83.10492657509667</v>
+        <v>30.62640903968963</v>
       </c>
       <c r="I75" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="J75" t="n">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="K75" t="n">
-        <v>524.1725522473885</v>
+        <v>229.6086617277959</v>
       </c>
       <c r="L75" t="n">
-        <v>15.54449000026817</v>
+        <v>5.382693768386391</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7394574492130936</v>
+        <v>0.6920702574663709</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.2454545454545455</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2167624230778781</v>
+        <v>0.1269574470384261</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9673242651002526</v>
+        <v>0.4290624189872629</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3159</v>
+        <v>2015</v>
       </c>
       <c r="B76" t="n">
-        <v>3255</v>
+        <v>2055</v>
       </c>
       <c r="C76" t="n">
-        <v>3376</v>
+        <v>2111</v>
       </c>
       <c r="D76" t="n">
-        <v>1.474458147682366</v>
+        <v>2.554274675454074</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8942007068072336</v>
+        <v>1.992137256069633</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5802574408751324</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G76" t="n">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="H76" t="n">
-        <v>96.73060741754989</v>
+        <v>25.44010434318466</v>
       </c>
       <c r="I76" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="J76" t="n">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="K76" t="n">
-        <v>256.4053188858969</v>
+        <v>150.2364875358816</v>
       </c>
       <c r="L76" t="n">
-        <v>6.141681387257583</v>
+        <v>6.181512281060411</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.5297342562668589</v>
+        <v>0.7655730229508428</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7933884297520661</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1678006581977444</v>
+        <v>0.6023304745205309</v>
       </c>
       <c r="S76" t="n">
-        <v>0.7642578415110038</v>
+        <v>0.9354739417493916</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2582</v>
+        <v>2358</v>
       </c>
       <c r="B77" t="n">
-        <v>2605</v>
+        <v>2396</v>
       </c>
       <c r="C77" t="n">
-        <v>2649</v>
+        <v>2498</v>
       </c>
       <c r="D77" t="n">
-        <v>1.74384561159373</v>
+        <v>2.338948509729348</v>
       </c>
       <c r="E77" t="n">
-        <v>1.393705998217803</v>
+        <v>1.776811090344907</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3501396133759265</v>
+        <v>-0.5621374193844411</v>
       </c>
       <c r="G77" t="n">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="H77" t="n">
-        <v>48.55960658661979</v>
+        <v>34.40036557823942</v>
       </c>
       <c r="I77" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="J77" t="n">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="K77" t="n">
-        <v>80.17957977727936</v>
+        <v>157.0939436800796</v>
       </c>
       <c r="L77" t="n">
-        <v>4.103415879389794</v>
+        <v>5.660408834100688</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.6293348061984626</v>
+        <v>0.8236095392456229</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1241111870464988</v>
+        <v>0.437997875215511</v>
       </c>
       <c r="S77" t="n">
-        <v>0.7395150855565554</v>
+        <v>0.7208129393917518</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>602</v>
+        <v>638</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2043</v>
+        <v>2762</v>
       </c>
       <c r="B78" t="n">
-        <v>2071</v>
+        <v>2788</v>
       </c>
       <c r="C78" t="n">
-        <v>2151</v>
+        <v>2886</v>
       </c>
       <c r="D78" t="n">
-        <v>3.480473785298237</v>
+        <v>1.844144862748477</v>
       </c>
       <c r="E78" t="n">
-        <v>2.991458518900645</v>
+        <v>1.263887421873345</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4890152663975921</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G78" t="n">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="H78" t="n">
-        <v>147.6529062510836</v>
+        <v>31.15374943592951</v>
       </c>
       <c r="I78" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J78" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="K78" t="n">
-        <v>255.1658603082567</v>
+        <v>153.7839529352069</v>
       </c>
       <c r="L78" t="n">
-        <v>15.76689365770022</v>
+        <v>7.681567765590413</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.8738285459444526</v>
+        <v>0.8567049779723021</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.35</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="R78" t="n">
-        <v>0.3990138293528559</v>
+        <v>0.2415260235442377</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9515235777531217</v>
+        <v>0.6800789948726111</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2769</v>
+        <v>2886</v>
       </c>
       <c r="B79" t="n">
-        <v>2799</v>
+        <v>2973</v>
       </c>
       <c r="C79" t="n">
-        <v>2867</v>
+        <v>3159</v>
       </c>
       <c r="D79" t="n">
-        <v>1.240557768686894</v>
+        <v>3.731828222156717</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8560332093349322</v>
+        <v>3.151570781281585</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.3845245593519623</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G79" t="n">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="H79" t="n">
-        <v>38.31580036926243</v>
+        <v>83.10492657509667</v>
       </c>
       <c r="I79" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="J79" t="n">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c r="K79" t="n">
-        <v>54.98377129565139</v>
+        <v>524.1725522473885</v>
       </c>
       <c r="L79" t="n">
-        <v>4.293985816804508</v>
+        <v>15.54449000026817</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.901704652219437</v>
+        <v>0.7394574492130936</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="R79" t="n">
-        <v>0.3442812745712765</v>
+        <v>0.2167624230778781</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9162814876713791</v>
+        <v>0.9673242651002526</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3037</v>
+        <v>3222</v>
       </c>
       <c r="B80" t="n">
-        <v>3052</v>
+        <v>3255</v>
       </c>
       <c r="C80" t="n">
-        <v>3107</v>
+        <v>3376</v>
       </c>
       <c r="D80" t="n">
-        <v>2.052467745048431</v>
+        <v>1.474458147682366</v>
       </c>
       <c r="E80" t="n">
-        <v>1.667943185696469</v>
+        <v>0.8942007068072336</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3845245593519623</v>
+        <v>-0.5802574408751324</v>
       </c>
       <c r="G80" t="n">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="H80" t="n">
-        <v>92.4149753290867</v>
+        <v>96.73060741754989</v>
       </c>
       <c r="I80" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J80" t="n">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="K80" t="n">
-        <v>92.6759454964577</v>
+        <v>178.1584387832538</v>
       </c>
       <c r="L80" t="n">
-        <v>7.104278099048432</v>
+        <v>6.141681387257583</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.8777088420178736</v>
+        <v>0.7472362482749947</v>
       </c>
       <c r="Q80" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2433301406601404</v>
+        <v>0.1507338999570064</v>
       </c>
       <c r="S80" t="n">
-        <v>0.8182297823575274</v>
+        <v>0.7642578415110038</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3466</v>
+        <v>2582</v>
       </c>
       <c r="B81" t="n">
-        <v>3481</v>
+        <v>2605</v>
       </c>
       <c r="C81" t="n">
-        <v>3530</v>
+        <v>2649</v>
       </c>
       <c r="D81" t="n">
-        <v>3.731443551143073</v>
+        <v>1.74384561159373</v>
       </c>
       <c r="E81" t="n">
-        <v>3.34691899179111</v>
+        <v>1.393705998217803</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3845245593519623</v>
+        <v>-0.3501396133759265</v>
       </c>
       <c r="G81" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H81" t="n">
-        <v>19.26918230519914</v>
+        <v>48.55960658661979</v>
       </c>
       <c r="I81" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J81" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K81" t="n">
-        <v>183.0670446013383</v>
+        <v>80.17957977727936</v>
       </c>
       <c r="L81" t="n">
-        <v>12.91577554004178</v>
+        <v>4.103415879389794</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.8187930484714191</v>
+        <v>0.6293348061984626</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="R81" t="n">
-        <v>0.182024628397143</v>
+        <v>0.1241111870464988</v>
       </c>
       <c r="S81" t="n">
-        <v>0.5769686658946408</v>
+        <v>0.7395150855565554</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1570</v>
+        <v>2043</v>
       </c>
       <c r="B82" t="n">
-        <v>1606</v>
+        <v>2071</v>
       </c>
       <c r="C82" t="n">
-        <v>1796</v>
+        <v>2151</v>
       </c>
       <c r="D82" t="n">
-        <v>6.82525763027586</v>
+        <v>3.480473785298237</v>
       </c>
       <c r="E82" t="n">
-        <v>6.436039908743804</v>
+        <v>2.991458518900645</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3892177215320562</v>
+        <v>-0.4890152663975921</v>
       </c>
       <c r="G82" t="n">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="H82" t="n">
-        <v>102.0209278718223</v>
+        <v>147.6529062510836</v>
       </c>
       <c r="I82" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J82" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K82" t="n">
-        <v>692.778848713305</v>
+        <v>255.1658603082567</v>
       </c>
       <c r="L82" t="n">
-        <v>30.3065434359822</v>
+        <v>15.76689365770022</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.9204638014140321</v>
+        <v>0.8738285459444526</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.1894736842105263</v>
+        <v>0.35</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2334435626221138</v>
+        <v>0.3990138293528559</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9526614034834676</v>
+        <v>0.9515235777531217</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3307</v>
+        <v>2769</v>
       </c>
       <c r="B83" t="n">
-        <v>3334</v>
+        <v>2799</v>
       </c>
       <c r="C83" t="n">
-        <v>3421</v>
+        <v>2867</v>
       </c>
       <c r="D83" t="n">
-        <v>1.031051272039893</v>
+        <v>1.240557768686894</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6418335505078372</v>
+        <v>0.8560332093349322</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3892177215320562</v>
+        <v>-0.3845245593519623</v>
       </c>
       <c r="G83" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H83" t="n">
-        <v>24.80581141545963</v>
+        <v>38.31580036926243</v>
       </c>
       <c r="I83" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J83" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K83" t="n">
-        <v>74.71955925283851</v>
+        <v>54.98377129565139</v>
       </c>
       <c r="L83" t="n">
-        <v>4.578230134814528</v>
+        <v>4.293985816804508</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7646677516256837</v>
+        <v>0.901704652219437</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2861237461984419</v>
+        <v>0.3442812745712765</v>
       </c>
       <c r="S83" t="n">
-        <v>0.3783097818490651</v>
+        <v>0.9162814876713791</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1675</v>
+        <v>3037</v>
       </c>
       <c r="B84" t="n">
-        <v>1694</v>
+        <v>3052</v>
       </c>
       <c r="C84" t="n">
-        <v>1720</v>
+        <v>3107</v>
       </c>
       <c r="D84" t="n">
-        <v>3.285454987947819</v>
+        <v>2.052467745048431</v>
       </c>
       <c r="E84" t="n">
-        <v>2.815878170628604</v>
+        <v>1.667943185696469</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.469576817319215</v>
+        <v>-0.3845245593519623</v>
       </c>
       <c r="G84" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H84" t="n">
-        <v>16.12804396037495</v>
+        <v>92.4149753290867</v>
       </c>
       <c r="I84" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J84" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="K84" t="n">
-        <v>108.039623014197</v>
+        <v>92.6759454964577</v>
       </c>
       <c r="L84" t="n">
-        <v>7.594592314296723</v>
+        <v>7.104278099048432</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.7621651782094152</v>
+        <v>0.8777088420178736</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1626999938058256</v>
+        <v>0.2433301406601404</v>
       </c>
       <c r="S84" t="n">
-        <v>0.96537825009748</v>
+        <v>0.8182297823575274</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,85 +7695,429 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2987</v>
+        <v>3466</v>
       </c>
       <c r="B85" t="n">
-        <v>3016</v>
+        <v>3481</v>
       </c>
       <c r="C85" t="n">
+        <v>3530</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.731443551143073</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.34691899179111</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.3845245593519623</v>
+      </c>
+      <c r="G85" t="n">
+        <v>64</v>
+      </c>
+      <c r="H85" t="n">
+        <v>19.26918230519914</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>49</v>
+      </c>
+      <c r="K85" t="n">
+        <v>183.0670446013383</v>
+      </c>
+      <c r="L85" t="n">
+        <v>12.91577554004178</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8187930484714191</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.3061224489795918</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.182024628397143</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.5769686658946408</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>646</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1606</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.82525763027586</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.436039908743804</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.3892177215320562</v>
+      </c>
+      <c r="G86" t="n">
+        <v>226</v>
+      </c>
+      <c r="H86" t="n">
+        <v>102.0209278718223</v>
+      </c>
+      <c r="I86" t="n">
+        <v>36</v>
+      </c>
+      <c r="J86" t="n">
+        <v>190</v>
+      </c>
+      <c r="K86" t="n">
+        <v>692.778848713305</v>
+      </c>
+      <c r="L86" t="n">
+        <v>30.3065434359822</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9204638014140321</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1894736842105263</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2334435626221138</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.9526614034834676</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>647</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3334</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3421</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.031051272039893</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.6418335505078372</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.3892177215320562</v>
+      </c>
+      <c r="G87" t="n">
+        <v>114</v>
+      </c>
+      <c r="H87" t="n">
+        <v>24.80581141545963</v>
+      </c>
+      <c r="I87" t="n">
+        <v>27</v>
+      </c>
+      <c r="J87" t="n">
+        <v>87</v>
+      </c>
+      <c r="K87" t="n">
+        <v>74.71955925283851</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.578230134814528</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.7646677516256837</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.2861237461984419</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.3783097818490651</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>648</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1694</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.285454987947819</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.815878170628604</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.469576817319215</v>
+      </c>
+      <c r="G88" t="n">
+        <v>45</v>
+      </c>
+      <c r="H88" t="n">
+        <v>16.12804396037495</v>
+      </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>26</v>
+      </c>
+      <c r="K88" t="n">
+        <v>108.039623014197</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.594592314296723</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.7621651782094152</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.1626999938058256</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.96537825009748</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>649</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3057</v>
+      </c>
+      <c r="C89" t="n">
         <v>3139</v>
       </c>
-      <c r="D85" t="n">
-        <v>3.912542988700692</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.499090430873429</v>
-      </c>
-      <c r="F85" t="n">
+      <c r="D89" t="n">
+        <v>3.033669176010464</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.620216618183202</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.4134525578272625</v>
       </c>
-      <c r="G85" t="n">
-        <v>152</v>
-      </c>
-      <c r="H85" t="n">
-        <v>24.51111015601737</v>
-      </c>
-      <c r="I85" t="n">
-        <v>29</v>
-      </c>
-      <c r="J85" t="n">
-        <v>123</v>
-      </c>
-      <c r="K85" t="n">
-        <v>370.6013469875533</v>
-      </c>
-      <c r="L85" t="n">
-        <v>10.01403479698708</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0.8211905233173952</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.2357723577235772</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.2922441667174101</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.7882680567942085</v>
-      </c>
-      <c r="T85" t="inlineStr">
+      <c r="G89" t="n">
+        <v>97</v>
+      </c>
+      <c r="H89" t="n">
+        <v>10.41990557702911</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>82</v>
+      </c>
+      <c r="K89" t="n">
+        <v>194.3089872165691</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.764584000444296</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.7856016450196908</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.1829268292682927</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3079772933757378</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.8203224130856887</v>
+      </c>
+      <c r="T89" t="inlineStr">
         <is>
           <t>n34</t>
         </is>
       </c>
-      <c r="U85" t="n">
-        <v>610</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
+      <c r="U89" t="n">
+        <v>650</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday9\processed_No.2979241017CSDSDAY9homecage22024-12-06214123trace.xlsx</t>
         </is>
